--- a/Time_10.xlsx
+++ b/Time_10.xlsx
@@ -13,14 +13,14 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="8" sheetId="1" r:id="rId1"/>
-    <sheet name="9" sheetId="2" r:id="rId2"/>
+    <sheet name="6" sheetId="1" r:id="rId1"/>
+    <sheet name="8" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
-    <sheet name="5" sheetId="4" r:id="rId4"/>
-    <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="0" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'8'!$A$1:$A$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6'!$A$1:$A$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -517,1102 +517,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42100.0</v>
+        <v>62200.0</v>
       </c>
       <c r="B2" t="n">
-        <v>516700.0</v>
+        <v>528300.0</v>
       </c>
       <c r="C2" t="n">
-        <v>536601.0</v>
+        <v>546500.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31901.0</v>
+        <v>34700.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2625.0</v>
+        <v>3433.0</v>
       </c>
       <c r="C3" t="n">
-        <v>11199.0</v>
+        <v>12500.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28600.0</v>
+        <v>19800.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2899.0</v>
+        <v>2340.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7349.0</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26300.0</v>
+        <v>20200.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3100.0</v>
+        <v>7550.0</v>
       </c>
       <c r="C5" t="n">
-        <v>8249.0</v>
+        <v>7450.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25401.0</v>
+        <v>22900.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3433.0</v>
+        <v>2800.0</v>
       </c>
       <c r="C6" t="n">
-        <v>7700.0</v>
+        <v>7100.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22299.0</v>
+        <v>19400.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3050.0</v>
+        <v>2650.0</v>
       </c>
       <c r="C7" t="n">
-        <v>11000.0</v>
+        <v>7200.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18600.0</v>
+        <v>20200.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2700.0</v>
+        <v>2725.0</v>
       </c>
       <c r="C8" t="n">
-        <v>13600.0</v>
+        <v>18100.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19700.0</v>
+        <v>18600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2825.0</v>
+        <v>2675.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7700.0</v>
+        <v>19500.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20799.0</v>
+        <v>23900.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3175.0</v>
+        <v>2720.0</v>
       </c>
       <c r="C10" t="n">
-        <v>7950.0</v>
+        <v>7500.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33500.0</v>
+        <v>29000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>11500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C11" t="n">
-        <v>13400.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22199.0</v>
+        <v>17800.0</v>
       </c>
       <c r="B12" t="n">
-        <v>3566.0</v>
+        <v>11800.0</v>
       </c>
       <c r="C12" t="n">
-        <v>12601.0</v>
+        <v>10800.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18501.0</v>
+        <v>31000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2650.0</v>
+        <v>8050.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5200.0</v>
+        <v>18600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25000.0</v>
+        <v>23400.0</v>
       </c>
       <c r="B14" t="n">
-        <v>3025.0</v>
+        <v>10400.0</v>
       </c>
       <c r="C14" t="n">
-        <v>11400.0</v>
+        <v>7150.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19201.0</v>
+        <v>19700.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2550.0</v>
+        <v>2725.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6000.0</v>
+        <v>410400.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19900.0</v>
+        <v>22400.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2799.0</v>
+        <v>2750.0</v>
       </c>
       <c r="C16" t="n">
-        <v>10299.0</v>
+        <v>10200.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24700.0</v>
+        <v>21400.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2800.0</v>
+        <v>11700.0</v>
       </c>
       <c r="C17" t="n">
-        <v>6200.0</v>
+        <v>10050.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20100.0</v>
+        <v>18600.0</v>
       </c>
       <c r="B18" t="n">
-        <v>2725.0</v>
+        <v>2220.0</v>
       </c>
       <c r="C18" t="n">
-        <v>6400.0</v>
+        <v>6700.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20200.0</v>
+        <v>27700.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3074.0</v>
+        <v>1614.0</v>
       </c>
       <c r="C19" t="n">
-        <v>6400.0</v>
+        <v>3566.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16900.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B20" t="n">
-        <v>2599.0</v>
+        <v>1783.0</v>
       </c>
       <c r="C20" t="n">
-        <v>6349.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15300.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B21" t="n">
-        <v>3633.0</v>
+        <v>2180.0</v>
       </c>
       <c r="C21" t="n">
-        <v>5400.0</v>
+        <v>10500.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22700.0</v>
+        <v>11500.0</v>
       </c>
       <c r="B22" t="n">
-        <v>2700.0</v>
+        <v>1557.0</v>
       </c>
       <c r="C22" t="n">
-        <v>5850.0</v>
+        <v>3466.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15800.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2850.0</v>
+        <v>572.0</v>
       </c>
       <c r="C23" t="n">
-        <v>6350.0</v>
+        <v>3466.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17600.0</v>
+        <v>14600.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2775.0</v>
+        <v>742.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5800.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27099.0</v>
+        <v>16600.0</v>
       </c>
       <c r="B25" t="n">
-        <v>2300.0</v>
+        <v>807.0</v>
       </c>
       <c r="C25" t="n">
-        <v>5500.0</v>
+        <v>9150.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22900.0</v>
+        <v>15900.0</v>
       </c>
       <c r="B26" t="n">
-        <v>6799.0</v>
+        <v>5200.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8900.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>22101.0</v>
+        <v>20800.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1800.0</v>
+        <v>735.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4099.0</v>
+        <v>3733.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34700.0</v>
+        <v>18200.0</v>
       </c>
       <c r="B28" t="n">
-        <v>2925.0</v>
+        <v>377.0</v>
       </c>
       <c r="C28" t="n">
-        <v>10600.0</v>
+        <v>3833.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11400.0</v>
+        <v>15100.0</v>
       </c>
       <c r="B29" t="n">
-        <v>4200.0</v>
+        <v>588.0</v>
       </c>
       <c r="C29" t="n">
-        <v>3466.0</v>
+        <v>5850.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12900.0</v>
+        <v>18900.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1585.0</v>
+        <v>485.0</v>
       </c>
       <c r="C30" t="n">
-        <v>3766.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>70200.0</v>
+        <v>16000.0</v>
       </c>
       <c r="B31" t="n">
-        <v>9500.0</v>
+        <v>472.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6700.0</v>
+        <v>3933.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18600.0</v>
+        <v>15600.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2575.0</v>
+        <v>510.0</v>
       </c>
       <c r="C32" t="n">
-        <v>7050.0</v>
+        <v>11500.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>57800.0</v>
+        <v>17200.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2975.0</v>
+        <v>460.0</v>
       </c>
       <c r="C33" t="n">
-        <v>5700.0</v>
+        <v>4233.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17700.0</v>
+        <v>1.02454E7</v>
       </c>
       <c r="B34" t="n">
-        <v>3150.0</v>
+        <v>542.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6950.0</v>
+        <v>6450.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17700.0</v>
+        <v>11900.0</v>
       </c>
       <c r="B35" t="n">
-        <v>5400.0</v>
+        <v>283.0</v>
       </c>
       <c r="C35" t="n">
-        <v>29600.0</v>
+        <v>11000.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14901.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2824.0</v>
+        <v>600.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5899.0</v>
+        <v>6150.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>14999.0</v>
+        <v>15900.0</v>
       </c>
       <c r="B37" t="n">
-        <v>9704900.0</v>
+        <v>693.0</v>
       </c>
       <c r="C37" t="n">
-        <v>16499.0</v>
+        <v>8350.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15801.0</v>
+        <v>17700.0</v>
       </c>
       <c r="B38" t="n">
-        <v>11300.0</v>
+        <v>515.0</v>
       </c>
       <c r="C38" t="n">
-        <v>19600.0</v>
+        <v>10900.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25301.0</v>
+        <v>17200.0</v>
       </c>
       <c r="B39" t="n">
-        <v>14600.0</v>
+        <v>477.0</v>
       </c>
       <c r="C39" t="n">
-        <v>5850.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17401.0</v>
+        <v>15600.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4300.0</v>
+        <v>490.0</v>
       </c>
       <c r="C40" t="n">
-        <v>7250.0</v>
+        <v>4666.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17101.0</v>
+        <v>18700.0</v>
       </c>
       <c r="B41" t="n">
-        <v>3174.0</v>
+        <v>530.0</v>
       </c>
       <c r="C41" t="n">
-        <v>5800.0</v>
+        <v>5550.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17300.0</v>
+        <v>18400.0</v>
       </c>
       <c r="B42" t="n">
-        <v>3533.0</v>
+        <v>542.0</v>
       </c>
       <c r="C42" t="n">
-        <v>5950.0</v>
+        <v>4166.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15601.0</v>
+        <v>15900.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3367.0</v>
+        <v>460.0</v>
       </c>
       <c r="C43" t="n">
-        <v>5399.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16700.0</v>
+        <v>16400.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1059.0</v>
+        <v>504.0</v>
       </c>
       <c r="C44" t="n">
-        <v>6549.0</v>
+        <v>4133.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15300.0</v>
+        <v>18500.0</v>
       </c>
       <c r="B45" t="n">
-        <v>742.0</v>
+        <v>412.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5500.0</v>
+        <v>3866.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14900.0</v>
+        <v>15800.0</v>
       </c>
       <c r="B46" t="n">
-        <v>557.0</v>
+        <v>486.0</v>
       </c>
       <c r="C46" t="n">
-        <v>5250.0</v>
+        <v>3966.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12999.0</v>
+        <v>17200.0</v>
       </c>
       <c r="B47" t="n">
-        <v>757.0</v>
+        <v>412.0</v>
       </c>
       <c r="C47" t="n">
-        <v>13700.0</v>
+        <v>3966.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15199.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B48" t="n">
-        <v>443.0</v>
+        <v>566.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2575.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11100.0</v>
+        <v>16000.0</v>
       </c>
       <c r="B49" t="n">
-        <v>286.0</v>
+        <v>437.0</v>
       </c>
       <c r="C49" t="n">
-        <v>2300.0</v>
+        <v>11633.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8350.0</v>
+        <v>15500.0</v>
       </c>
       <c r="B50" t="n">
-        <v>275.0</v>
+        <v>662.0</v>
       </c>
       <c r="C50" t="n">
-        <v>2220.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16600.0</v>
+        <v>15600.0</v>
       </c>
       <c r="B51" t="n">
-        <v>278.0</v>
+        <v>441.0</v>
       </c>
       <c r="C51" t="n">
-        <v>2100.0</v>
+        <v>3833.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10299.0</v>
+        <v>15000.0</v>
       </c>
       <c r="B52" t="n">
-        <v>321.0</v>
+        <v>443.0</v>
       </c>
       <c r="C52" t="n">
-        <v>18550.0</v>
+        <v>19200.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20000.0</v>
+        <v>16700.0</v>
       </c>
       <c r="B53" t="n">
-        <v>617.0</v>
+        <v>388.0</v>
       </c>
       <c r="C53" t="n">
-        <v>8100.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>24700.0</v>
+        <v>12900.0</v>
       </c>
       <c r="B54" t="n">
-        <v>278.0</v>
+        <v>468.0</v>
       </c>
       <c r="C54" t="n">
-        <v>2320.0</v>
+        <v>1457.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13601.0</v>
+        <v>42400.0</v>
       </c>
       <c r="B55" t="n">
-        <v>460.0</v>
+        <v>443.0</v>
       </c>
       <c r="C55" t="n">
-        <v>18700.0</v>
+        <v>1783.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="B56" t="n">
-        <v>472.0</v>
+        <v>420.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1900.0</v>
+        <v>1816.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14300.0</v>
+        <v>35700.0</v>
       </c>
       <c r="B57" t="n">
-        <v>377.0</v>
+        <v>510.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1816.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>42300.0</v>
+        <v>664800.0</v>
       </c>
       <c r="B58" t="n">
-        <v>441.0</v>
+        <v>572.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1933.0</v>
+        <v>2320.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14000.0</v>
+        <v>17100.0</v>
       </c>
       <c r="B59" t="n">
-        <v>396.0</v>
+        <v>686.0</v>
       </c>
       <c r="C59" t="n">
-        <v>2160.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>14400.0</v>
+        <v>25200.0</v>
       </c>
       <c r="B60" t="n">
-        <v>433.0</v>
+        <v>681.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1866.0</v>
+        <v>1850.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15900.0</v>
+        <v>14900.0</v>
       </c>
       <c r="B61" t="n">
-        <v>346.0</v>
+        <v>509.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1500.0</v>
+        <v>1983.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21401.0</v>
+        <v>14600.0</v>
       </c>
       <c r="B62" t="n">
-        <v>764.0</v>
+        <v>577.0</v>
       </c>
       <c r="C62" t="n">
-        <v>3833.0</v>
+        <v>2060.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>39401.0</v>
+        <v>28800.0</v>
       </c>
       <c r="B63" t="n">
-        <v>577.0</v>
+        <v>542.0</v>
       </c>
       <c r="C63" t="n">
-        <v>2924.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14400.0</v>
+        <v>8550.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1025.0</v>
+        <v>447.0</v>
       </c>
       <c r="C64" t="n">
-        <v>2825.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12999.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B65" t="n">
-        <v>600.0</v>
+        <v>807.0</v>
       </c>
       <c r="C65" t="n">
-        <v>2725.0</v>
+        <v>2060.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11300.0</v>
+        <v>11400.0</v>
       </c>
       <c r="B66" t="n">
-        <v>392.0</v>
+        <v>490.0</v>
       </c>
       <c r="C66" t="n">
-        <v>2280.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13600.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B67" t="n">
-        <v>463.0</v>
+        <v>456.0</v>
       </c>
       <c r="C67" t="n">
-        <v>2420.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12001.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B68" t="n">
-        <v>490.0</v>
+        <v>385.0</v>
       </c>
       <c r="C68" t="n">
-        <v>6850.0</v>
+        <v>1070.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12900.0</v>
+        <v>12600.0</v>
       </c>
       <c r="B69" t="n">
-        <v>463.0</v>
+        <v>504.0</v>
       </c>
       <c r="C69" t="n">
-        <v>2320.0</v>
+        <v>1177.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12200.0</v>
+        <v>8450.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4750.0</v>
+        <v>375.0</v>
       </c>
       <c r="C70" t="n">
-        <v>2040.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12200.0</v>
+        <v>8150.0</v>
       </c>
       <c r="B71" t="n">
-        <v>420.0</v>
+        <v>364.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1883.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12000.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B72" t="n">
-        <v>452.0</v>
+        <v>3011.0</v>
       </c>
       <c r="C72" t="n">
-        <v>2080.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10799.0</v>
+        <v>7750.0</v>
       </c>
       <c r="B73" t="n">
-        <v>468.0</v>
+        <v>2440.0</v>
       </c>
       <c r="C73" t="n">
-        <v>2180.0</v>
+        <v>2266.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8450.0</v>
+        <v>25200.0</v>
       </c>
       <c r="B74" t="n">
-        <v>443.0</v>
+        <v>617.0</v>
       </c>
       <c r="C74" t="n">
-        <v>1783.0</v>
+        <v>1177.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10650.0</v>
+        <v>15100.0</v>
       </c>
       <c r="B75" t="n">
-        <v>4612.0</v>
+        <v>572.0</v>
       </c>
       <c r="C75" t="n">
-        <v>2120.0</v>
+        <v>846.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14600.0</v>
+        <v>10500.0</v>
       </c>
       <c r="B76" t="n">
-        <v>515.0</v>
+        <v>437.0</v>
       </c>
       <c r="C76" t="n">
-        <v>2260.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10199.0</v>
+        <v>8850.0</v>
       </c>
       <c r="B77" t="n">
-        <v>495.0</v>
+        <v>686.0</v>
       </c>
       <c r="C77" t="n">
-        <v>2040.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9299.0</v>
+        <v>15900.0</v>
       </c>
       <c r="B78" t="n">
-        <v>566.0</v>
+        <v>530.0</v>
       </c>
       <c r="C78" t="n">
-        <v>1983.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10200.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B79" t="n">
-        <v>456.0</v>
+        <v>362.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3000.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>40000.0</v>
+        <v>8450.0</v>
       </c>
       <c r="B80" t="n">
-        <v>447.0</v>
+        <v>662.0</v>
       </c>
       <c r="C80" t="n">
-        <v>2625.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8350.0</v>
+        <v>44000.0</v>
       </c>
       <c r="B81" t="n">
-        <v>481.0</v>
+        <v>635.0</v>
       </c>
       <c r="C81" t="n">
-        <v>2999.0</v>
+        <v>706.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>12800.0</v>
+        <v>8600.0</v>
       </c>
       <c r="B82" t="n">
-        <v>456.0</v>
+        <v>485.0</v>
       </c>
       <c r="C82" t="n">
-        <v>1933.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10400.0</v>
+        <v>62100.0</v>
       </c>
       <c r="B83" t="n">
-        <v>318.0</v>
+        <v>412.0</v>
       </c>
       <c r="C83" t="n">
-        <v>3000.0</v>
+        <v>1766.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>18600.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B84" t="n">
-        <v>433.0</v>
+        <v>396.0</v>
       </c>
       <c r="C84" t="n">
-        <v>2575.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14201.0</v>
+        <v>7300.0</v>
       </c>
       <c r="B85" t="n">
-        <v>416.0</v>
+        <v>412.0</v>
       </c>
       <c r="C85" t="n">
-        <v>720.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10799.0</v>
+        <v>8900.0</v>
       </c>
       <c r="B86" t="n">
-        <v>515.0</v>
+        <v>1457.0</v>
       </c>
       <c r="C86" t="n">
-        <v>875.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>33999.0</v>
+        <v>8050.0</v>
       </c>
       <c r="B87" t="n">
-        <v>686.0</v>
+        <v>219.0</v>
       </c>
       <c r="C87" t="n">
-        <v>883.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8400.0</v>
+        <v>8000.0</v>
       </c>
       <c r="B88" t="n">
-        <v>572.0</v>
+        <v>188.0</v>
       </c>
       <c r="C88" t="n">
-        <v>927.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10300.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B89" t="n">
-        <v>460.0</v>
+        <v>206.0</v>
       </c>
       <c r="C89" t="n">
-        <v>1020.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9000.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B90" t="n">
-        <v>627.0</v>
+        <v>223.0</v>
       </c>
       <c r="C90" t="n">
-        <v>936.0</v>
+        <v>1312.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7699.0</v>
+        <v>8700.0</v>
       </c>
       <c r="B91" t="n">
-        <v>452.0</v>
+        <v>203.0</v>
       </c>
       <c r="C91" t="n">
-        <v>800.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8050.0</v>
+        <v>8900.0</v>
       </c>
       <c r="B92" t="n">
-        <v>381.0</v>
+        <v>237.0</v>
       </c>
       <c r="C92" t="n">
-        <v>891.0</v>
+        <v>1188.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8650.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B93" t="n">
-        <v>515.0</v>
+        <v>217.0</v>
       </c>
       <c r="C93" t="n">
-        <v>927.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8750.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B94" t="n">
-        <v>510.0</v>
+        <v>212.0</v>
       </c>
       <c r="C94" t="n">
-        <v>945.0</v>
+        <v>1030.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10801.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B95" t="n">
-        <v>11801.0</v>
+        <v>208.0</v>
       </c>
       <c r="C95" t="n">
-        <v>815.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>11000.0</v>
+        <v>8300.0</v>
       </c>
       <c r="B96" t="n">
-        <v>202.0</v>
+        <v>212.0</v>
       </c>
       <c r="C96" t="n">
-        <v>875.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>15400.0</v>
+        <v>8450.0</v>
       </c>
       <c r="B97" t="n">
-        <v>214.0</v>
+        <v>210.0</v>
       </c>
       <c r="C97" t="n">
-        <v>1080.0</v>
+        <v>981.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10400.0</v>
+        <v>7950.0</v>
       </c>
       <c r="B98" t="n">
-        <v>151.0</v>
+        <v>268.0</v>
       </c>
       <c r="C98" t="n">
-        <v>1060.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10900.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B99" t="n">
-        <v>202.0</v>
+        <v>242.0</v>
       </c>
       <c r="C99" t="n">
-        <v>728.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8550.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B100" t="n">
-        <v>281.0</v>
+        <v>221.0</v>
       </c>
       <c r="C100" t="n">
-        <v>815.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>12000.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B101" t="n">
-        <v>172.0</v>
+        <v>210.0</v>
       </c>
       <c r="C101" t="n">
-        <v>883.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1679,197 +1679,197 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1454.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B2" t="n">
-        <v>58399.0</v>
+        <v>166.0</v>
       </c>
       <c r="C2" t="n">
-        <v>515.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>421.0</v>
+        <v>11500.0</v>
       </c>
       <c r="B3" t="n">
-        <v>21000.0</v>
+        <v>425.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1211.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>188.0</v>
+        <v>8900.0</v>
       </c>
       <c r="B4" t="n">
-        <v>13999.0</v>
+        <v>134.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1600.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>364.0</v>
+        <v>10500.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1783.0</v>
+        <v>201.0</v>
       </c>
       <c r="C5" t="n">
-        <v>542.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1538.0</v>
+        <v>38200.0</v>
       </c>
       <c r="B6" t="n">
-        <v>735.0</v>
+        <v>154.0</v>
       </c>
       <c r="C6" t="n">
-        <v>557.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1180.0</v>
+        <v>8800.0</v>
       </c>
       <c r="B7" t="n">
-        <v>742.0</v>
+        <v>147.0</v>
       </c>
       <c r="C7" t="n">
-        <v>875.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>447.0</v>
+        <v>8150.0</v>
       </c>
       <c r="B8" t="n">
-        <v>830.0</v>
+        <v>143.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1500.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>367.0</v>
+        <v>9000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>728.0</v>
+        <v>156.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1188.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>566.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B10" t="n">
-        <v>680.0</v>
+        <v>151.0</v>
       </c>
       <c r="C10" t="n">
-        <v>954.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>481.0</v>
+        <v>8300.0</v>
       </c>
       <c r="B11" t="n">
-        <v>778.0</v>
+        <v>154.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1457.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>381.0</v>
+        <v>12500.0</v>
       </c>
       <c r="B12" t="n">
-        <v>771.0</v>
+        <v>201.0</v>
       </c>
       <c r="C12" t="n">
-        <v>972.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>509.0</v>
+        <v>7550.0</v>
       </c>
       <c r="B13" t="n">
-        <v>945.0</v>
+        <v>178.0</v>
       </c>
       <c r="C13" t="n">
-        <v>963.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>462.0</v>
+        <v>8250.0</v>
       </c>
       <c r="B14" t="n">
-        <v>735.0</v>
+        <v>154.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>572.0</v>
+        <v>8650.0</v>
       </c>
       <c r="B15" t="n">
-        <v>908.0</v>
+        <v>145.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1928.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1763.0</v>
+        <v>8050.0</v>
       </c>
       <c r="B16" t="n">
-        <v>443.0</v>
+        <v>149.0</v>
       </c>
       <c r="C16" t="n">
-        <v>510.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>158.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B17" t="n">
-        <v>408.0</v>
+        <v>137.0</v>
       </c>
       <c r="C17" t="n">
-        <v>693.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>180.0</v>
+        <v>8950.0</v>
       </c>
       <c r="B18" t="n">
-        <v>403.0</v>
+        <v>147.0</v>
       </c>
       <c r="C18" t="n">
-        <v>500.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>153.0</v>
+        <v>7700.0</v>
       </c>
       <c r="B19" t="n">
-        <v>399.0</v>
+        <v>234.0</v>
       </c>
       <c r="C19" t="n">
         <v>500.0</v>
@@ -1877,904 +1877,904 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>246.0</v>
+        <v>7750.0</v>
       </c>
       <c r="B20" t="n">
-        <v>481.0</v>
+        <v>137.0</v>
       </c>
       <c r="C20" t="n">
-        <v>957.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>381.0</v>
+        <v>14000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>686.0</v>
+        <v>850.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1072.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>201.0</v>
+        <v>7700.0</v>
       </c>
       <c r="B22" t="n">
-        <v>611.0</v>
+        <v>147.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1211.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>198.0</v>
+        <v>7200.0</v>
       </c>
       <c r="B23" t="n">
-        <v>866.0</v>
+        <v>115.0</v>
       </c>
       <c r="C23" t="n">
-        <v>875.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>205.0</v>
+        <v>7400.0</v>
       </c>
       <c r="B24" t="n">
-        <v>742.0</v>
+        <v>143.0</v>
       </c>
       <c r="C24" t="n">
-        <v>927.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>302.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B25" t="n">
-        <v>600.0</v>
+        <v>139.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1019.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>452.0</v>
+        <v>6850.0</v>
       </c>
       <c r="B26" t="n">
-        <v>14200.0</v>
+        <v>139.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1030.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>168.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B27" t="n">
-        <v>990.0</v>
+        <v>127.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1000.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>212.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B28" t="n">
-        <v>764.0</v>
+        <v>183.0</v>
       </c>
       <c r="C28" t="n">
-        <v>875.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>463.0</v>
+        <v>7550.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1258.0</v>
+        <v>149.0</v>
       </c>
       <c r="C29" t="n">
-        <v>850.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>219.0</v>
+        <v>7900.0</v>
       </c>
       <c r="B30" t="n">
-        <v>650.0</v>
+        <v>159.0</v>
       </c>
       <c r="C30" t="n">
-        <v>12299.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>190.0</v>
+        <v>9000.0</v>
       </c>
       <c r="B31" t="n">
-        <v>566.0</v>
+        <v>143.0</v>
       </c>
       <c r="C31" t="n">
-        <v>594.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>177.0</v>
+        <v>7550.0</v>
       </c>
       <c r="B32" t="n">
-        <v>566.0</v>
+        <v>145.0</v>
       </c>
       <c r="C32" t="n">
-        <v>563.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>204.0</v>
+        <v>7450.0</v>
       </c>
       <c r="B33" t="n">
-        <v>583.0</v>
+        <v>147.0</v>
       </c>
       <c r="C33" t="n">
-        <v>594.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>180.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B34" t="n">
-        <v>577.0</v>
+        <v>151.0</v>
       </c>
       <c r="C34" t="n">
-        <v>577.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>162.0</v>
+        <v>9750.0</v>
       </c>
       <c r="B35" t="n">
-        <v>869.0</v>
+        <v>198.0</v>
       </c>
       <c r="C35" t="n">
-        <v>742.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>167.0</v>
+        <v>7550.0</v>
       </c>
       <c r="B36" t="n">
-        <v>700.0</v>
+        <v>166.0</v>
       </c>
       <c r="C36" t="n">
-        <v>563.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>171.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B37" t="n">
-        <v>681.0</v>
+        <v>161.0</v>
       </c>
       <c r="C37" t="n">
-        <v>728.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>187.0</v>
+        <v>7450.0</v>
       </c>
       <c r="B38" t="n">
-        <v>605.0</v>
+        <v>156.0</v>
       </c>
       <c r="C38" t="n">
-        <v>600.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>170.0</v>
+        <v>8150.0</v>
       </c>
       <c r="B39" t="n">
-        <v>637.0</v>
+        <v>134.0</v>
       </c>
       <c r="C39" t="n">
-        <v>643.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>305.0</v>
+        <v>7900.0</v>
       </c>
       <c r="B40" t="n">
-        <v>866.0</v>
+        <v>149.0</v>
       </c>
       <c r="C40" t="n">
-        <v>858.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>171.0</v>
+        <v>10000.0</v>
       </c>
       <c r="B41" t="n">
-        <v>668.0</v>
+        <v>150.0</v>
       </c>
       <c r="C41" t="n">
-        <v>662.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>190.0</v>
+        <v>7950.0</v>
       </c>
       <c r="B42" t="n">
-        <v>875.0</v>
+        <v>158.0</v>
       </c>
       <c r="C42" t="n">
-        <v>643.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>183.0</v>
+        <v>8000.0</v>
       </c>
       <c r="B43" t="n">
-        <v>757.0</v>
+        <v>147.0</v>
       </c>
       <c r="C43" t="n">
-        <v>637.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>190.0</v>
+        <v>8050.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1275.0</v>
+        <v>198.0</v>
       </c>
       <c r="C44" t="n">
-        <v>623.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>212.0</v>
+        <v>12600.0</v>
       </c>
       <c r="B45" t="n">
-        <v>268.0</v>
+        <v>149.0</v>
       </c>
       <c r="C45" t="n">
-        <v>635.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>198.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B46" t="n">
-        <v>273.0</v>
+        <v>158.0</v>
       </c>
       <c r="C46" t="n">
-        <v>637.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>208.0</v>
+        <v>8250.0</v>
       </c>
       <c r="B47" t="n">
-        <v>260.0</v>
+        <v>156.0</v>
       </c>
       <c r="C47" t="n">
-        <v>643.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>217.0</v>
+        <v>8500.0</v>
       </c>
       <c r="B48" t="n">
-        <v>271.0</v>
+        <v>153.0</v>
       </c>
       <c r="C48" t="n">
-        <v>656.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>194.0</v>
+        <v>9100.0</v>
       </c>
       <c r="B49" t="n">
-        <v>257.0</v>
+        <v>150.0</v>
       </c>
       <c r="C49" t="n">
-        <v>643.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>161.0</v>
+        <v>7250.0</v>
       </c>
       <c r="B50" t="n">
-        <v>260.0</v>
+        <v>141.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1400.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>141.0</v>
+        <v>7300.0</v>
       </c>
       <c r="B51" t="n">
-        <v>273.0</v>
+        <v>906.0</v>
       </c>
       <c r="C51" t="n">
-        <v>617.0</v>
+        <v>1068.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>297.0</v>
+        <v>7900.0</v>
       </c>
       <c r="B52" t="n">
-        <v>281.0</v>
+        <v>198.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1144.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B53" t="n">
-        <v>302.0</v>
+        <v>255.0</v>
       </c>
       <c r="C53" t="n">
-        <v>792.0</v>
+        <v>658.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>156.0</v>
+        <v>13500.0</v>
       </c>
       <c r="B54" t="n">
-        <v>835.0</v>
+        <v>76.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1409.0</v>
+        <v>792.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74.0</v>
+        <v>12100.0</v>
       </c>
       <c r="B55" t="n">
-        <v>172.0</v>
+        <v>84.0</v>
       </c>
       <c r="C55" t="n">
-        <v>452.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B56" t="n">
-        <v>161.0</v>
+        <v>80.0</v>
       </c>
       <c r="C56" t="n">
-        <v>396.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>161.0</v>
+        <v>26200.0</v>
       </c>
       <c r="B57" t="n">
-        <v>166.0</v>
+        <v>100.0</v>
       </c>
       <c r="C57" t="n">
-        <v>381.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>66.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B58" t="n">
-        <v>160.0</v>
+        <v>84.0</v>
       </c>
       <c r="C58" t="n">
-        <v>381.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B59" t="n">
-        <v>161.0</v>
+        <v>73.0</v>
       </c>
       <c r="C59" t="n">
-        <v>385.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>78.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B60" t="n">
-        <v>161.0</v>
+        <v>72.0</v>
       </c>
       <c r="C60" t="n">
-        <v>784.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>65.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B61" t="n">
-        <v>163.0</v>
+        <v>117.0</v>
       </c>
       <c r="C61" t="n">
-        <v>420.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>106.0</v>
+        <v>8300.0</v>
       </c>
       <c r="B62" t="n">
-        <v>291.0</v>
+        <v>82.0</v>
       </c>
       <c r="C62" t="n">
-        <v>693.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66.0</v>
+        <v>8550.0</v>
       </c>
       <c r="B63" t="n">
-        <v>162.0</v>
+        <v>73.0</v>
       </c>
       <c r="C63" t="n">
-        <v>396.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>113.0</v>
+        <v>10800.0</v>
       </c>
       <c r="B64" t="n">
-        <v>204.0</v>
+        <v>76.0</v>
       </c>
       <c r="C64" t="n">
-        <v>764.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>117.0</v>
+        <v>12400.0</v>
       </c>
       <c r="B65" t="n">
-        <v>291.0</v>
+        <v>87.0</v>
       </c>
       <c r="C65" t="n">
-        <v>680.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>114.0</v>
+        <v>9650.0</v>
       </c>
       <c r="B66" t="n">
-        <v>294.0</v>
+        <v>78.0</v>
       </c>
       <c r="C66" t="n">
-        <v>726.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>118.0</v>
+        <v>12300.0</v>
       </c>
       <c r="B67" t="n">
-        <v>447.0</v>
+        <v>84.0</v>
       </c>
       <c r="C67" t="n">
-        <v>726.0</v>
+        <v>963.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>125.0</v>
+        <v>11600.0</v>
       </c>
       <c r="B68" t="n">
-        <v>300.0</v>
+        <v>81.0</v>
       </c>
       <c r="C68" t="n">
-        <v>728.0</v>
+        <v>693.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>125.0</v>
+        <v>14200.0</v>
       </c>
       <c r="B69" t="n">
-        <v>309.0</v>
+        <v>81.0</v>
       </c>
       <c r="C69" t="n">
-        <v>778.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>127.0</v>
+        <v>12100.0</v>
       </c>
       <c r="B70" t="n">
-        <v>300.0</v>
+        <v>94.0</v>
       </c>
       <c r="C70" t="n">
-        <v>764.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>143.0</v>
+        <v>8800.0</v>
       </c>
       <c r="B71" t="n">
-        <v>294.0</v>
+        <v>85.0</v>
       </c>
       <c r="C71" t="n">
-        <v>706.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>124.0</v>
+        <v>8650.0</v>
       </c>
       <c r="B72" t="n">
-        <v>297.0</v>
+        <v>80.0</v>
       </c>
       <c r="C72" t="n">
-        <v>815.0</v>
+        <v>15200.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>107.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B73" t="n">
-        <v>247.0</v>
+        <v>300.0</v>
       </c>
       <c r="C73" t="n">
-        <v>12099.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1245.0</v>
+        <v>8100.0</v>
       </c>
       <c r="B74" t="n">
-        <v>288.0</v>
+        <v>57.0</v>
       </c>
       <c r="C74" t="n">
-        <v>611.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>114.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B75" t="n">
-        <v>283.0</v>
+        <v>62.0</v>
       </c>
       <c r="C75" t="n">
-        <v>3833.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>105.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B76" t="n">
-        <v>291.0</v>
+        <v>65.0</v>
       </c>
       <c r="C76" t="n">
-        <v>547.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>115.0</v>
+        <v>8900.0</v>
       </c>
       <c r="B77" t="n">
-        <v>255.0</v>
+        <v>61.0</v>
       </c>
       <c r="C77" t="n">
-        <v>815.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>128.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B78" t="n">
-        <v>338.0</v>
+        <v>62.0</v>
       </c>
       <c r="C78" t="n">
-        <v>686.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>141.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B79" t="n">
-        <v>297.0</v>
+        <v>71.0</v>
       </c>
       <c r="C79" t="n">
-        <v>600.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>121.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B80" t="n">
-        <v>283.0</v>
+        <v>69.0</v>
       </c>
       <c r="C80" t="n">
-        <v>637.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>115.0</v>
+        <v>9150.0</v>
       </c>
       <c r="B81" t="n">
-        <v>280.0</v>
+        <v>62.0</v>
       </c>
       <c r="C81" t="n">
-        <v>735.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>129.0</v>
+        <v>40550.0</v>
       </c>
       <c r="B82" t="n">
-        <v>247.0</v>
+        <v>56.0</v>
       </c>
       <c r="C82" t="n">
-        <v>552.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>118.0</v>
+        <v>9400.0</v>
       </c>
       <c r="B83" t="n">
-        <v>283.0</v>
+        <v>66.0</v>
       </c>
       <c r="C83" t="n">
-        <v>552.0</v>
+        <v>1593.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>174.0</v>
+        <v>8850.0</v>
       </c>
       <c r="B84" t="n">
-        <v>268.0</v>
+        <v>57.0</v>
       </c>
       <c r="C84" t="n">
-        <v>515.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>114.0</v>
+        <v>8700.0</v>
       </c>
       <c r="B85" t="n">
-        <v>302.0</v>
+        <v>61.0</v>
       </c>
       <c r="C85" t="n">
-        <v>600.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>156.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B86" t="n">
-        <v>312.0</v>
+        <v>64.0</v>
       </c>
       <c r="C86" t="n">
-        <v>611.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>121.0</v>
+        <v>8900.0</v>
       </c>
       <c r="B87" t="n">
-        <v>294.0</v>
+        <v>63.0</v>
       </c>
       <c r="C87" t="n">
-        <v>583.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>118.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B88" t="n">
-        <v>302.0</v>
+        <v>61.0</v>
       </c>
       <c r="C88" t="n">
-        <v>706.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>114.0</v>
+        <v>8700.0</v>
       </c>
       <c r="B89" t="n">
-        <v>305.0</v>
+        <v>60.0</v>
       </c>
       <c r="C89" t="n">
-        <v>637.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>121.0</v>
+        <v>8550.0</v>
       </c>
       <c r="B90" t="n">
-        <v>286.0</v>
+        <v>64.0</v>
       </c>
       <c r="C90" t="n">
-        <v>572.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>109.0</v>
+        <v>8600.0</v>
       </c>
       <c r="B91" t="n">
-        <v>283.0</v>
+        <v>70.0</v>
       </c>
       <c r="C91" t="n">
-        <v>566.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>110.0</v>
+        <v>9300.0</v>
       </c>
       <c r="B92" t="n">
-        <v>264.0</v>
+        <v>64.0</v>
       </c>
       <c r="C92" t="n">
-        <v>588.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>130.0</v>
+        <v>14000.0</v>
       </c>
       <c r="B93" t="n">
-        <v>329.0</v>
+        <v>66.0</v>
       </c>
       <c r="C93" t="n">
-        <v>735.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>122.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B94" t="n">
-        <v>294.0</v>
+        <v>62.0</v>
       </c>
       <c r="C94" t="n">
-        <v>675.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>117.0</v>
+        <v>9000.0</v>
       </c>
       <c r="B95" t="n">
-        <v>283.0</v>
+        <v>66.0</v>
       </c>
       <c r="C95" t="n">
-        <v>599.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>145.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B96" t="n">
-        <v>309.0</v>
+        <v>60.0</v>
       </c>
       <c r="C96" t="n">
-        <v>611.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>118.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B97" t="n">
-        <v>945.0</v>
+        <v>61.0</v>
       </c>
       <c r="C97" t="n">
-        <v>611.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>119.0</v>
+        <v>8500.0</v>
       </c>
       <c r="B98" t="n">
-        <v>288.0</v>
+        <v>64.0</v>
       </c>
       <c r="C98" t="n">
-        <v>588.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>125.0</v>
+        <v>11400.0</v>
       </c>
       <c r="B99" t="n">
-        <v>281.0</v>
+        <v>63.0</v>
       </c>
       <c r="C99" t="n">
-        <v>679.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>104.0</v>
+        <v>11900.0</v>
       </c>
       <c r="B100" t="n">
-        <v>255.0</v>
+        <v>72.0</v>
       </c>
       <c r="C100" t="n">
-        <v>742.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>134.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B101" t="n">
-        <v>408.0</v>
+        <v>76.0</v>
       </c>
       <c r="C101" t="n">
-        <v>536.0</v>
+        <v>858.0</v>
       </c>
     </row>
   </sheetData>
@@ -2826,54 +2826,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34299.0</v>
+        <v>1781.0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.0</v>
+        <v>130400.0</v>
       </c>
       <c r="C2" t="n">
-        <v>742.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1716.0</v>
+        <v>472.0</v>
       </c>
       <c r="B3" t="n">
-        <v>201.0</v>
+        <v>10700.0</v>
       </c>
       <c r="C3" t="n">
-        <v>728.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1485.0</v>
+        <v>1027.0</v>
       </c>
       <c r="B4" t="n">
-        <v>185.0</v>
+        <v>30500.0</v>
       </c>
       <c r="C4" t="n">
-        <v>594.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1080.0</v>
+        <v>1200.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C5" t="n">
-        <v>616.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1133.0</v>
+        <v>416.0</v>
       </c>
       <c r="B6" t="n">
-        <v>192.0</v>
+        <v>2040.0</v>
       </c>
       <c r="C6" t="n">
         <v>611.0</v>
@@ -2881,1047 +2881,1047 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1030.0</v>
+        <v>600.0</v>
       </c>
       <c r="B7" t="n">
-        <v>161.0</v>
+        <v>1471.0</v>
       </c>
       <c r="C7" t="n">
-        <v>742.0</v>
+        <v>5814.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>637.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>107.0</v>
+        <v>6750.0</v>
       </c>
       <c r="C8" t="n">
-        <v>315.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1200.0</v>
+        <v>1036.0</v>
       </c>
       <c r="B9" t="n">
-        <v>192.0</v>
+        <v>866.0</v>
       </c>
       <c r="C9" t="n">
-        <v>611.0</v>
+        <v>728.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1133.0</v>
+        <v>530.0</v>
       </c>
       <c r="B10" t="n">
-        <v>198.0</v>
+        <v>875.0</v>
       </c>
       <c r="C10" t="n">
-        <v>617.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1849.0</v>
+        <v>452.0</v>
       </c>
       <c r="B11" t="n">
-        <v>182.0</v>
+        <v>1292.0</v>
       </c>
       <c r="C11" t="n">
-        <v>672.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8200.0</v>
+        <v>605.0</v>
       </c>
       <c r="B12" t="n">
-        <v>206.0</v>
+        <v>617.0</v>
       </c>
       <c r="C12" t="n">
-        <v>611.0</v>
+        <v>771.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1144.0</v>
+        <v>617.0</v>
       </c>
       <c r="B13" t="n">
-        <v>159.0</v>
+        <v>583.0</v>
       </c>
       <c r="C13" t="n">
-        <v>583.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1200.0</v>
+        <v>916.0</v>
       </c>
       <c r="B14" t="n">
-        <v>171.0</v>
+        <v>623.0</v>
       </c>
       <c r="C14" t="n">
-        <v>617.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1177.0</v>
+        <v>600.0</v>
       </c>
       <c r="B15" t="n">
-        <v>477.0</v>
+        <v>706.0</v>
       </c>
       <c r="C15" t="n">
-        <v>588.0</v>
+        <v>4080.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1542.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B16" t="n">
-        <v>192.0</v>
+        <v>637.0</v>
       </c>
       <c r="C16" t="n">
-        <v>552.0</v>
+        <v>938.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1010.0</v>
+        <v>643.0</v>
       </c>
       <c r="B17" t="n">
-        <v>198.0</v>
+        <v>637.0</v>
       </c>
       <c r="C17" t="n">
-        <v>566.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1040.0</v>
+        <v>643.0</v>
       </c>
       <c r="B18" t="n">
-        <v>178.0</v>
+        <v>656.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1010.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>936.0</v>
+        <v>2381.0</v>
       </c>
       <c r="B19" t="n">
-        <v>194.0</v>
+        <v>611.0</v>
       </c>
       <c r="C19" t="n">
-        <v>566.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1177.0</v>
+        <v>412.0</v>
       </c>
       <c r="B20" t="n">
-        <v>174.0</v>
+        <v>583.0</v>
       </c>
       <c r="C20" t="n">
-        <v>534.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>945.0</v>
+        <v>253.0</v>
       </c>
       <c r="B21" t="n">
-        <v>180.0</v>
+        <v>635.0</v>
       </c>
       <c r="C21" t="n">
-        <v>599.0</v>
+        <v>617.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1027.0</v>
+        <v>1725.0</v>
       </c>
       <c r="B22" t="n">
-        <v>800.0</v>
+        <v>941.0</v>
       </c>
       <c r="C22" t="n">
-        <v>510.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1027.0</v>
+        <v>198.0</v>
       </c>
       <c r="B23" t="n">
-        <v>174.0</v>
+        <v>572.0</v>
       </c>
       <c r="C23" t="n">
-        <v>891.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1040.0</v>
+        <v>174.0</v>
       </c>
       <c r="B24" t="n">
-        <v>188.0</v>
+        <v>510.0</v>
       </c>
       <c r="C24" t="n">
-        <v>700.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1050.0</v>
+        <v>231.0</v>
       </c>
       <c r="B25" t="n">
-        <v>206.0</v>
+        <v>447.0</v>
       </c>
       <c r="C25" t="n">
-        <v>577.0</v>
+        <v>641.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1018.0</v>
+        <v>281.0</v>
       </c>
       <c r="B26" t="n">
-        <v>185.0</v>
+        <v>594.0</v>
       </c>
       <c r="C26" t="n">
-        <v>563.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>954.0</v>
+        <v>219.0</v>
       </c>
       <c r="B27" t="n">
-        <v>178.0</v>
+        <v>536.0</v>
       </c>
       <c r="C27" t="n">
-        <v>588.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>972.0</v>
+        <v>258.0</v>
       </c>
       <c r="B28" t="n">
-        <v>188.0</v>
+        <v>784.0</v>
       </c>
       <c r="C28" t="n">
-        <v>572.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1144.0</v>
+        <v>242.0</v>
       </c>
       <c r="B29" t="n">
-        <v>182.0</v>
+        <v>515.0</v>
       </c>
       <c r="C29" t="n">
-        <v>611.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1211.0</v>
+        <v>328.0</v>
       </c>
       <c r="B30" t="n">
-        <v>192.0</v>
+        <v>742.0</v>
       </c>
       <c r="C30" t="n">
-        <v>599.0</v>
+        <v>12800.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1485.0</v>
+        <v>255.0</v>
       </c>
       <c r="B31" t="n">
-        <v>196.0</v>
+        <v>629.0</v>
       </c>
       <c r="C31" t="n">
-        <v>588.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1039.0</v>
+        <v>231.0</v>
       </c>
       <c r="B32" t="n">
-        <v>196.0</v>
+        <v>605.0</v>
       </c>
       <c r="C32" t="n">
-        <v>605.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1080.0</v>
+        <v>198.0</v>
       </c>
       <c r="B33" t="n">
-        <v>192.0</v>
+        <v>945.0</v>
       </c>
       <c r="C33" t="n">
-        <v>600.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1362.0</v>
+        <v>226.0</v>
       </c>
       <c r="B34" t="n">
-        <v>166.0</v>
+        <v>637.0</v>
       </c>
       <c r="C34" t="n">
-        <v>605.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>900.0</v>
+        <v>305.0</v>
       </c>
       <c r="B35" t="n">
-        <v>178.0</v>
+        <v>700.0</v>
       </c>
       <c r="C35" t="n">
-        <v>686.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>981.0</v>
+        <v>217.0</v>
       </c>
       <c r="B36" t="n">
-        <v>196.0</v>
+        <v>600.0</v>
       </c>
       <c r="C36" t="n">
-        <v>600.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1166.0</v>
+        <v>343.0</v>
       </c>
       <c r="B37" t="n">
-        <v>198.0</v>
+        <v>680.0</v>
       </c>
       <c r="C37" t="n">
-        <v>750.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1020.0</v>
+        <v>309.0</v>
       </c>
       <c r="B38" t="n">
-        <v>185.0</v>
+        <v>536.0</v>
       </c>
       <c r="C38" t="n">
-        <v>547.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1180.0</v>
+        <v>180.0</v>
       </c>
       <c r="B39" t="n">
-        <v>198.0</v>
+        <v>520.0</v>
       </c>
       <c r="C39" t="n">
-        <v>552.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6275.0</v>
+        <v>256.0</v>
       </c>
       <c r="B40" t="n">
-        <v>196.0</v>
+        <v>429.0</v>
       </c>
       <c r="C40" t="n">
-        <v>504.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1050.0</v>
+        <v>212.0</v>
       </c>
       <c r="B41" t="n">
-        <v>171.0</v>
+        <v>1650.0</v>
       </c>
       <c r="C41" t="n">
-        <v>535.0</v>
+        <v>617.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1133.0</v>
+        <v>255.0</v>
       </c>
       <c r="B42" t="n">
-        <v>178.0</v>
+        <v>4320.0</v>
       </c>
       <c r="C42" t="n">
-        <v>577.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1050.0</v>
+        <v>256.0</v>
       </c>
       <c r="B43" t="n">
-        <v>212.0</v>
+        <v>611.0</v>
       </c>
       <c r="C43" t="n">
-        <v>566.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1070.0</v>
+        <v>210.0</v>
       </c>
       <c r="B44" t="n">
-        <v>180.0</v>
+        <v>1177.0</v>
       </c>
       <c r="C44" t="n">
-        <v>605.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1300.0</v>
+        <v>194.0</v>
       </c>
       <c r="B45" t="n">
-        <v>196.0</v>
+        <v>542.0</v>
       </c>
       <c r="C45" t="n">
-        <v>643.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1020.0</v>
+        <v>198.0</v>
       </c>
       <c r="B46" t="n">
-        <v>966.0</v>
+        <v>552.0</v>
       </c>
       <c r="C46" t="n">
-        <v>680.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1287.0</v>
+        <v>206.0</v>
       </c>
       <c r="B47" t="n">
-        <v>204.0</v>
+        <v>547.0</v>
       </c>
       <c r="C47" t="n">
-        <v>1039.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1070.0</v>
+        <v>340.0</v>
       </c>
       <c r="B48" t="n">
-        <v>194.0</v>
+        <v>623.0</v>
       </c>
       <c r="C48" t="n">
-        <v>611.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1020.0</v>
+        <v>256.0</v>
       </c>
       <c r="B49" t="n">
-        <v>198.0</v>
+        <v>680.0</v>
       </c>
       <c r="C49" t="n">
-        <v>536.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>972.0</v>
+        <v>1887.0</v>
       </c>
       <c r="B50" t="n">
-        <v>177.0</v>
+        <v>542.0</v>
       </c>
       <c r="C50" t="n">
-        <v>572.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1188.0</v>
+        <v>204.0</v>
       </c>
       <c r="B51" t="n">
-        <v>188.0</v>
+        <v>693.0</v>
       </c>
       <c r="C51" t="n">
-        <v>600.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1337.0</v>
+        <v>183.0</v>
       </c>
       <c r="B52" t="n">
-        <v>196.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C52" t="n">
-        <v>617.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1337.0</v>
+        <v>206.0</v>
       </c>
       <c r="B53" t="n">
-        <v>196.0</v>
+        <v>635.0</v>
       </c>
       <c r="C53" t="n">
-        <v>680.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1312.0</v>
+        <v>221.0</v>
       </c>
       <c r="B54" t="n">
-        <v>198.0</v>
+        <v>5200.0</v>
       </c>
       <c r="C54" t="n">
-        <v>800.0</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1387.0</v>
+        <v>221.0</v>
       </c>
       <c r="B55" t="n">
-        <v>196.0</v>
+        <v>275.0</v>
       </c>
       <c r="C55" t="n">
-        <v>594.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>936.0</v>
+        <v>362.0</v>
       </c>
       <c r="B56" t="n">
-        <v>161.0</v>
+        <v>377.0</v>
       </c>
       <c r="C56" t="n">
-        <v>530.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1716.0</v>
+        <v>248.0</v>
       </c>
       <c r="B57" t="n">
-        <v>160.0</v>
+        <v>355.0</v>
       </c>
       <c r="C57" t="n">
-        <v>536.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1325.0</v>
+        <v>239.0</v>
       </c>
       <c r="B58" t="n">
-        <v>204.0</v>
+        <v>283.0</v>
       </c>
       <c r="C58" t="n">
-        <v>600.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1144.0</v>
+        <v>268.0</v>
       </c>
       <c r="B59" t="n">
-        <v>175.0</v>
+        <v>495.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1300.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1030.0</v>
+        <v>201.0</v>
       </c>
       <c r="B60" t="n">
-        <v>178.0</v>
+        <v>271.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1027.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1227.0</v>
+        <v>210.0</v>
       </c>
       <c r="B61" t="n">
-        <v>153.0</v>
+        <v>371.0</v>
       </c>
       <c r="C61" t="n">
-        <v>504.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1500.0</v>
+        <v>318.0</v>
       </c>
       <c r="B62" t="n">
-        <v>219.0</v>
+        <v>283.0</v>
       </c>
       <c r="C62" t="n">
-        <v>656.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2016.0</v>
+        <v>207.0</v>
       </c>
       <c r="B63" t="n">
-        <v>200.0</v>
+        <v>266.0</v>
       </c>
       <c r="C63" t="n">
-        <v>656.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>866.0</v>
+        <v>125.0</v>
       </c>
       <c r="B64" t="n">
-        <v>164.0</v>
+        <v>454.0</v>
       </c>
       <c r="C64" t="n">
-        <v>468.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1300.0</v>
+        <v>129.0</v>
       </c>
       <c r="B65" t="n">
-        <v>201.0</v>
+        <v>248.0</v>
       </c>
       <c r="C65" t="n">
-        <v>490.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1337.0</v>
+        <v>108.0</v>
       </c>
       <c r="B66" t="n">
-        <v>206.0</v>
+        <v>264.0</v>
       </c>
       <c r="C66" t="n">
-        <v>693.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6249.0</v>
+        <v>125.0</v>
       </c>
       <c r="B67" t="n">
-        <v>172.0</v>
+        <v>1114.0</v>
       </c>
       <c r="C67" t="n">
-        <v>908.0</v>
+        <v>629.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>583.0</v>
+        <v>129.0</v>
       </c>
       <c r="B68" t="n">
-        <v>107.0</v>
+        <v>275.0</v>
       </c>
       <c r="C68" t="n">
-        <v>408.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>954.0</v>
+        <v>167.0</v>
       </c>
       <c r="B69" t="n">
-        <v>156.0</v>
+        <v>491.0</v>
       </c>
       <c r="C69" t="n">
-        <v>509.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>936.0</v>
+        <v>124.0</v>
       </c>
       <c r="B70" t="n">
-        <v>199.0</v>
+        <v>255.0</v>
       </c>
       <c r="C70" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1362.0</v>
+        <v>128.0</v>
       </c>
       <c r="B71" t="n">
-        <v>180.0</v>
+        <v>416.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1090.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1039.0</v>
+        <v>130.0</v>
       </c>
       <c r="B72" t="n">
-        <v>149.0</v>
+        <v>255.0</v>
       </c>
       <c r="C72" t="n">
-        <v>792.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>891.0</v>
+        <v>130.0</v>
       </c>
       <c r="B73" t="n">
-        <v>172.0</v>
+        <v>437.0</v>
       </c>
       <c r="C73" t="n">
-        <v>605.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1009.0</v>
+        <v>164.0</v>
       </c>
       <c r="B74" t="n">
-        <v>187.0</v>
+        <v>291.0</v>
       </c>
       <c r="C74" t="n">
-        <v>485.0</v>
+        <v>629.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>700.0</v>
+        <v>125.0</v>
       </c>
       <c r="B75" t="n">
-        <v>107.0</v>
+        <v>343.0</v>
       </c>
       <c r="C75" t="n">
-        <v>321.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>594.0</v>
+        <v>150.0</v>
       </c>
       <c r="B76" t="n">
-        <v>107.0</v>
+        <v>275.0</v>
       </c>
       <c r="C76" t="n">
-        <v>315.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>572.0</v>
+        <v>127.0</v>
       </c>
       <c r="B77" t="n">
-        <v>107.0</v>
+        <v>271.0</v>
       </c>
       <c r="C77" t="n">
-        <v>315.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>583.0</v>
+        <v>108.0</v>
       </c>
       <c r="B78" t="n">
-        <v>172.0</v>
+        <v>340.0</v>
       </c>
       <c r="C78" t="n">
-        <v>799.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>899.0</v>
+        <v>109.0</v>
       </c>
       <c r="B79" t="n">
-        <v>192.0</v>
+        <v>264.0</v>
       </c>
       <c r="C79" t="n">
-        <v>921.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>900.0</v>
+        <v>124.0</v>
       </c>
       <c r="B80" t="n">
-        <v>194.0</v>
+        <v>257.0</v>
       </c>
       <c r="C80" t="n">
-        <v>530.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>963.0</v>
+        <v>125.0</v>
       </c>
       <c r="B81" t="n">
-        <v>212.0</v>
+        <v>309.0</v>
       </c>
       <c r="C81" t="n">
-        <v>849.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1457.0</v>
+        <v>113.0</v>
       </c>
       <c r="B82" t="n">
-        <v>329.0</v>
+        <v>281.0</v>
       </c>
       <c r="C82" t="n">
-        <v>611.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1027.0</v>
+        <v>120.0</v>
       </c>
       <c r="B83" t="n">
-        <v>210.0</v>
+        <v>268.0</v>
       </c>
       <c r="C83" t="n">
-        <v>557.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>800.0</v>
+        <v>129.0</v>
       </c>
       <c r="B84" t="n">
-        <v>150.0</v>
+        <v>367.0</v>
       </c>
       <c r="C84" t="n">
-        <v>460.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1050.0</v>
+        <v>134.0</v>
       </c>
       <c r="B85" t="n">
-        <v>200.0</v>
+        <v>275.0</v>
       </c>
       <c r="C85" t="n">
-        <v>557.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>900.0</v>
+        <v>170.0</v>
       </c>
       <c r="B86" t="n">
-        <v>170.0</v>
+        <v>255.0</v>
       </c>
       <c r="C86" t="n">
-        <v>481.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1000.0</v>
+        <v>145.0</v>
       </c>
       <c r="B87" t="n">
-        <v>190.0</v>
+        <v>362.0</v>
       </c>
       <c r="C87" t="n">
-        <v>557.0</v>
+        <v>693.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>866.0</v>
+        <v>137.0</v>
       </c>
       <c r="B88" t="n">
-        <v>185.0</v>
+        <v>273.0</v>
       </c>
       <c r="C88" t="n">
-        <v>771.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1009.0</v>
+        <v>145.0</v>
       </c>
       <c r="B89" t="n">
-        <v>185.0</v>
+        <v>283.0</v>
       </c>
       <c r="C89" t="n">
-        <v>807.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1485.0</v>
+        <v>127.0</v>
       </c>
       <c r="B90" t="n">
-        <v>143.0</v>
+        <v>283.0</v>
       </c>
       <c r="C90" t="n">
-        <v>463.0</v>
+        <v>662.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>963.0</v>
+        <v>124.0</v>
       </c>
       <c r="B91" t="n">
-        <v>217.0</v>
+        <v>305.0</v>
       </c>
       <c r="C91" t="n">
-        <v>520.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>972.0</v>
+        <v>121.0</v>
       </c>
       <c r="B92" t="n">
-        <v>196.0</v>
+        <v>268.0</v>
       </c>
       <c r="C92" t="n">
-        <v>928.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1287.0</v>
+        <v>117.0</v>
       </c>
       <c r="B93" t="n">
-        <v>153.0</v>
+        <v>264.0</v>
       </c>
       <c r="C93" t="n">
-        <v>510.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>850.0</v>
+        <v>115.0</v>
       </c>
       <c r="B94" t="n">
-        <v>154.0</v>
+        <v>351.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1155.0</v>
+        <v>617.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1188.0</v>
+        <v>161.0</v>
       </c>
       <c r="B95" t="n">
-        <v>200.0</v>
+        <v>261.0</v>
       </c>
       <c r="C95" t="n">
-        <v>515.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1040.0</v>
+        <v>128.0</v>
       </c>
       <c r="B96" t="n">
-        <v>226.0</v>
+        <v>261.0</v>
       </c>
       <c r="C96" t="n">
-        <v>547.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1020.0</v>
+        <v>120.0</v>
       </c>
       <c r="B97" t="n">
-        <v>175.0</v>
+        <v>329.0</v>
       </c>
       <c r="C97" t="n">
-        <v>572.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1300.0</v>
+        <v>127.0</v>
       </c>
       <c r="B98" t="n">
-        <v>183.0</v>
+        <v>257.0</v>
       </c>
       <c r="C98" t="n">
-        <v>594.0</v>
+        <v>568.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1542.0</v>
+        <v>121.0</v>
       </c>
       <c r="B99" t="n">
-        <v>180.0</v>
+        <v>283.0</v>
       </c>
       <c r="C99" t="n">
-        <v>599.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>784.0</v>
+        <v>127.0</v>
       </c>
       <c r="B100" t="n">
-        <v>196.0</v>
+        <v>332.0</v>
       </c>
       <c r="C100" t="n">
-        <v>735.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1070.0</v>
+        <v>113.0</v>
       </c>
       <c r="B101" t="n">
-        <v>167.0</v>
+        <v>271.0</v>
       </c>
       <c r="C101" t="n">
-        <v>531.0</v>
+        <v>547.0</v>
       </c>
     </row>
   </sheetData>
@@ -3973,494 +3973,494 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5900.0</v>
+        <v>38300.0</v>
       </c>
       <c r="B2" t="n">
-        <v>145.0</v>
+        <v>286.0</v>
       </c>
       <c r="C2" t="n">
-        <v>577.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12366.0</v>
+        <v>10266.0</v>
       </c>
       <c r="B3" t="n">
-        <v>140.0</v>
+        <v>286.0</v>
       </c>
       <c r="C3" t="n">
-        <v>600.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6800.0</v>
+        <v>1133.0</v>
       </c>
       <c r="B4" t="n">
-        <v>141.0</v>
+        <v>264.0</v>
       </c>
       <c r="C4" t="n">
-        <v>536.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6200.0</v>
+        <v>1312.0</v>
       </c>
       <c r="B5" t="n">
-        <v>143.0</v>
+        <v>214.0</v>
       </c>
       <c r="C5" t="n">
-        <v>742.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5750.0</v>
+        <v>1362.0</v>
       </c>
       <c r="B6" t="n">
-        <v>95.0</v>
+        <v>251.0</v>
       </c>
       <c r="C6" t="n">
-        <v>381.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3150.0</v>
+        <v>927.0</v>
       </c>
       <c r="B7" t="n">
-        <v>95.0</v>
+        <v>219.0</v>
       </c>
       <c r="C7" t="n">
-        <v>561.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3100.0</v>
+        <v>954.0</v>
       </c>
       <c r="B8" t="n">
-        <v>87.0</v>
+        <v>212.0</v>
       </c>
       <c r="C8" t="n">
-        <v>396.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2975.0</v>
+        <v>972.0</v>
       </c>
       <c r="B9" t="n">
-        <v>87.0</v>
+        <v>336.0</v>
       </c>
       <c r="C9" t="n">
-        <v>283.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2875.0</v>
+        <v>1200.0</v>
       </c>
       <c r="B10" t="n">
-        <v>87.0</v>
+        <v>251.0</v>
       </c>
       <c r="C10" t="n">
-        <v>318.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2800.0</v>
+        <v>990.0</v>
       </c>
       <c r="B11" t="n">
-        <v>87.0</v>
+        <v>208.0</v>
       </c>
       <c r="C11" t="n">
-        <v>278.0</v>
+        <v>617.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2824.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B12" t="n">
-        <v>87.0</v>
+        <v>237.0</v>
       </c>
       <c r="C12" t="n">
-        <v>271.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3150.0</v>
+        <v>3433.0</v>
       </c>
       <c r="B13" t="n">
-        <v>87.0</v>
+        <v>257.0</v>
       </c>
       <c r="C13" t="n">
-        <v>275.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2724.0</v>
+        <v>1514.0</v>
       </c>
       <c r="B14" t="n">
-        <v>87.0</v>
+        <v>223.0</v>
       </c>
       <c r="C14" t="n">
-        <v>309.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5399.0</v>
+        <v>981.0</v>
       </c>
       <c r="B15" t="n">
-        <v>151.0</v>
+        <v>266.0</v>
       </c>
       <c r="C15" t="n">
-        <v>588.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4400.0</v>
+        <v>858.0</v>
       </c>
       <c r="B16" t="n">
-        <v>147.0</v>
+        <v>196.0</v>
       </c>
       <c r="C16" t="n">
-        <v>552.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4233.0</v>
+        <v>972.0</v>
       </c>
       <c r="B17" t="n">
-        <v>131.0</v>
+        <v>242.0</v>
       </c>
       <c r="C17" t="n">
-        <v>490.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4066.0</v>
+        <v>1700.0</v>
       </c>
       <c r="B18" t="n">
-        <v>130.0</v>
+        <v>328.0</v>
       </c>
       <c r="C18" t="n">
-        <v>485.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4100.0</v>
+        <v>2625.0</v>
       </c>
       <c r="B19" t="n">
-        <v>141.0</v>
+        <v>275.0</v>
       </c>
       <c r="C19" t="n">
-        <v>441.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4033.0</v>
+        <v>1816.0</v>
       </c>
       <c r="B20" t="n">
-        <v>118.0</v>
+        <v>255.0</v>
       </c>
       <c r="C20" t="n">
-        <v>525.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4700.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B21" t="n">
-        <v>175.0</v>
+        <v>245.0</v>
       </c>
       <c r="C21" t="n">
-        <v>706.0</v>
+        <v>73375.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12200.0</v>
+        <v>1850.0</v>
       </c>
       <c r="B22" t="n">
-        <v>143.0</v>
+        <v>321.0</v>
       </c>
       <c r="C22" t="n">
-        <v>500.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4366.0</v>
+        <v>1155.0</v>
       </c>
       <c r="B23" t="n">
-        <v>142.0</v>
+        <v>261.0</v>
       </c>
       <c r="C23" t="n">
-        <v>504.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4267.0</v>
+        <v>990.0</v>
       </c>
       <c r="B24" t="n">
-        <v>141.0</v>
+        <v>261.0</v>
       </c>
       <c r="C24" t="n">
-        <v>495.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4166.0</v>
+        <v>990.0</v>
       </c>
       <c r="B25" t="n">
-        <v>141.0</v>
+        <v>312.0</v>
       </c>
       <c r="C25" t="n">
-        <v>490.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4066.0</v>
+        <v>823.0</v>
       </c>
       <c r="B26" t="n">
-        <v>145.0</v>
+        <v>286.0</v>
       </c>
       <c r="C26" t="n">
-        <v>611.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3866.0</v>
+        <v>1118.0</v>
       </c>
       <c r="B27" t="n">
-        <v>136.0</v>
+        <v>221.0</v>
       </c>
       <c r="C27" t="n">
-        <v>424.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5200.0</v>
+        <v>1018.0</v>
       </c>
       <c r="B28" t="n">
-        <v>146.0</v>
+        <v>239.0</v>
       </c>
       <c r="C28" t="n">
-        <v>477.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4000.0</v>
+        <v>1018.0</v>
       </c>
       <c r="B29" t="n">
-        <v>139.0</v>
+        <v>203.0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4433.0</v>
+        <v>936.0</v>
       </c>
       <c r="B30" t="n">
-        <v>132.0</v>
+        <v>239.0</v>
       </c>
       <c r="C30" t="n">
-        <v>500.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3866.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B31" t="n">
-        <v>134.0</v>
+        <v>321.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3866.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5500.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B32" t="n">
-        <v>150.0</v>
+        <v>255.0</v>
       </c>
       <c r="C32" t="n">
-        <v>547.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4466.0</v>
+        <v>945.0</v>
       </c>
       <c r="B33" t="n">
-        <v>200.0</v>
+        <v>332.0</v>
       </c>
       <c r="C33" t="n">
-        <v>530.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4800.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B34" t="n">
-        <v>137.0</v>
+        <v>234.0</v>
       </c>
       <c r="C34" t="n">
-        <v>510.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6450.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B35" t="n">
-        <v>121.0</v>
+        <v>302.0</v>
       </c>
       <c r="C35" t="n">
-        <v>520.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4200.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B36" t="n">
-        <v>130.0</v>
+        <v>255.0</v>
       </c>
       <c r="C36" t="n">
-        <v>447.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4100.0</v>
+        <v>1070.0</v>
       </c>
       <c r="B37" t="n">
-        <v>128.0</v>
+        <v>251.0</v>
       </c>
       <c r="C37" t="n">
-        <v>456.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13200.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B38" t="n">
-        <v>132.0</v>
+        <v>355.0</v>
       </c>
       <c r="C38" t="n">
-        <v>750.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5949.0</v>
+        <v>945.0</v>
       </c>
       <c r="B39" t="n">
-        <v>147.0</v>
+        <v>245.0</v>
       </c>
       <c r="C39" t="n">
-        <v>954.0</v>
+        <v>814.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4633.0</v>
+        <v>1700.0</v>
       </c>
       <c r="B40" t="n">
-        <v>146.0</v>
+        <v>260.0</v>
       </c>
       <c r="C40" t="n">
-        <v>572.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4500.0</v>
+        <v>815.0</v>
       </c>
       <c r="B41" t="n">
-        <v>151.0</v>
+        <v>316.0</v>
       </c>
       <c r="C41" t="n">
-        <v>572.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4566.0</v>
+        <v>972.0</v>
       </c>
       <c r="B42" t="n">
-        <v>143.0</v>
+        <v>234.0</v>
       </c>
       <c r="C42" t="n">
-        <v>552.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20700.0</v>
+        <v>850.0</v>
       </c>
       <c r="B43" t="n">
-        <v>149.0</v>
+        <v>217.0</v>
       </c>
       <c r="C43" t="n">
-        <v>542.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4933.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B44" t="n">
-        <v>147.0</v>
+        <v>264.0</v>
       </c>
       <c r="C44" t="n">
-        <v>504.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4300.0</v>
+        <v>807.0</v>
       </c>
       <c r="B45" t="n">
-        <v>152.0</v>
+        <v>204.0</v>
       </c>
       <c r="C45" t="n">
-        <v>684.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4300.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B46" t="n">
-        <v>154.0</v>
+        <v>255.0</v>
       </c>
       <c r="C46" t="n">
         <v>447.0</v>
@@ -4468,560 +4468,560 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4300.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B47" t="n">
-        <v>137.0</v>
+        <v>300.0</v>
       </c>
       <c r="C47" t="n">
-        <v>495.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4133.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B48" t="n">
-        <v>127.0</v>
+        <v>251.0</v>
       </c>
       <c r="C48" t="n">
-        <v>509.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4000.0</v>
+        <v>981.0</v>
       </c>
       <c r="B49" t="n">
-        <v>139.0</v>
+        <v>223.0</v>
       </c>
       <c r="C49" t="n">
-        <v>713.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4866.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B50" t="n">
-        <v>147.0</v>
+        <v>314.0</v>
       </c>
       <c r="C50" t="n">
-        <v>583.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4900.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B51" t="n">
-        <v>137.0</v>
+        <v>343.0</v>
       </c>
       <c r="C51" t="n">
-        <v>495.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4900.0</v>
+        <v>1485.0</v>
       </c>
       <c r="B52" t="n">
-        <v>151.0</v>
+        <v>216.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1866.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4200.0</v>
+        <v>981.0</v>
       </c>
       <c r="B53" t="n">
-        <v>152.0</v>
+        <v>247.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1457.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5500.0</v>
+        <v>823.0</v>
       </c>
       <c r="B54" t="n">
-        <v>145.0</v>
+        <v>271.0</v>
       </c>
       <c r="C54" t="n">
-        <v>477.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4733.0</v>
+        <v>742.0</v>
       </c>
       <c r="B55" t="n">
-        <v>147.0</v>
+        <v>252.0</v>
       </c>
       <c r="C55" t="n">
-        <v>443.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4133.0</v>
+        <v>1457.0</v>
       </c>
       <c r="B56" t="n">
-        <v>125.0</v>
+        <v>302.0</v>
       </c>
       <c r="C56" t="n">
-        <v>346.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5133.0</v>
+        <v>2583.0</v>
       </c>
       <c r="B57" t="n">
-        <v>168.0</v>
+        <v>536.0</v>
       </c>
       <c r="C57" t="n">
-        <v>472.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12100.0</v>
+        <v>954.0</v>
       </c>
       <c r="B58" t="n">
-        <v>237.0</v>
+        <v>255.0</v>
       </c>
       <c r="C58" t="n">
-        <v>425.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5500.0</v>
+        <v>1177.0</v>
       </c>
       <c r="B59" t="n">
-        <v>141.0</v>
+        <v>245.0</v>
       </c>
       <c r="C59" t="n">
-        <v>443.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4766.0</v>
+        <v>1009.0</v>
       </c>
       <c r="B60" t="n">
-        <v>149.0</v>
+        <v>255.0</v>
       </c>
       <c r="C60" t="n">
-        <v>437.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5166.0</v>
+        <v>954.0</v>
       </c>
       <c r="B61" t="n">
-        <v>152.0</v>
+        <v>329.0</v>
       </c>
       <c r="C61" t="n">
-        <v>443.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4633.0</v>
+        <v>891.0</v>
       </c>
       <c r="B62" t="n">
-        <v>150.0</v>
+        <v>221.0</v>
       </c>
       <c r="C62" t="n">
-        <v>415.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5133.0</v>
+        <v>972.0</v>
       </c>
       <c r="B63" t="n">
-        <v>137.0</v>
+        <v>210.0</v>
       </c>
       <c r="C63" t="n">
-        <v>396.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4533.0</v>
+        <v>1018.0</v>
       </c>
       <c r="B64" t="n">
-        <v>140.0</v>
+        <v>471.0</v>
       </c>
       <c r="C64" t="n">
-        <v>547.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5533.0</v>
+        <v>883.0</v>
       </c>
       <c r="B65" t="n">
-        <v>150.0</v>
+        <v>219.0</v>
       </c>
       <c r="C65" t="n">
-        <v>437.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4667.0</v>
+        <v>963.0</v>
       </c>
       <c r="B66" t="n">
-        <v>150.0</v>
+        <v>228.0</v>
       </c>
       <c r="C66" t="n">
-        <v>364.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4366.0</v>
+        <v>1318.0</v>
       </c>
       <c r="B67" t="n">
-        <v>116.0</v>
+        <v>294.0</v>
       </c>
       <c r="C67" t="n">
-        <v>557.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4667.0</v>
+        <v>1144.0</v>
       </c>
       <c r="B68" t="n">
-        <v>137.0</v>
+        <v>257.0</v>
       </c>
       <c r="C68" t="n">
-        <v>437.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4933.0</v>
+        <v>963.0</v>
       </c>
       <c r="B69" t="n">
-        <v>151.0</v>
+        <v>242.0</v>
       </c>
       <c r="C69" t="n">
-        <v>420.0</v>
+        <v>519.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5750.0</v>
+        <v>750.0</v>
       </c>
       <c r="B70" t="n">
-        <v>145.0</v>
+        <v>278.0</v>
       </c>
       <c r="C70" t="n">
-        <v>416.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4233.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B71" t="n">
-        <v>129.0</v>
+        <v>260.0</v>
       </c>
       <c r="C71" t="n">
-        <v>456.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B72" t="n">
-        <v>132.0</v>
+        <v>223.0</v>
       </c>
       <c r="C72" t="n">
-        <v>385.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4700.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B73" t="n">
-        <v>154.0</v>
+        <v>343.0</v>
       </c>
       <c r="C73" t="n">
-        <v>408.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5166.0</v>
+        <v>990.0</v>
       </c>
       <c r="B74" t="n">
-        <v>147.0</v>
+        <v>245.0</v>
       </c>
       <c r="C74" t="n">
-        <v>416.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3550.0</v>
+        <v>1200.0</v>
       </c>
       <c r="B75" t="n">
-        <v>87.0</v>
+        <v>219.0</v>
       </c>
       <c r="C75" t="n">
-        <v>255.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2874.0</v>
+        <v>757.0</v>
       </c>
       <c r="B76" t="n">
-        <v>87.0</v>
+        <v>284.0</v>
       </c>
       <c r="C76" t="n">
-        <v>221.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5800.0</v>
+        <v>735.0</v>
       </c>
       <c r="B77" t="n">
-        <v>147.0</v>
+        <v>237.0</v>
       </c>
       <c r="C77" t="n">
-        <v>420.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>50100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B78" t="n">
-        <v>147.0</v>
+        <v>275.0</v>
       </c>
       <c r="C78" t="n">
-        <v>433.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5300.0</v>
+        <v>875.0</v>
       </c>
       <c r="B79" t="n">
-        <v>143.0</v>
+        <v>273.0</v>
       </c>
       <c r="C79" t="n">
-        <v>412.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4900.0</v>
+        <v>858.0</v>
       </c>
       <c r="B80" t="n">
-        <v>159.0</v>
+        <v>278.0</v>
       </c>
       <c r="C80" t="n">
-        <v>640.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8800.0</v>
+        <v>800.0</v>
       </c>
       <c r="B81" t="n">
-        <v>137.0</v>
+        <v>242.0</v>
       </c>
       <c r="C81" t="n">
-        <v>433.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3866.0</v>
+        <v>858.0</v>
       </c>
       <c r="B82" t="n">
-        <v>137.0</v>
+        <v>237.0</v>
       </c>
       <c r="C82" t="n">
-        <v>388.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4200.0</v>
+        <v>742.0</v>
       </c>
       <c r="B83" t="n">
-        <v>134.0</v>
+        <v>305.0</v>
       </c>
       <c r="C83" t="n">
-        <v>355.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4700.0</v>
+        <v>807.0</v>
       </c>
       <c r="B84" t="n">
-        <v>147.0</v>
+        <v>264.0</v>
       </c>
       <c r="C84" t="n">
-        <v>520.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4067.0</v>
+        <v>1060.0</v>
       </c>
       <c r="B85" t="n">
-        <v>137.0</v>
+        <v>257.0</v>
       </c>
       <c r="C85" t="n">
-        <v>392.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3933.0</v>
+        <v>792.0</v>
       </c>
       <c r="B86" t="n">
-        <v>132.0</v>
+        <v>291.0</v>
       </c>
       <c r="C86" t="n">
-        <v>412.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4166.0</v>
+        <v>830.0</v>
       </c>
       <c r="B87" t="n">
-        <v>139.0</v>
+        <v>264.0</v>
       </c>
       <c r="C87" t="n">
-        <v>429.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3566.0</v>
+        <v>908.0</v>
       </c>
       <c r="B88" t="n">
-        <v>137.0</v>
+        <v>271.0</v>
       </c>
       <c r="C88" t="n">
-        <v>403.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3866.0</v>
+        <v>927.0</v>
       </c>
       <c r="B89" t="n">
-        <v>143.0</v>
+        <v>271.0</v>
       </c>
       <c r="C89" t="n">
-        <v>381.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4133.0</v>
+        <v>866.0</v>
       </c>
       <c r="B90" t="n">
-        <v>149.0</v>
+        <v>351.0</v>
       </c>
       <c r="C90" t="n">
-        <v>420.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5033.0</v>
+        <v>891.0</v>
       </c>
       <c r="B91" t="n">
-        <v>145.0</v>
+        <v>248.0</v>
       </c>
       <c r="C91" t="n">
-        <v>420.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4700.0</v>
+        <v>850.0</v>
       </c>
       <c r="B92" t="n">
-        <v>143.0</v>
+        <v>261.0</v>
       </c>
       <c r="C92" t="n">
-        <v>385.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4500.0</v>
+        <v>1275.0</v>
       </c>
       <c r="B93" t="n">
-        <v>143.0</v>
+        <v>315.0</v>
       </c>
       <c r="C93" t="n">
-        <v>364.0</v>
+        <v>424.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5299.0</v>
+        <v>3183.0</v>
       </c>
       <c r="B94" t="n">
-        <v>127.0</v>
+        <v>228.0</v>
       </c>
       <c r="C94" t="n">
-        <v>566.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5600.0</v>
+        <v>2166.0</v>
       </c>
       <c r="B95" t="n">
-        <v>141.0</v>
+        <v>210.0</v>
       </c>
       <c r="C95" t="n">
-        <v>408.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3933.0</v>
+        <v>1166.0</v>
       </c>
       <c r="B96" t="n">
-        <v>141.0</v>
+        <v>309.0</v>
       </c>
       <c r="C96" t="n">
-        <v>1264200.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5649.0</v>
+        <v>807.0</v>
       </c>
       <c r="B97" t="n">
-        <v>143.0</v>
+        <v>261.0</v>
       </c>
       <c r="C97" t="n">
         <v>447.0</v>
@@ -5029,46 +5029,46 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4566.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B98" t="n">
-        <v>145.0</v>
+        <v>242.0</v>
       </c>
       <c r="C98" t="n">
-        <v>396.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4533.0</v>
+        <v>954.0</v>
       </c>
       <c r="B99" t="n">
-        <v>143.0</v>
+        <v>257.0</v>
       </c>
       <c r="C99" t="n">
-        <v>456.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3966.0</v>
+        <v>1800.0</v>
       </c>
       <c r="B100" t="n">
-        <v>137.0</v>
+        <v>343.0</v>
       </c>
       <c r="C100" t="n">
-        <v>400.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4266.0</v>
+        <v>858.0</v>
       </c>
       <c r="B101" t="n">
-        <v>137.0</v>
+        <v>223.0</v>
       </c>
       <c r="C101" t="n">
-        <v>433.0</v>
+        <v>447.0</v>
       </c>
     </row>
   </sheetData>
@@ -5120,1102 +5120,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5200.0</v>
+        <v>172.0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.0</v>
+        <v>21400.0</v>
       </c>
       <c r="C2" t="n">
-        <v>271.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5899.0</v>
+        <v>134.0</v>
       </c>
       <c r="B3" t="n">
-        <v>57.0</v>
+        <v>412.0</v>
       </c>
       <c r="C3" t="n">
-        <v>255.0</v>
+        <v>459.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5300.0</v>
+        <v>125.0</v>
       </c>
       <c r="B4" t="n">
-        <v>57.0</v>
+        <v>185.0</v>
       </c>
       <c r="C4" t="n">
-        <v>504.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5050.0</v>
+        <v>112.0</v>
       </c>
       <c r="B5" t="n">
-        <v>54.0</v>
+        <v>309.0</v>
       </c>
       <c r="C5" t="n">
-        <v>343.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4966.0</v>
+        <v>102.0</v>
       </c>
       <c r="B6" t="n">
-        <v>52.0</v>
+        <v>182.0</v>
       </c>
       <c r="C6" t="n">
-        <v>251.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18299.0</v>
+        <v>105.0</v>
       </c>
       <c r="B7" t="n">
-        <v>58.0</v>
+        <v>194.0</v>
       </c>
       <c r="C7" t="n">
-        <v>6950.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5250.0</v>
+        <v>106.0</v>
       </c>
       <c r="B8" t="n">
-        <v>57.0</v>
+        <v>182.0</v>
       </c>
       <c r="C8" t="n">
-        <v>162.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4833.0</v>
+        <v>112.0</v>
       </c>
       <c r="B9" t="n">
-        <v>56.0</v>
+        <v>189.0</v>
       </c>
       <c r="C9" t="n">
-        <v>153.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10700.0</v>
+        <v>106.0</v>
       </c>
       <c r="B10" t="n">
-        <v>59.0</v>
+        <v>170.0</v>
       </c>
       <c r="C10" t="n">
-        <v>221.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5199.0</v>
+        <v>96.0</v>
       </c>
       <c r="B11" t="n">
-        <v>99.0</v>
+        <v>210.0</v>
       </c>
       <c r="C11" t="n">
-        <v>163.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5200.0</v>
+        <v>97.0</v>
       </c>
       <c r="B12" t="n">
-        <v>56.0</v>
+        <v>174.0</v>
       </c>
       <c r="C12" t="n">
-        <v>159.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4899.0</v>
+        <v>139.0</v>
       </c>
       <c r="B13" t="n">
-        <v>57.0</v>
+        <v>204.0</v>
       </c>
       <c r="C13" t="n">
-        <v>147.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5149.0</v>
+        <v>108.0</v>
       </c>
       <c r="B14" t="n">
-        <v>58.0</v>
+        <v>208.0</v>
       </c>
       <c r="C14" t="n">
-        <v>166.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5167.0</v>
+        <v>106.0</v>
       </c>
       <c r="B15" t="n">
-        <v>56.0</v>
+        <v>192.0</v>
       </c>
       <c r="C15" t="n">
-        <v>156.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5200.0</v>
+        <v>120.0</v>
       </c>
       <c r="B16" t="n">
-        <v>56.0</v>
+        <v>192.0</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5166.0</v>
+        <v>129.0</v>
       </c>
       <c r="B17" t="n">
-        <v>58.0</v>
+        <v>204.0</v>
       </c>
       <c r="C17" t="n">
-        <v>153.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5066.0</v>
+        <v>109.0</v>
       </c>
       <c r="B18" t="n">
-        <v>58.0</v>
+        <v>204.0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5433.0</v>
+        <v>97.0</v>
       </c>
       <c r="B19" t="n">
-        <v>56.0</v>
+        <v>204.0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4999.0</v>
+        <v>93.0</v>
       </c>
       <c r="B20" t="n">
-        <v>79.0</v>
+        <v>192.0</v>
       </c>
       <c r="C20" t="n">
-        <v>161.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4833.0</v>
+        <v>97.0</v>
       </c>
       <c r="B21" t="n">
-        <v>57.0</v>
+        <v>187.0</v>
       </c>
       <c r="C21" t="n">
-        <v>156.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4999.0</v>
+        <v>97.0</v>
       </c>
       <c r="B22" t="n">
-        <v>58.0</v>
+        <v>194.0</v>
       </c>
       <c r="C22" t="n">
-        <v>159.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4966.0</v>
+        <v>196.0</v>
       </c>
       <c r="B23" t="n">
-        <v>134.0</v>
+        <v>170.0</v>
       </c>
       <c r="C23" t="n">
-        <v>167.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5900.0</v>
+        <v>160.0</v>
       </c>
       <c r="B24" t="n">
-        <v>68.0</v>
+        <v>210.0</v>
       </c>
       <c r="C24" t="n">
-        <v>168.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5433.0</v>
+        <v>106.0</v>
       </c>
       <c r="B25" t="n">
-        <v>71.0</v>
+        <v>221.0</v>
       </c>
       <c r="C25" t="n">
-        <v>174.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18750.0</v>
+        <v>107.0</v>
       </c>
       <c r="B26" t="n">
-        <v>55.0</v>
+        <v>1951.0</v>
       </c>
       <c r="C26" t="n">
-        <v>163.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6450.0</v>
+        <v>91.0</v>
       </c>
       <c r="B27" t="n">
-        <v>55.0</v>
+        <v>167.0</v>
       </c>
       <c r="C27" t="n">
-        <v>153.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4900.0</v>
+        <v>103.0</v>
       </c>
       <c r="B28" t="n">
-        <v>56.0</v>
+        <v>242.0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4600.0</v>
+        <v>128.0</v>
       </c>
       <c r="B29" t="n">
-        <v>53.0</v>
+        <v>208.0</v>
       </c>
       <c r="C29" t="n">
-        <v>143.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4733.0</v>
+        <v>95.0</v>
       </c>
       <c r="B30" t="n">
-        <v>54.0</v>
+        <v>170.0</v>
       </c>
       <c r="C30" t="n">
-        <v>147.0</v>
+        <v>617.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4533.0</v>
+        <v>96.0</v>
       </c>
       <c r="B31" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="C31" t="n">
-        <v>150.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4333.0</v>
+        <v>98.0</v>
       </c>
       <c r="B32" t="n">
-        <v>55.0</v>
+        <v>198.0</v>
       </c>
       <c r="C32" t="n">
-        <v>141.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4267.0</v>
+        <v>104.0</v>
       </c>
       <c r="B33" t="n">
-        <v>54.0</v>
+        <v>171.0</v>
       </c>
       <c r="C33" t="n">
-        <v>139.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4366.0</v>
+        <v>115.0</v>
       </c>
       <c r="B34" t="n">
-        <v>54.0</v>
+        <v>223.0</v>
       </c>
       <c r="C34" t="n">
-        <v>556.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9100.0</v>
+        <v>136.0</v>
       </c>
       <c r="B35" t="n">
-        <v>141.0</v>
+        <v>187.0</v>
       </c>
       <c r="C35" t="n">
-        <v>172.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5300.0</v>
+        <v>95.0</v>
       </c>
       <c r="B36" t="n">
-        <v>70.0</v>
+        <v>188.0</v>
       </c>
       <c r="C36" t="n">
-        <v>166.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5366.0</v>
+        <v>107.0</v>
       </c>
       <c r="B37" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B38" t="n">
-        <v>56.0</v>
+        <v>214.0</v>
       </c>
       <c r="C38" t="n">
-        <v>151.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5066.0</v>
+        <v>106.0</v>
       </c>
       <c r="B39" t="n">
-        <v>56.0</v>
+        <v>212.0</v>
       </c>
       <c r="C39" t="n">
-        <v>152.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4167.0</v>
+        <v>100.0</v>
       </c>
       <c r="B40" t="n">
-        <v>79.0</v>
+        <v>204.0</v>
       </c>
       <c r="C40" t="n">
-        <v>158.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4900.0</v>
+        <v>96.0</v>
       </c>
       <c r="B41" t="n">
-        <v>54.0</v>
+        <v>151.0</v>
       </c>
       <c r="C41" t="n">
-        <v>137.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4733.0</v>
+        <v>102.0</v>
       </c>
       <c r="B42" t="n">
-        <v>56.0</v>
+        <v>210.0</v>
       </c>
       <c r="C42" t="n">
-        <v>145.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4700.0</v>
+        <v>114.0</v>
       </c>
       <c r="B43" t="n">
-        <v>56.0</v>
+        <v>226.0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4366.0</v>
+        <v>127.0</v>
       </c>
       <c r="B44" t="n">
-        <v>50.0</v>
+        <v>226.0</v>
       </c>
       <c r="C44" t="n">
-        <v>132.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5300.0</v>
+        <v>103.0</v>
       </c>
       <c r="B45" t="n">
-        <v>64.0</v>
+        <v>188.0</v>
       </c>
       <c r="C45" t="n">
-        <v>168.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5266.0</v>
+        <v>167.0</v>
       </c>
       <c r="B46" t="n">
-        <v>52.0</v>
+        <v>208.0</v>
       </c>
       <c r="C46" t="n">
-        <v>135.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5500.0</v>
+        <v>103.0</v>
       </c>
       <c r="B47" t="n">
-        <v>52.0</v>
+        <v>194.0</v>
       </c>
       <c r="C47" t="n">
-        <v>130.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4766.0</v>
+        <v>100.0</v>
       </c>
       <c r="B48" t="n">
-        <v>51.0</v>
+        <v>196.0</v>
       </c>
       <c r="C48" t="n">
-        <v>142.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4100.0</v>
+        <v>100.0</v>
       </c>
       <c r="B49" t="n">
-        <v>53.0</v>
+        <v>192.0</v>
       </c>
       <c r="C49" t="n">
-        <v>168.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5100.0</v>
+        <v>102.0</v>
       </c>
       <c r="B50" t="n">
-        <v>61.0</v>
+        <v>200.0</v>
       </c>
       <c r="C50" t="n">
-        <v>188.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5400.0</v>
+        <v>98.0</v>
       </c>
       <c r="B51" t="n">
-        <v>59.0</v>
+        <v>198.0</v>
       </c>
       <c r="C51" t="n">
-        <v>134.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4266.0</v>
+        <v>407.0</v>
       </c>
       <c r="B52" t="n">
-        <v>51.0</v>
+        <v>183.0</v>
       </c>
       <c r="C52" t="n">
-        <v>131.0</v>
+        <v>16000.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4633.0</v>
+        <v>107.0</v>
       </c>
       <c r="B53" t="n">
-        <v>55.0</v>
+        <v>208.0</v>
       </c>
       <c r="C53" t="n">
-        <v>187.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4366.0</v>
+        <v>107.0</v>
       </c>
       <c r="B54" t="n">
-        <v>51.0</v>
+        <v>204.0</v>
       </c>
       <c r="C54" t="n">
-        <v>132.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4333.0</v>
+        <v>99.0</v>
       </c>
       <c r="B55" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="C55" t="n">
-        <v>132.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4567.0</v>
+        <v>125.0</v>
       </c>
       <c r="B56" t="n">
-        <v>51.0</v>
+        <v>196.0</v>
       </c>
       <c r="C56" t="n">
-        <v>129.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5150.0</v>
+        <v>98.0</v>
       </c>
       <c r="B57" t="n">
-        <v>55.0</v>
+        <v>206.0</v>
       </c>
       <c r="C57" t="n">
-        <v>135.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4533.0</v>
+        <v>103.0</v>
       </c>
       <c r="B58" t="n">
-        <v>67.0</v>
+        <v>355.0</v>
       </c>
       <c r="C58" t="n">
-        <v>182.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4333.0</v>
+        <v>102.0</v>
       </c>
       <c r="B59" t="n">
-        <v>53.0</v>
+        <v>198.0</v>
       </c>
       <c r="C59" t="n">
-        <v>139.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4600.0</v>
+        <v>99.0</v>
       </c>
       <c r="B60" t="n">
-        <v>55.0</v>
+        <v>204.0</v>
       </c>
       <c r="C60" t="n">
-        <v>164.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4900.0</v>
+        <v>108.0</v>
       </c>
       <c r="B61" t="n">
-        <v>101.0</v>
+        <v>217.0</v>
       </c>
       <c r="C61" t="n">
-        <v>139.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7499.0</v>
+        <v>103.0</v>
       </c>
       <c r="B62" t="n">
-        <v>57.0</v>
+        <v>214.0</v>
       </c>
       <c r="C62" t="n">
-        <v>156.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5100.0</v>
+        <v>97.0</v>
       </c>
       <c r="B63" t="n">
-        <v>55.0</v>
+        <v>214.0</v>
       </c>
       <c r="C63" t="n">
-        <v>151.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4566.0</v>
+        <v>103.0</v>
       </c>
       <c r="B64" t="n">
-        <v>55.0</v>
+        <v>217.0</v>
       </c>
       <c r="C64" t="n">
-        <v>156.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5066.0</v>
+        <v>106.0</v>
       </c>
       <c r="B65" t="n">
-        <v>57.0</v>
+        <v>208.0</v>
       </c>
       <c r="C65" t="n">
-        <v>154.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4899.0</v>
+        <v>108.0</v>
       </c>
       <c r="B66" t="n">
-        <v>56.0</v>
+        <v>239.0</v>
       </c>
       <c r="C66" t="n">
-        <v>137.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4266.0</v>
+        <v>519.0</v>
       </c>
       <c r="B67" t="n">
-        <v>55.0</v>
+        <v>201.0</v>
       </c>
       <c r="C67" t="n">
-        <v>147.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6299.0</v>
+        <v>106.0</v>
       </c>
       <c r="B68" t="n">
-        <v>76.0</v>
+        <v>221.0</v>
       </c>
       <c r="C68" t="n">
-        <v>159.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4966.0</v>
+        <v>109.0</v>
       </c>
       <c r="B69" t="n">
-        <v>56.0</v>
+        <v>219.0</v>
       </c>
       <c r="C69" t="n">
-        <v>152.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5166.0</v>
+        <v>109.0</v>
       </c>
       <c r="B70" t="n">
-        <v>57.0</v>
+        <v>340.0</v>
       </c>
       <c r="C70" t="n">
-        <v>145.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5133.0</v>
+        <v>108.0</v>
       </c>
       <c r="B71" t="n">
-        <v>55.0</v>
+        <v>190.0</v>
       </c>
       <c r="C71" t="n">
-        <v>153.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5166.0</v>
+        <v>115.0</v>
       </c>
       <c r="B72" t="n">
-        <v>55.0</v>
+        <v>210.0</v>
       </c>
       <c r="C72" t="n">
-        <v>154.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5233.0</v>
+        <v>83.0</v>
       </c>
       <c r="B73" t="n">
-        <v>56.0</v>
+        <v>204.0</v>
       </c>
       <c r="C73" t="n">
-        <v>156.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4866.0</v>
+        <v>107.0</v>
       </c>
       <c r="B74" t="n">
-        <v>55.0</v>
+        <v>214.0</v>
       </c>
       <c r="C74" t="n">
-        <v>152.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4899.0</v>
+        <v>113.0</v>
       </c>
       <c r="B75" t="n">
-        <v>55.0</v>
+        <v>200.0</v>
       </c>
       <c r="C75" t="n">
-        <v>151.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4933.0</v>
+        <v>103.0</v>
       </c>
       <c r="B76" t="n">
-        <v>55.0</v>
+        <v>208.0</v>
       </c>
       <c r="C76" t="n">
-        <v>156.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5067.0</v>
+        <v>96.0</v>
       </c>
       <c r="B77" t="n">
-        <v>56.0</v>
+        <v>190.0</v>
       </c>
       <c r="C77" t="n">
-        <v>278.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4800.0</v>
+        <v>117.0</v>
       </c>
       <c r="B78" t="n">
-        <v>55.0</v>
+        <v>185.0</v>
       </c>
       <c r="C78" t="n">
-        <v>149.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5033.0</v>
+        <v>98.0</v>
       </c>
       <c r="B79" t="n">
-        <v>55.0</v>
+        <v>316.0</v>
       </c>
       <c r="C79" t="n">
-        <v>147.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5167.0</v>
+        <v>132.0</v>
       </c>
       <c r="B80" t="n">
-        <v>56.0</v>
+        <v>204.0</v>
       </c>
       <c r="C80" t="n">
-        <v>143.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4833.0</v>
+        <v>475.0</v>
       </c>
       <c r="B81" t="n">
-        <v>55.0</v>
+        <v>355.0</v>
       </c>
       <c r="C81" t="n">
-        <v>152.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5200.0</v>
+        <v>115.0</v>
       </c>
       <c r="B82" t="n">
-        <v>56.0</v>
+        <v>257.0</v>
       </c>
       <c r="C82" t="n">
-        <v>145.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6100.0</v>
+        <v>117.0</v>
       </c>
       <c r="B83" t="n">
-        <v>81.0</v>
+        <v>286.0</v>
       </c>
       <c r="C83" t="n">
-        <v>152.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B84" t="n">
-        <v>56.0</v>
+        <v>163.0</v>
       </c>
       <c r="C84" t="n">
-        <v>147.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4933.0</v>
+        <v>96.0</v>
       </c>
       <c r="B85" t="n">
-        <v>55.0</v>
+        <v>187.0</v>
       </c>
       <c r="C85" t="n">
-        <v>154.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5100.0</v>
+        <v>106.0</v>
       </c>
       <c r="B86" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="C86" t="n">
-        <v>145.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5333.0</v>
+        <v>104.0</v>
       </c>
       <c r="B87" t="n">
-        <v>56.0</v>
+        <v>210.0</v>
       </c>
       <c r="C87" t="n">
-        <v>149.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5600.0</v>
+        <v>109.0</v>
       </c>
       <c r="B88" t="n">
-        <v>54.0</v>
+        <v>178.0</v>
       </c>
       <c r="C88" t="n">
-        <v>152.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5199.0</v>
+        <v>103.0</v>
       </c>
       <c r="B89" t="n">
-        <v>109.0</v>
+        <v>183.0</v>
       </c>
       <c r="C89" t="n">
-        <v>156.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5299.0</v>
+        <v>156.0</v>
       </c>
       <c r="B90" t="n">
-        <v>54.0</v>
+        <v>166.0</v>
       </c>
       <c r="C90" t="n">
-        <v>150.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5266.0</v>
+        <v>100.0</v>
       </c>
       <c r="B91" t="n">
-        <v>55.0</v>
+        <v>174.0</v>
       </c>
       <c r="C91" t="n">
-        <v>154.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4933.0</v>
+        <v>108.0</v>
       </c>
       <c r="B92" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="C92" t="n">
-        <v>152.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4900.0</v>
+        <v>188.0</v>
       </c>
       <c r="B93" t="n">
-        <v>56.0</v>
+        <v>208.0</v>
       </c>
       <c r="C93" t="n">
-        <v>152.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4666.0</v>
+        <v>108.0</v>
       </c>
       <c r="B94" t="n">
-        <v>55.0</v>
+        <v>201.0</v>
       </c>
       <c r="C94" t="n">
-        <v>154.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5266.0</v>
+        <v>107.0</v>
       </c>
       <c r="B95" t="n">
-        <v>56.0</v>
+        <v>198.0</v>
       </c>
       <c r="C95" t="n">
-        <v>152.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5200.0</v>
+        <v>106.0</v>
       </c>
       <c r="B96" t="n">
-        <v>56.0</v>
+        <v>200.0</v>
       </c>
       <c r="C96" t="n">
-        <v>154.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4966.0</v>
+        <v>105.0</v>
       </c>
       <c r="B97" t="n">
-        <v>55.0</v>
+        <v>196.0</v>
       </c>
       <c r="C97" t="n">
-        <v>159.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5166.0</v>
+        <v>102.0</v>
       </c>
       <c r="B98" t="n">
-        <v>55.0</v>
+        <v>212.0</v>
       </c>
       <c r="C98" t="n">
-        <v>152.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5066.0</v>
+        <v>102.0</v>
       </c>
       <c r="B99" t="n">
-        <v>55.0</v>
+        <v>185.0</v>
       </c>
       <c r="C99" t="n">
-        <v>156.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5100.0</v>
+        <v>108.0</v>
       </c>
       <c r="B100" t="n">
-        <v>114.0</v>
+        <v>239.0</v>
       </c>
       <c r="C100" t="n">
-        <v>147.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5966.0</v>
+        <v>204.0</v>
       </c>
       <c r="B101" t="n">
-        <v>55.0</v>
+        <v>183.0</v>
       </c>
       <c r="C101" t="n">
-        <v>154.0</v>
+        <v>234.0</v>
       </c>
     </row>
   </sheetData>

--- a/Time_10.xlsx
+++ b/Time_10.xlsx
@@ -13,14 +13,14 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6" sheetId="1" r:id="rId1"/>
+    <sheet name="9" sheetId="1" r:id="rId1"/>
     <sheet name="8" sheetId="2" r:id="rId2"/>
-    <sheet name="1" sheetId="3" r:id="rId3"/>
-    <sheet name="2" sheetId="4" r:id="rId4"/>
-    <sheet name="0" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="3" r:id="rId3"/>
+    <sheet name="6" sheetId="4" r:id="rId4"/>
+    <sheet name="7" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6'!$A$1:$A$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'9'!$A$1:$A$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>5.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -517,508 +519,508 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62200.0</v>
+        <v>58500.0</v>
       </c>
       <c r="B2" t="n">
-        <v>528300.0</v>
+        <v>617900.0</v>
       </c>
       <c r="C2" t="n">
-        <v>546500.0</v>
+        <v>542800.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34700.0</v>
+        <v>30600.0</v>
       </c>
       <c r="B3" t="n">
-        <v>3433.0</v>
+        <v>3533.0</v>
       </c>
       <c r="C3" t="n">
-        <v>12500.0</v>
+        <v>7750.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19800.0</v>
+        <v>24000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2340.0</v>
+        <v>3150.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6600.0</v>
+        <v>11300.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20200.0</v>
+        <v>22300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>7550.0</v>
+        <v>3125.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7450.0</v>
+        <v>12600.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22900.0</v>
+        <v>19800.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2800.0</v>
+        <v>3466.0</v>
       </c>
       <c r="C6" t="n">
-        <v>7100.0</v>
+        <v>6800.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19400.0</v>
+        <v>21100.0</v>
       </c>
       <c r="B7" t="n">
-        <v>2650.0</v>
+        <v>3600.0</v>
       </c>
       <c r="C7" t="n">
-        <v>7200.0</v>
+        <v>7100.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20200.0</v>
+        <v>25600.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2725.0</v>
+        <v>5350.0</v>
       </c>
       <c r="C8" t="n">
-        <v>18100.0</v>
+        <v>47600.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18600.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2675.0</v>
+        <v>3225.0</v>
       </c>
       <c r="C9" t="n">
-        <v>19500.0</v>
+        <v>13800.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23900.0</v>
+        <v>13800.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2720.0</v>
+        <v>4233.0</v>
       </c>
       <c r="C10" t="n">
-        <v>7500.0</v>
+        <v>6950.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29000.0</v>
+        <v>16100.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3500.0</v>
+        <v>3833.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7800.0</v>
+        <v>6750.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17800.0</v>
+        <v>17000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>11800.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C12" t="n">
-        <v>10800.0</v>
+        <v>45450.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31000.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B13" t="n">
-        <v>8050.0</v>
+        <v>2650.0</v>
       </c>
       <c r="C13" t="n">
-        <v>18600.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23400.0</v>
+        <v>19100.0</v>
       </c>
       <c r="B14" t="n">
-        <v>10400.0</v>
+        <v>3700.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7150.0</v>
+        <v>7100.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19700.0</v>
+        <v>31600.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2725.0</v>
+        <v>3433.0</v>
       </c>
       <c r="C15" t="n">
-        <v>410400.0</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22400.0</v>
+        <v>22100.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2750.0</v>
+        <v>4250.0</v>
       </c>
       <c r="C16" t="n">
-        <v>10200.0</v>
+        <v>10700.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21400.0</v>
+        <v>18500.0</v>
       </c>
       <c r="B17" t="n">
-        <v>11700.0</v>
+        <v>3466.0</v>
       </c>
       <c r="C17" t="n">
-        <v>10050.0</v>
+        <v>6050.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18600.0</v>
+        <v>17400.0</v>
       </c>
       <c r="B18" t="n">
-        <v>2220.0</v>
+        <v>5750.0</v>
       </c>
       <c r="C18" t="n">
-        <v>6700.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27700.0</v>
+        <v>15100.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1614.0</v>
+        <v>6050.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3566.0</v>
+        <v>6050.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11300.0</v>
+        <v>32700.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1783.0</v>
+        <v>3125.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3500.0</v>
+        <v>7150.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11300.0</v>
+        <v>21500.0</v>
       </c>
       <c r="B21" t="n">
-        <v>2180.0</v>
+        <v>4200.0</v>
       </c>
       <c r="C21" t="n">
-        <v>10500.0</v>
+        <v>5800.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11500.0</v>
+        <v>14500.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1557.0</v>
+        <v>3125.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3466.0</v>
+        <v>5900.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10700.0</v>
+        <v>14800.0</v>
       </c>
       <c r="B23" t="n">
-        <v>572.0</v>
+        <v>2850.0</v>
       </c>
       <c r="C23" t="n">
-        <v>3466.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14600.0</v>
+        <v>16200.0</v>
       </c>
       <c r="B24" t="n">
-        <v>742.0</v>
+        <v>3566.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5250.0</v>
+        <v>5650.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16600.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B25" t="n">
-        <v>807.0</v>
+        <v>2975.0</v>
       </c>
       <c r="C25" t="n">
-        <v>9150.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15900.0</v>
+        <v>18200.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5200.0</v>
+        <v>4033.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5450.0</v>
+        <v>6550.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20800.0</v>
+        <v>14800.0</v>
       </c>
       <c r="B27" t="n">
-        <v>735.0</v>
+        <v>3175.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3733.0</v>
+        <v>5800.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18200.0</v>
+        <v>14900.0</v>
       </c>
       <c r="B28" t="n">
-        <v>377.0</v>
+        <v>3075.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3833.0</v>
+        <v>5850.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15100.0</v>
+        <v>14900.0</v>
       </c>
       <c r="B29" t="n">
-        <v>588.0</v>
+        <v>5100.0</v>
       </c>
       <c r="C29" t="n">
-        <v>5850.0</v>
+        <v>4133.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18900.0</v>
+        <v>16900.0</v>
       </c>
       <c r="B30" t="n">
-        <v>485.0</v>
+        <v>13700.0</v>
       </c>
       <c r="C30" t="n">
-        <v>4100.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16000.0</v>
+        <v>18900.0</v>
       </c>
       <c r="B31" t="n">
-        <v>472.0</v>
+        <v>2775.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3933.0</v>
+        <v>11000.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15600.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B32" t="n">
-        <v>510.0</v>
+        <v>3150.0</v>
       </c>
       <c r="C32" t="n">
-        <v>11500.0</v>
+        <v>12550.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17200.0</v>
+        <v>18200.0</v>
       </c>
       <c r="B33" t="n">
-        <v>460.0</v>
+        <v>3125.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4233.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.02454E7</v>
+        <v>20900.0</v>
       </c>
       <c r="B34" t="n">
-        <v>542.0</v>
+        <v>3100.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6450.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11900.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B35" t="n">
-        <v>283.0</v>
+        <v>3466.0</v>
       </c>
       <c r="C35" t="n">
-        <v>11000.0</v>
+        <v>11100.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16500.0</v>
+        <v>14600.0</v>
       </c>
       <c r="B36" t="n">
-        <v>600.0</v>
+        <v>3800.0</v>
       </c>
       <c r="C36" t="n">
-        <v>6150.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15900.0</v>
+        <v>14200.0</v>
       </c>
       <c r="B37" t="n">
-        <v>693.0</v>
+        <v>792.0</v>
       </c>
       <c r="C37" t="n">
-        <v>8350.0</v>
+        <v>13100.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17700.0</v>
+        <v>15000.0</v>
       </c>
       <c r="B38" t="n">
-        <v>515.0</v>
+        <v>3357033.0</v>
       </c>
       <c r="C38" t="n">
-        <v>10900.0</v>
+        <v>2575.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17200.0</v>
+        <v>11500.0</v>
       </c>
       <c r="B39" t="n">
-        <v>477.0</v>
+        <v>329.0</v>
       </c>
       <c r="C39" t="n">
-        <v>5100.0</v>
+        <v>6200.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15600.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B40" t="n">
-        <v>490.0</v>
+        <v>566.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4666.0</v>
+        <v>3866.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18700.0</v>
+        <v>8650.0</v>
       </c>
       <c r="B41" t="n">
-        <v>530.0</v>
+        <v>309.0</v>
       </c>
       <c r="C41" t="n">
-        <v>5550.0</v>
+        <v>2140.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18400.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.0</v>
+        <v>425.0</v>
       </c>
       <c r="C42" t="n">
-        <v>4166.0</v>
+        <v>2140.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15900.0</v>
+        <v>19400.0</v>
       </c>
       <c r="B43" t="n">
-        <v>460.0</v>
+        <v>309.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4000.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16400.0</v>
+        <v>14300.0</v>
       </c>
       <c r="B44" t="n">
-        <v>504.0</v>
+        <v>588.0</v>
       </c>
       <c r="C44" t="n">
-        <v>4133.0</v>
+        <v>3966.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18500.0</v>
+        <v>35600.0</v>
       </c>
       <c r="B45" t="n">
-        <v>412.0</v>
+        <v>800.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3866.0</v>
+        <v>3466.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15800.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B46" t="n">
-        <v>486.0</v>
+        <v>371.0</v>
       </c>
       <c r="C46" t="n">
-        <v>3966.0</v>
+        <v>13500.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17200.0</v>
+        <v>17000.0</v>
       </c>
       <c r="B47" t="n">
-        <v>412.0</v>
+        <v>784.0</v>
       </c>
       <c r="C47" t="n">
-        <v>3966.0</v>
+        <v>4233.0</v>
       </c>
     </row>
     <row r="48">
@@ -1026,142 +1028,142 @@
         <v>15300.0</v>
       </c>
       <c r="B48" t="n">
-        <v>566.0</v>
+        <v>472.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3800.0</v>
+        <v>16800.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16000.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B49" t="n">
-        <v>437.0</v>
+        <v>761.0</v>
       </c>
       <c r="C49" t="n">
-        <v>11633.0</v>
+        <v>2120.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15500.0</v>
+        <v>13000.0</v>
       </c>
       <c r="B50" t="n">
-        <v>662.0</v>
+        <v>572.0</v>
       </c>
       <c r="C50" t="n">
-        <v>5450.0</v>
+        <v>2160.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15600.0</v>
+        <v>12100.0</v>
       </c>
       <c r="B51" t="n">
-        <v>441.0</v>
+        <v>566.0</v>
       </c>
       <c r="C51" t="n">
-        <v>3833.0</v>
+        <v>3433.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15000.0</v>
+        <v>19300.0</v>
       </c>
       <c r="B52" t="n">
-        <v>443.0</v>
+        <v>510.0</v>
       </c>
       <c r="C52" t="n">
-        <v>19200.0</v>
+        <v>3766.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>16700.0</v>
+        <v>32800.0</v>
       </c>
       <c r="B53" t="n">
-        <v>388.0</v>
+        <v>477.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1500.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12900.0</v>
+        <v>7700.0</v>
       </c>
       <c r="B54" t="n">
-        <v>468.0</v>
+        <v>515.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1457.0</v>
+        <v>1783.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42400.0</v>
+        <v>15400.0</v>
       </c>
       <c r="B55" t="n">
-        <v>443.0</v>
+        <v>743.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1783.0</v>
+        <v>2060.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24200.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B56" t="n">
-        <v>420.0</v>
+        <v>750.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1816.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>35700.0</v>
+        <v>16900.0</v>
       </c>
       <c r="B57" t="n">
-        <v>510.0</v>
+        <v>650.0</v>
       </c>
       <c r="C57" t="n">
-        <v>2100.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>664800.0</v>
+        <v>19900.0</v>
       </c>
       <c r="B58" t="n">
-        <v>572.0</v>
+        <v>566.0</v>
       </c>
       <c r="C58" t="n">
-        <v>2320.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17100.0</v>
+        <v>12500.0</v>
       </c>
       <c r="B59" t="n">
-        <v>686.0</v>
+        <v>1209.0</v>
       </c>
       <c r="C59" t="n">
-        <v>2550.0</v>
+        <v>4033.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>25200.0</v>
+        <v>12200.0</v>
       </c>
       <c r="B60" t="n">
-        <v>681.0</v>
+        <v>637.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1850.0</v>
+        <v>2280.0</v>
       </c>
     </row>
     <row r="61">
@@ -1169,208 +1171,208 @@
         <v>14900.0</v>
       </c>
       <c r="B61" t="n">
-        <v>509.0</v>
+        <v>807.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1983.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14600.0</v>
+        <v>10500.0</v>
       </c>
       <c r="B62" t="n">
-        <v>577.0</v>
+        <v>617.0</v>
       </c>
       <c r="C62" t="n">
-        <v>2060.0</v>
+        <v>1883.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>28800.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B63" t="n">
-        <v>542.0</v>
+        <v>726.0</v>
       </c>
       <c r="C63" t="n">
-        <v>5250.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8550.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B64" t="n">
-        <v>447.0</v>
+        <v>540.0</v>
       </c>
       <c r="C64" t="n">
-        <v>2700.0</v>
+        <v>4066.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10600.0</v>
+        <v>13400.0</v>
       </c>
       <c r="B65" t="n">
-        <v>807.0</v>
+        <v>343.0</v>
       </c>
       <c r="C65" t="n">
-        <v>2060.0</v>
+        <v>2875.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11400.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B66" t="n">
-        <v>490.0</v>
+        <v>308.0</v>
       </c>
       <c r="C66" t="n">
-        <v>927.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10600.0</v>
+        <v>10133.0</v>
       </c>
       <c r="B67" t="n">
-        <v>456.0</v>
+        <v>1733.0</v>
       </c>
       <c r="C67" t="n">
-        <v>891.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10400.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B68" t="n">
-        <v>385.0</v>
+        <v>623.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1070.0</v>
+        <v>3225.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12600.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B69" t="n">
-        <v>504.0</v>
+        <v>355.0</v>
       </c>
       <c r="C69" t="n">
-        <v>1177.0</v>
+        <v>2320.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8450.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B70" t="n">
-        <v>375.0</v>
+        <v>536.0</v>
       </c>
       <c r="C70" t="n">
-        <v>720.0</v>
+        <v>3433.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8150.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B71" t="n">
-        <v>364.0</v>
+        <v>600.0</v>
       </c>
       <c r="C71" t="n">
-        <v>815.0</v>
+        <v>5550.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10200.0</v>
+        <v>12200.0</v>
       </c>
       <c r="B72" t="n">
-        <v>3011.0</v>
+        <v>605.0</v>
       </c>
       <c r="C72" t="n">
-        <v>1020.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7750.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B73" t="n">
-        <v>2440.0</v>
+        <v>800.0</v>
       </c>
       <c r="C73" t="n">
-        <v>2266.0</v>
+        <v>3675.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>25200.0</v>
+        <v>14200.0</v>
       </c>
       <c r="B74" t="n">
-        <v>617.0</v>
+        <v>456.0</v>
       </c>
       <c r="C74" t="n">
-        <v>1177.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>15100.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B75" t="n">
-        <v>572.0</v>
+        <v>468.0</v>
       </c>
       <c r="C75" t="n">
-        <v>846.0</v>
+        <v>2383.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10500.0</v>
+        <v>8100.0</v>
       </c>
       <c r="B76" t="n">
-        <v>437.0</v>
+        <v>572.0</v>
       </c>
       <c r="C76" t="n">
-        <v>764.0</v>
+        <v>1542.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8850.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B77" t="n">
-        <v>686.0</v>
+        <v>486.0</v>
       </c>
       <c r="C77" t="n">
-        <v>972.0</v>
+        <v>2725.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>15900.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B78" t="n">
-        <v>530.0</v>
+        <v>792.0</v>
       </c>
       <c r="C78" t="n">
-        <v>1000.0</v>
+        <v>923.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11100.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B79" t="n">
-        <v>362.0</v>
+        <v>617.0</v>
       </c>
       <c r="C79" t="n">
-        <v>668.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="80">
@@ -1378,241 +1380,241 @@
         <v>8450.0</v>
       </c>
       <c r="B80" t="n">
-        <v>662.0</v>
+        <v>542.0</v>
       </c>
       <c r="C80" t="n">
-        <v>927.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>44000.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B81" t="n">
-        <v>635.0</v>
+        <v>680.0</v>
       </c>
       <c r="C81" t="n">
-        <v>706.0</v>
+        <v>823.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8600.0</v>
+        <v>8850.0</v>
       </c>
       <c r="B82" t="n">
-        <v>485.0</v>
+        <v>490.0</v>
       </c>
       <c r="C82" t="n">
-        <v>750.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>62100.0</v>
+        <v>13500.0</v>
       </c>
       <c r="B83" t="n">
-        <v>412.0</v>
+        <v>583.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1766.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7500.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>396.0</v>
+        <v>718.0</v>
       </c>
       <c r="C84" t="n">
-        <v>735.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7300.0</v>
+        <v>17100.0</v>
       </c>
       <c r="B85" t="n">
-        <v>412.0</v>
+        <v>600.0</v>
       </c>
       <c r="C85" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8900.0</v>
+        <v>12300.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1457.0</v>
+        <v>611.0</v>
       </c>
       <c r="C86" t="n">
-        <v>764.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8050.0</v>
+        <v>39200.0</v>
       </c>
       <c r="B87" t="n">
-        <v>219.0</v>
+        <v>577.0</v>
       </c>
       <c r="C87" t="n">
-        <v>800.0</v>
+        <v>1030.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8000.0</v>
+        <v>8050.0</v>
       </c>
       <c r="B88" t="n">
-        <v>188.0</v>
+        <v>600.0</v>
       </c>
       <c r="C88" t="n">
-        <v>815.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7100.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B89" t="n">
-        <v>206.0</v>
+        <v>716.0</v>
       </c>
       <c r="C89" t="n">
-        <v>735.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11100.0</v>
+        <v>8450.0</v>
       </c>
       <c r="B90" t="n">
-        <v>223.0</v>
+        <v>891.0</v>
       </c>
       <c r="C90" t="n">
-        <v>1312.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8700.0</v>
+        <v>7450.0</v>
       </c>
       <c r="B91" t="n">
-        <v>203.0</v>
+        <v>536.0</v>
       </c>
       <c r="C91" t="n">
-        <v>815.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8900.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B92" t="n">
-        <v>237.0</v>
+        <v>11400.0</v>
       </c>
       <c r="C92" t="n">
-        <v>1188.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>13300.0</v>
+        <v>7400.0</v>
       </c>
       <c r="B93" t="n">
-        <v>217.0</v>
+        <v>237.0</v>
       </c>
       <c r="C93" t="n">
-        <v>1060.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10200.0</v>
+        <v>7000.0</v>
       </c>
       <c r="B94" t="n">
-        <v>212.0</v>
+        <v>237.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1030.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>14400.0</v>
+        <v>6600.0</v>
       </c>
       <c r="B95" t="n">
-        <v>208.0</v>
+        <v>231.0</v>
       </c>
       <c r="C95" t="n">
-        <v>1183.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8300.0</v>
+        <v>7550.0</v>
       </c>
       <c r="B96" t="n">
-        <v>212.0</v>
+        <v>288.0</v>
       </c>
       <c r="C96" t="n">
-        <v>800.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8450.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B97" t="n">
-        <v>210.0</v>
+        <v>408.0</v>
       </c>
       <c r="C97" t="n">
-        <v>981.0</v>
+        <v>1733.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7950.0</v>
+        <v>7300.0</v>
       </c>
       <c r="B98" t="n">
-        <v>268.0</v>
+        <v>275.0</v>
       </c>
       <c r="C98" t="n">
-        <v>800.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13700.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B99" t="n">
-        <v>242.0</v>
+        <v>231.0</v>
       </c>
       <c r="C99" t="n">
-        <v>1211.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10700.0</v>
+        <v>7000.0</v>
       </c>
       <c r="B100" t="n">
-        <v>221.0</v>
+        <v>237.0</v>
       </c>
       <c r="C100" t="n">
-        <v>850.0</v>
+        <v>1222.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8350.0</v>
+        <v>6300.0</v>
       </c>
       <c r="B101" t="n">
-        <v>210.0</v>
+        <v>237.0</v>
       </c>
       <c r="C101" t="n">
-        <v>891.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1643,7 +1645,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1660,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>8.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,120 +1683,120 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14400.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B2" t="n">
-        <v>166.0</v>
+        <v>1570.0</v>
       </c>
       <c r="C2" t="n">
-        <v>611.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11500.0</v>
+        <v>6850.0</v>
       </c>
       <c r="B3" t="n">
-        <v>425.0</v>
+        <v>93.0</v>
       </c>
       <c r="C3" t="n">
-        <v>668.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8900.0</v>
+        <v>8600.0</v>
       </c>
       <c r="B4" t="n">
-        <v>134.0</v>
+        <v>156.0</v>
       </c>
       <c r="C4" t="n">
-        <v>515.0</v>
+        <v>1040.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10500.0</v>
+        <v>8250.0</v>
       </c>
       <c r="B5" t="n">
-        <v>201.0</v>
+        <v>149.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2950.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38200.0</v>
+        <v>7950.0</v>
       </c>
       <c r="B6" t="n">
-        <v>154.0</v>
+        <v>158.0</v>
       </c>
       <c r="C6" t="n">
-        <v>683.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8800.0</v>
+        <v>8600.0</v>
       </c>
       <c r="B7" t="n">
-        <v>147.0</v>
+        <v>161.0</v>
       </c>
       <c r="C7" t="n">
-        <v>515.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8150.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B8" t="n">
-        <v>143.0</v>
+        <v>164.0</v>
       </c>
       <c r="C8" t="n">
-        <v>463.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9000.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B9" t="n">
-        <v>156.0</v>
+        <v>248.0</v>
       </c>
       <c r="C9" t="n">
-        <v>552.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8350.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B10" t="n">
-        <v>151.0</v>
+        <v>167.0</v>
       </c>
       <c r="C10" t="n">
-        <v>572.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8300.0</v>
+        <v>6750.0</v>
       </c>
       <c r="B11" t="n">
-        <v>154.0</v>
+        <v>175.0</v>
       </c>
       <c r="C11" t="n">
-        <v>557.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12500.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B12" t="n">
-        <v>201.0</v>
+        <v>163.0</v>
       </c>
       <c r="C12" t="n">
         <v>784.0</v>
@@ -1800,183 +1804,183 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7550.0</v>
+        <v>12300.0</v>
       </c>
       <c r="B13" t="n">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="C13" t="n">
-        <v>656.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8250.0</v>
+        <v>6650.0</v>
       </c>
       <c r="B14" t="n">
-        <v>154.0</v>
+        <v>95.0</v>
       </c>
       <c r="C14" t="n">
-        <v>566.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8650.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B15" t="n">
-        <v>145.0</v>
+        <v>128.0</v>
       </c>
       <c r="C15" t="n">
-        <v>477.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8050.0</v>
+        <v>7850.0</v>
       </c>
       <c r="B16" t="n">
-        <v>149.0</v>
+        <v>160.0</v>
       </c>
       <c r="C16" t="n">
-        <v>536.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7350.0</v>
+        <v>6850.0</v>
       </c>
       <c r="B17" t="n">
-        <v>137.0</v>
+        <v>192.0</v>
       </c>
       <c r="C17" t="n">
-        <v>515.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8950.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B18" t="n">
         <v>147.0</v>
       </c>
       <c r="C18" t="n">
-        <v>504.0</v>
+        <v>552.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7700.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B19" t="n">
-        <v>234.0</v>
+        <v>143.0</v>
       </c>
       <c r="C19" t="n">
-        <v>500.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7750.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B20" t="n">
-        <v>137.0</v>
+        <v>149.0</v>
       </c>
       <c r="C20" t="n">
-        <v>536.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14000.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B21" t="n">
-        <v>850.0</v>
+        <v>127.0</v>
       </c>
       <c r="C21" t="n">
-        <v>504.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7700.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B22" t="n">
-        <v>147.0</v>
+        <v>163.0</v>
       </c>
       <c r="C22" t="n">
-        <v>437.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7200.0</v>
+        <v>8600.0</v>
       </c>
       <c r="B23" t="n">
-        <v>115.0</v>
+        <v>160.0</v>
       </c>
       <c r="C23" t="n">
-        <v>566.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7400.0</v>
+        <v>9850.0</v>
       </c>
       <c r="B24" t="n">
-        <v>143.0</v>
+        <v>156.0</v>
       </c>
       <c r="C24" t="n">
-        <v>456.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7100.0</v>
+        <v>9200.0</v>
       </c>
       <c r="B25" t="n">
-        <v>139.0</v>
+        <v>271.0</v>
       </c>
       <c r="C25" t="n">
-        <v>583.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6850.0</v>
+        <v>8200.0</v>
       </c>
       <c r="B26" t="n">
-        <v>139.0</v>
+        <v>156.0</v>
       </c>
       <c r="C26" t="n">
-        <v>485.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7100.0</v>
+        <v>7650.0</v>
       </c>
       <c r="B27" t="n">
-        <v>127.0</v>
+        <v>190.0</v>
       </c>
       <c r="C27" t="n">
-        <v>542.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7100.0</v>
+        <v>8800.0</v>
       </c>
       <c r="B28" t="n">
-        <v>183.0</v>
+        <v>139.0</v>
       </c>
       <c r="C28" t="n">
-        <v>542.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7550.0</v>
+        <v>8100.0</v>
       </c>
       <c r="B29" t="n">
         <v>149.0</v>
@@ -1987,505 +1991,505 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7900.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B30" t="n">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="C30" t="n">
-        <v>784.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="B31" t="n">
-        <v>143.0</v>
+        <v>145.0</v>
       </c>
       <c r="C31" t="n">
-        <v>764.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7550.0</v>
+        <v>7400.0</v>
       </c>
       <c r="B32" t="n">
-        <v>145.0</v>
+        <v>139.0</v>
       </c>
       <c r="C32" t="n">
-        <v>520.0</v>
+        <v>3880.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7450.0</v>
+        <v>8500.0</v>
       </c>
       <c r="B33" t="n">
-        <v>147.0</v>
+        <v>113.0</v>
       </c>
       <c r="C33" t="n">
-        <v>460.0</v>
+        <v>706.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8750.0</v>
+        <v>11500.0</v>
       </c>
       <c r="B34" t="n">
-        <v>151.0</v>
+        <v>160.0</v>
       </c>
       <c r="C34" t="n">
-        <v>510.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9750.0</v>
+        <v>28700.0</v>
       </c>
       <c r="B35" t="n">
-        <v>198.0</v>
+        <v>577.0</v>
       </c>
       <c r="C35" t="n">
-        <v>552.0</v>
+        <v>1475.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7550.0</v>
+        <v>7650.0</v>
       </c>
       <c r="B36" t="n">
-        <v>166.0</v>
+        <v>137.0</v>
       </c>
       <c r="C36" t="n">
-        <v>456.0</v>
+        <v>1481.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8350.0</v>
+        <v>53600.0</v>
       </c>
       <c r="B37" t="n">
-        <v>161.0</v>
+        <v>121.0</v>
       </c>
       <c r="C37" t="n">
-        <v>542.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7450.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B38" t="n">
-        <v>156.0</v>
+        <v>132.0</v>
       </c>
       <c r="C38" t="n">
-        <v>594.0</v>
+        <v>885.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8150.0</v>
+        <v>26200.0</v>
       </c>
       <c r="B39" t="n">
-        <v>134.0</v>
+        <v>145.0</v>
       </c>
       <c r="C39" t="n">
-        <v>566.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7900.0</v>
+        <v>12050.0</v>
       </c>
       <c r="B40" t="n">
-        <v>149.0</v>
+        <v>178.0</v>
       </c>
       <c r="C40" t="n">
-        <v>495.0</v>
+        <v>915.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10000.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B41" t="n">
-        <v>150.0</v>
+        <v>172.0</v>
       </c>
       <c r="C41" t="n">
-        <v>530.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7950.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B42" t="n">
-        <v>158.0</v>
+        <v>596.0</v>
       </c>
       <c r="C42" t="n">
-        <v>536.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8000.0</v>
+        <v>11900.0</v>
       </c>
       <c r="B43" t="n">
-        <v>147.0</v>
+        <v>89.0</v>
       </c>
       <c r="C43" t="n">
-        <v>463.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8050.0</v>
+        <v>5350.0</v>
       </c>
       <c r="B44" t="n">
-        <v>198.0</v>
+        <v>45.0</v>
       </c>
       <c r="C44" t="n">
-        <v>525.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12600.0</v>
+        <v>5100.0</v>
       </c>
       <c r="B45" t="n">
-        <v>149.0</v>
+        <v>44.0</v>
       </c>
       <c r="C45" t="n">
-        <v>536.0</v>
+        <v>302.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7500.0</v>
+        <v>5850.0</v>
       </c>
       <c r="B46" t="n">
-        <v>158.0</v>
+        <v>45.0</v>
       </c>
       <c r="C46" t="n">
-        <v>542.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8250.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B47" t="n">
-        <v>156.0</v>
+        <v>83.0</v>
       </c>
       <c r="C47" t="n">
-        <v>600.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8500.0</v>
+        <v>5150.0</v>
       </c>
       <c r="B48" t="n">
-        <v>153.0</v>
+        <v>45.0</v>
       </c>
       <c r="C48" t="n">
-        <v>530.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9100.0</v>
+        <v>5033.0</v>
       </c>
       <c r="B49" t="n">
-        <v>150.0</v>
+        <v>70.0</v>
       </c>
       <c r="C49" t="n">
-        <v>535.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7250.0</v>
+        <v>8250.0</v>
       </c>
       <c r="B50" t="n">
-        <v>141.0</v>
+        <v>62.0</v>
       </c>
       <c r="C50" t="n">
-        <v>425.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7300.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B51" t="n">
-        <v>906.0</v>
+        <v>44.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1068.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7900.0</v>
+        <v>5100.0</v>
       </c>
       <c r="B52" t="n">
-        <v>198.0</v>
+        <v>45.0</v>
       </c>
       <c r="C52" t="n">
-        <v>536.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7350.0</v>
+        <v>7150.0</v>
       </c>
       <c r="B53" t="n">
-        <v>255.0</v>
+        <v>58.0</v>
       </c>
       <c r="C53" t="n">
-        <v>658.0</v>
+        <v>10800.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13500.0</v>
+        <v>12200.0</v>
       </c>
       <c r="B54" t="n">
         <v>76.0</v>
       </c>
       <c r="C54" t="n">
-        <v>792.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12100.0</v>
+        <v>33800.0</v>
       </c>
       <c r="B55" t="n">
-        <v>84.0</v>
+        <v>60.0</v>
       </c>
       <c r="C55" t="n">
-        <v>686.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10300.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B56" t="n">
-        <v>80.0</v>
+        <v>61.0</v>
       </c>
       <c r="C56" t="n">
-        <v>611.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>26200.0</v>
+        <v>8100.0</v>
       </c>
       <c r="B57" t="n">
-        <v>100.0</v>
+        <v>63.0</v>
       </c>
       <c r="C57" t="n">
-        <v>656.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8400.0</v>
+        <v>8250.0</v>
       </c>
       <c r="B58" t="n">
-        <v>84.0</v>
+        <v>76.0</v>
       </c>
       <c r="C58" t="n">
-        <v>588.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8750.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B59" t="n">
-        <v>73.0</v>
+        <v>62.0</v>
       </c>
       <c r="C59" t="n">
-        <v>784.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5400.0</v>
+        <v>8700.0</v>
       </c>
       <c r="B60" t="n">
-        <v>72.0</v>
+        <v>65.0</v>
       </c>
       <c r="C60" t="n">
-        <v>656.0</v>
+        <v>1080.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8350.0</v>
+        <v>8750.0</v>
       </c>
       <c r="B61" t="n">
-        <v>117.0</v>
+        <v>65.0</v>
       </c>
       <c r="C61" t="n">
-        <v>552.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8300.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B62" t="n">
-        <v>82.0</v>
+        <v>64.0</v>
       </c>
       <c r="C62" t="n">
-        <v>600.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8550.0</v>
+        <v>8700.0</v>
       </c>
       <c r="B63" t="n">
-        <v>73.0</v>
+        <v>61.0</v>
       </c>
       <c r="C63" t="n">
-        <v>490.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10800.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B64" t="n">
-        <v>76.0</v>
+        <v>68.0</v>
       </c>
       <c r="C64" t="n">
-        <v>735.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12400.0</v>
+        <v>12300.0</v>
       </c>
       <c r="B65" t="n">
-        <v>87.0</v>
+        <v>64.0</v>
       </c>
       <c r="C65" t="n">
-        <v>605.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9650.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B66" t="n">
-        <v>78.0</v>
+        <v>45.0</v>
       </c>
       <c r="C66" t="n">
-        <v>552.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12300.0</v>
+        <v>63100.0</v>
       </c>
       <c r="B67" t="n">
-        <v>84.0</v>
+        <v>66.0</v>
       </c>
       <c r="C67" t="n">
-        <v>963.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11600.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B68" t="n">
-        <v>81.0</v>
+        <v>221.0</v>
       </c>
       <c r="C68" t="n">
-        <v>693.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14200.0</v>
+        <v>6650.0</v>
       </c>
       <c r="B69" t="n">
-        <v>81.0</v>
+        <v>55.0</v>
       </c>
       <c r="C69" t="n">
-        <v>572.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12100.0</v>
+        <v>8500.0</v>
       </c>
       <c r="B70" t="n">
-        <v>94.0</v>
+        <v>61.0</v>
       </c>
       <c r="C70" t="n">
-        <v>583.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8800.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B71" t="n">
-        <v>85.0</v>
+        <v>46.0</v>
       </c>
       <c r="C71" t="n">
-        <v>588.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8650.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B72" t="n">
-        <v>80.0</v>
+        <v>45.0</v>
       </c>
       <c r="C72" t="n">
-        <v>15200.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11100.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B73" t="n">
-        <v>300.0</v>
+        <v>45.0</v>
       </c>
       <c r="C73" t="n">
-        <v>557.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8100.0</v>
+        <v>4733.0</v>
       </c>
       <c r="B74" t="n">
-        <v>57.0</v>
+        <v>45.0</v>
       </c>
       <c r="C74" t="n">
-        <v>396.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10200.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B75" t="n">
-        <v>62.0</v>
+        <v>70.0</v>
       </c>
       <c r="C75" t="n">
         <v>510.0</v>
@@ -2493,288 +2497,288 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8750.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B76" t="n">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
       <c r="C76" t="n">
-        <v>468.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8900.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B77" t="n">
-        <v>61.0</v>
+        <v>162.0</v>
       </c>
       <c r="C77" t="n">
-        <v>377.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8750.0</v>
+        <v>8950.0</v>
       </c>
       <c r="B78" t="n">
         <v>62.0</v>
       </c>
       <c r="C78" t="n">
-        <v>468.0</v>
+        <v>6200.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10600.0</v>
+        <v>18700.0</v>
       </c>
       <c r="B79" t="n">
-        <v>71.0</v>
+        <v>65.0</v>
       </c>
       <c r="C79" t="n">
-        <v>433.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>11300.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B80" t="n">
-        <v>69.0</v>
+        <v>65.0</v>
       </c>
       <c r="C80" t="n">
-        <v>481.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9150.0</v>
+        <v>8200.0</v>
       </c>
       <c r="B81" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="C81" t="n">
-        <v>542.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>40550.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B82" t="n">
-        <v>56.0</v>
+        <v>66.0</v>
       </c>
       <c r="C82" t="n">
-        <v>443.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9400.0</v>
+        <v>6800.0</v>
       </c>
       <c r="B83" t="n">
-        <v>66.0</v>
+        <v>57.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1593.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8850.0</v>
+        <v>8100.0</v>
       </c>
       <c r="B84" t="n">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
       <c r="C84" t="n">
-        <v>477.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8700.0</v>
+        <v>8000.0</v>
       </c>
       <c r="B85" t="n">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
       <c r="C85" t="n">
-        <v>495.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8750.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B86" t="n">
-        <v>64.0</v>
+        <v>58.0</v>
       </c>
       <c r="C86" t="n">
-        <v>452.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8900.0</v>
+        <v>8650.0</v>
       </c>
       <c r="B87" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="C87" t="n">
-        <v>468.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8750.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B88" t="n">
-        <v>61.0</v>
+        <v>74.0</v>
       </c>
       <c r="C88" t="n">
-        <v>590.0</v>
+        <v>1090.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8700.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B89" t="n">
         <v>60.0</v>
       </c>
       <c r="C89" t="n">
-        <v>460.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8550.0</v>
+        <v>8050.0</v>
       </c>
       <c r="B90" t="n">
-        <v>64.0</v>
+        <v>60.0</v>
       </c>
       <c r="C90" t="n">
-        <v>396.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8600.0</v>
+        <v>14700.0</v>
       </c>
       <c r="B91" t="n">
-        <v>70.0</v>
+        <v>103.0</v>
       </c>
       <c r="C91" t="n">
-        <v>463.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9300.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B92" t="n">
-        <v>64.0</v>
+        <v>60.0</v>
       </c>
       <c r="C92" t="n">
-        <v>525.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>14000.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B93" t="n">
-        <v>66.0</v>
+        <v>62.0</v>
       </c>
       <c r="C93" t="n">
-        <v>525.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10400.0</v>
+        <v>9700.0</v>
       </c>
       <c r="B94" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="C94" t="n">
-        <v>490.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9000.0</v>
+        <v>13500.0</v>
       </c>
       <c r="B95" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="C95" t="n">
-        <v>400.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8400.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B96" t="n">
-        <v>60.0</v>
+        <v>82.0</v>
       </c>
       <c r="C96" t="n">
-        <v>468.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>16500.0</v>
+        <v>7750.0</v>
       </c>
       <c r="B97" t="n">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="C97" t="n">
-        <v>441.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8500.0</v>
+        <v>8550.0</v>
       </c>
       <c r="B98" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="C98" t="n">
-        <v>468.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11400.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B99" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="C99" t="n">
-        <v>536.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11900.0</v>
+        <v>7600.0</v>
       </c>
       <c r="B100" t="n">
-        <v>72.0</v>
+        <v>57.0</v>
       </c>
       <c r="C100" t="n">
-        <v>647.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10900.0</v>
+        <v>8600.0</v>
       </c>
       <c r="B101" t="n">
-        <v>76.0</v>
+        <v>68.0</v>
       </c>
       <c r="C101" t="n">
-        <v>858.0</v>
+        <v>340.0</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2794,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,7 +2809,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>8.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2826,1102 +2832,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1781.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B2" t="n">
-        <v>130400.0</v>
+        <v>60.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1020.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>472.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B3" t="n">
-        <v>10700.0</v>
+        <v>54.0</v>
       </c>
       <c r="C3" t="n">
-        <v>643.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1027.0</v>
+        <v>7450.0</v>
       </c>
       <c r="B4" t="n">
-        <v>30500.0</v>
+        <v>58.0</v>
       </c>
       <c r="C4" t="n">
-        <v>552.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1200.0</v>
+        <v>11450.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1983.0</v>
+        <v>82.0</v>
       </c>
       <c r="C5" t="n">
-        <v>815.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>416.0</v>
+        <v>8150.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2040.0</v>
+        <v>56.0</v>
       </c>
       <c r="C6" t="n">
-        <v>611.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>600.0</v>
+        <v>7800.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1471.0</v>
+        <v>68.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5814.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1000.0</v>
+        <v>9350.0</v>
       </c>
       <c r="B8" t="n">
-        <v>6750.0</v>
+        <v>56.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1036.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>866.0</v>
+        <v>65.0</v>
       </c>
       <c r="C9" t="n">
-        <v>728.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>530.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B10" t="n">
-        <v>875.0</v>
+        <v>56.0</v>
       </c>
       <c r="C10" t="n">
-        <v>680.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>452.0</v>
+        <v>7250.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1292.0</v>
+        <v>56.0</v>
       </c>
       <c r="C11" t="n">
-        <v>784.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>605.0</v>
+        <v>7750.0</v>
       </c>
       <c r="B12" t="n">
-        <v>617.0</v>
+        <v>59.0</v>
       </c>
       <c r="C12" t="n">
-        <v>771.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>617.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B13" t="n">
-        <v>583.0</v>
+        <v>55.0</v>
       </c>
       <c r="C13" t="n">
-        <v>742.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>916.0</v>
+        <v>7800.0</v>
       </c>
       <c r="B14" t="n">
-        <v>623.0</v>
+        <v>61.0</v>
       </c>
       <c r="C14" t="n">
-        <v>757.0</v>
+        <v>19800.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>600.0</v>
+        <v>15100.0</v>
       </c>
       <c r="B15" t="n">
-        <v>706.0</v>
+        <v>55.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4080.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1100.0</v>
+        <v>8450.0</v>
       </c>
       <c r="B16" t="n">
-        <v>637.0</v>
+        <v>66.0</v>
       </c>
       <c r="C16" t="n">
-        <v>938.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>643.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B17" t="n">
-        <v>637.0</v>
+        <v>62.0</v>
       </c>
       <c r="C17" t="n">
-        <v>750.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>643.0</v>
+        <v>14500.0</v>
       </c>
       <c r="B18" t="n">
-        <v>656.0</v>
+        <v>57.0</v>
       </c>
       <c r="C18" t="n">
-        <v>784.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2381.0</v>
+        <v>8650.0</v>
       </c>
       <c r="B19" t="n">
-        <v>611.0</v>
+        <v>62.0</v>
       </c>
       <c r="C19" t="n">
-        <v>720.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>412.0</v>
+        <v>7300.0</v>
       </c>
       <c r="B20" t="n">
-        <v>583.0</v>
+        <v>61.0</v>
       </c>
       <c r="C20" t="n">
-        <v>866.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B21" t="n">
-        <v>635.0</v>
+        <v>62.0</v>
       </c>
       <c r="C21" t="n">
-        <v>617.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1725.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B22" t="n">
-        <v>941.0</v>
+        <v>60.0</v>
       </c>
       <c r="C22" t="n">
-        <v>742.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>198.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B23" t="n">
-        <v>572.0</v>
+        <v>61.0</v>
       </c>
       <c r="C23" t="n">
-        <v>594.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>174.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B24" t="n">
-        <v>510.0</v>
+        <v>64.0</v>
       </c>
       <c r="C24" t="n">
-        <v>447.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>231.0</v>
+        <v>8500.0</v>
       </c>
       <c r="B25" t="n">
-        <v>447.0</v>
+        <v>63.0</v>
       </c>
       <c r="C25" t="n">
-        <v>641.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>281.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B26" t="n">
-        <v>594.0</v>
+        <v>64.0</v>
       </c>
       <c r="C26" t="n">
-        <v>643.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>219.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B27" t="n">
-        <v>536.0</v>
+        <v>69.0</v>
       </c>
       <c r="C27" t="n">
-        <v>680.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>258.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B28" t="n">
-        <v>784.0</v>
+        <v>59.0</v>
       </c>
       <c r="C28" t="n">
-        <v>764.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>242.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B29" t="n">
-        <v>515.0</v>
+        <v>56.0</v>
       </c>
       <c r="C29" t="n">
-        <v>700.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>328.0</v>
+        <v>8500.0</v>
       </c>
       <c r="B30" t="n">
-        <v>742.0</v>
+        <v>58.0</v>
       </c>
       <c r="C30" t="n">
-        <v>12800.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>255.0</v>
+        <v>8100.0</v>
       </c>
       <c r="B31" t="n">
-        <v>629.0</v>
+        <v>64.0</v>
       </c>
       <c r="C31" t="n">
-        <v>735.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>231.0</v>
+        <v>8950.0</v>
       </c>
       <c r="B32" t="n">
-        <v>605.0</v>
+        <v>61.0</v>
       </c>
       <c r="C32" t="n">
-        <v>11400.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>198.0</v>
+        <v>7950.0</v>
       </c>
       <c r="B33" t="n">
-        <v>945.0</v>
+        <v>61.0</v>
       </c>
       <c r="C33" t="n">
-        <v>577.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>226.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B34" t="n">
-        <v>637.0</v>
+        <v>60.0</v>
       </c>
       <c r="C34" t="n">
-        <v>572.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>305.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B35" t="n">
-        <v>700.0</v>
+        <v>68.0</v>
       </c>
       <c r="C35" t="n">
-        <v>945.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>217.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B36" t="n">
-        <v>600.0</v>
+        <v>65.0</v>
       </c>
       <c r="C36" t="n">
-        <v>536.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>343.0</v>
+        <v>8300.0</v>
       </c>
       <c r="B37" t="n">
-        <v>680.0</v>
+        <v>60.0</v>
       </c>
       <c r="C37" t="n">
-        <v>456.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>309.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B38" t="n">
-        <v>536.0</v>
+        <v>61.0</v>
       </c>
       <c r="C38" t="n">
-        <v>784.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>180.0</v>
+        <v>7950.0</v>
       </c>
       <c r="B39" t="n">
-        <v>520.0</v>
+        <v>61.0</v>
       </c>
       <c r="C39" t="n">
-        <v>468.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>256.0</v>
+        <v>8550.0</v>
       </c>
       <c r="B40" t="n">
-        <v>429.0</v>
+        <v>61.0</v>
       </c>
       <c r="C40" t="n">
-        <v>429.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>212.0</v>
+        <v>10300.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1650.0</v>
+        <v>65.0</v>
       </c>
       <c r="C41" t="n">
-        <v>617.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>255.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B42" t="n">
-        <v>4320.0</v>
+        <v>120.0</v>
       </c>
       <c r="C42" t="n">
-        <v>623.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>256.0</v>
+        <v>22500.0</v>
       </c>
       <c r="B43" t="n">
-        <v>611.0</v>
+        <v>66.0</v>
       </c>
       <c r="C43" t="n">
-        <v>700.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>210.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1177.0</v>
+        <v>64.0</v>
       </c>
       <c r="C44" t="n">
-        <v>477.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>194.0</v>
+        <v>45700.0</v>
       </c>
       <c r="B45" t="n">
-        <v>542.0</v>
+        <v>60.0</v>
       </c>
       <c r="C45" t="n">
-        <v>557.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>198.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B46" t="n">
-        <v>552.0</v>
+        <v>110.0</v>
       </c>
       <c r="C46" t="n">
-        <v>557.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>206.0</v>
+        <v>5650.0</v>
       </c>
       <c r="B47" t="n">
-        <v>547.0</v>
+        <v>70.0</v>
       </c>
       <c r="C47" t="n">
-        <v>547.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>340.0</v>
+        <v>6700.0</v>
       </c>
       <c r="B48" t="n">
-        <v>623.0</v>
+        <v>66.0</v>
       </c>
       <c r="C48" t="n">
-        <v>735.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>256.0</v>
+        <v>6700.0</v>
       </c>
       <c r="B49" t="n">
-        <v>680.0</v>
+        <v>61.0</v>
       </c>
       <c r="C49" t="n">
-        <v>583.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1887.0</v>
+        <v>5066.0</v>
       </c>
       <c r="B50" t="n">
-        <v>542.0</v>
+        <v>54.0</v>
       </c>
       <c r="C50" t="n">
-        <v>757.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>204.0</v>
+        <v>4800.0</v>
       </c>
       <c r="B51" t="n">
-        <v>693.0</v>
+        <v>65.0</v>
       </c>
       <c r="C51" t="n">
-        <v>547.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>183.0</v>
+        <v>5900.0</v>
       </c>
       <c r="B52" t="n">
-        <v>1020.0</v>
+        <v>55.0</v>
       </c>
       <c r="C52" t="n">
-        <v>547.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>206.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B53" t="n">
-        <v>635.0</v>
+        <v>60.0</v>
       </c>
       <c r="C53" t="n">
-        <v>594.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>221.0</v>
+        <v>4833.0</v>
       </c>
       <c r="B54" t="n">
-        <v>5200.0</v>
+        <v>58.0</v>
       </c>
       <c r="C54" t="n">
-        <v>675.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>221.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B55" t="n">
-        <v>275.0</v>
+        <v>58.0</v>
       </c>
       <c r="C55" t="n">
-        <v>686.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>362.0</v>
+        <v>5266.0</v>
       </c>
       <c r="B56" t="n">
-        <v>377.0</v>
+        <v>60.0</v>
       </c>
       <c r="C56" t="n">
-        <v>656.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>248.0</v>
+        <v>5950.0</v>
       </c>
       <c r="B57" t="n">
-        <v>355.0</v>
+        <v>60.0</v>
       </c>
       <c r="C57" t="n">
-        <v>605.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>239.0</v>
+        <v>3866.0</v>
       </c>
       <c r="B58" t="n">
-        <v>283.0</v>
+        <v>45.0</v>
       </c>
       <c r="C58" t="n">
-        <v>566.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>268.0</v>
+        <v>4225.0</v>
       </c>
       <c r="B59" t="n">
-        <v>495.0</v>
+        <v>87.0</v>
       </c>
       <c r="C59" t="n">
-        <v>583.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>201.0</v>
+        <v>6600.0</v>
       </c>
       <c r="B60" t="n">
-        <v>271.0</v>
+        <v>67.0</v>
       </c>
       <c r="C60" t="n">
-        <v>594.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>210.0</v>
+        <v>5500.0</v>
       </c>
       <c r="B61" t="n">
-        <v>371.0</v>
+        <v>64.0</v>
       </c>
       <c r="C61" t="n">
-        <v>583.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>318.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B62" t="n">
-        <v>283.0</v>
+        <v>62.0</v>
       </c>
       <c r="C62" t="n">
-        <v>800.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>207.0</v>
+        <v>7550.0</v>
       </c>
       <c r="B63" t="n">
-        <v>266.0</v>
+        <v>65.0</v>
       </c>
       <c r="C63" t="n">
-        <v>477.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>125.0</v>
+        <v>6350.0</v>
       </c>
       <c r="B64" t="n">
-        <v>454.0</v>
+        <v>65.0</v>
       </c>
       <c r="C64" t="n">
-        <v>600.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>129.0</v>
+        <v>6300.0</v>
       </c>
       <c r="B65" t="n">
-        <v>248.0</v>
+        <v>77.0</v>
       </c>
       <c r="C65" t="n">
-        <v>552.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108.0</v>
+        <v>5900.0</v>
       </c>
       <c r="B66" t="n">
-        <v>264.0</v>
+        <v>72.0</v>
       </c>
       <c r="C66" t="n">
-        <v>742.0</v>
+        <v>1594.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>125.0</v>
+        <v>6550.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1114.0</v>
+        <v>63900.0</v>
       </c>
       <c r="C67" t="n">
-        <v>629.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>129.0</v>
+        <v>5166.0</v>
       </c>
       <c r="B68" t="n">
-        <v>275.0</v>
+        <v>59.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1211.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>167.0</v>
+        <v>5350.0</v>
       </c>
       <c r="B69" t="n">
-        <v>491.0</v>
+        <v>68.0</v>
       </c>
       <c r="C69" t="n">
-        <v>600.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>124.0</v>
+        <v>6050.0</v>
       </c>
       <c r="B70" t="n">
-        <v>255.0</v>
+        <v>63.0</v>
       </c>
       <c r="C70" t="n">
-        <v>600.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>128.0</v>
+        <v>4800.0</v>
       </c>
       <c r="B71" t="n">
-        <v>416.0</v>
+        <v>71.0</v>
       </c>
       <c r="C71" t="n">
-        <v>566.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130.0</v>
+        <v>6300.0</v>
       </c>
       <c r="B72" t="n">
-        <v>255.0</v>
+        <v>63.0</v>
       </c>
       <c r="C72" t="n">
-        <v>656.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130.0</v>
+        <v>5450.0</v>
       </c>
       <c r="B73" t="n">
-        <v>437.0</v>
+        <v>62.0</v>
       </c>
       <c r="C73" t="n">
-        <v>742.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>164.0</v>
+        <v>8350.0</v>
       </c>
       <c r="B74" t="n">
-        <v>291.0</v>
+        <v>57.0</v>
       </c>
       <c r="C74" t="n">
-        <v>629.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>125.0</v>
+        <v>5133.0</v>
       </c>
       <c r="B75" t="n">
-        <v>343.0</v>
+        <v>60.0</v>
       </c>
       <c r="C75" t="n">
-        <v>552.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>150.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B76" t="n">
-        <v>275.0</v>
+        <v>70.0</v>
       </c>
       <c r="C76" t="n">
-        <v>600.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>127.0</v>
+        <v>14300.0</v>
       </c>
       <c r="B77" t="n">
-        <v>271.0</v>
+        <v>59.0</v>
       </c>
       <c r="C77" t="n">
-        <v>583.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>108.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B78" t="n">
-        <v>340.0</v>
+        <v>60.0</v>
       </c>
       <c r="C78" t="n">
-        <v>588.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>109.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B79" t="n">
-        <v>264.0</v>
+        <v>93.0</v>
       </c>
       <c r="C79" t="n">
-        <v>713.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>124.0</v>
+        <v>4533.0</v>
       </c>
       <c r="B80" t="n">
-        <v>257.0</v>
+        <v>59.0</v>
       </c>
       <c r="C80" t="n">
-        <v>611.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>125.0</v>
+        <v>4866.0</v>
       </c>
       <c r="B81" t="n">
-        <v>309.0</v>
+        <v>58.0</v>
       </c>
       <c r="C81" t="n">
-        <v>577.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>113.0</v>
+        <v>5000.0</v>
       </c>
       <c r="B82" t="n">
-        <v>281.0</v>
+        <v>59.0</v>
       </c>
       <c r="C82" t="n">
-        <v>542.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>120.0</v>
+        <v>6600.0</v>
       </c>
       <c r="B83" t="n">
-        <v>268.0</v>
+        <v>66.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1060.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>129.0</v>
+        <v>5550.0</v>
       </c>
       <c r="B84" t="n">
-        <v>367.0</v>
+        <v>60.0</v>
       </c>
       <c r="C84" t="n">
-        <v>720.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>134.0</v>
+        <v>5333.0</v>
       </c>
       <c r="B85" t="n">
-        <v>275.0</v>
+        <v>62.0</v>
       </c>
       <c r="C85" t="n">
-        <v>547.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>170.0</v>
+        <v>5266.0</v>
       </c>
       <c r="B86" t="n">
-        <v>255.0</v>
+        <v>61.0</v>
       </c>
       <c r="C86" t="n">
-        <v>566.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>145.0</v>
+        <v>5033.0</v>
       </c>
       <c r="B87" t="n">
-        <v>362.0</v>
+        <v>64.0</v>
       </c>
       <c r="C87" t="n">
-        <v>693.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>137.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B88" t="n">
-        <v>273.0</v>
+        <v>67.0</v>
       </c>
       <c r="C88" t="n">
-        <v>650.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>145.0</v>
+        <v>145400.0</v>
       </c>
       <c r="B89" t="n">
-        <v>283.0</v>
+        <v>1391.0</v>
       </c>
       <c r="C89" t="n">
-        <v>650.0</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>127.0</v>
+        <v>7150.0</v>
       </c>
       <c r="B90" t="n">
-        <v>283.0</v>
+        <v>62.0</v>
       </c>
       <c r="C90" t="n">
-        <v>662.0</v>
+        <v>508.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>124.0</v>
+        <v>5500.0</v>
       </c>
       <c r="B91" t="n">
-        <v>305.0</v>
+        <v>87.0</v>
       </c>
       <c r="C91" t="n">
-        <v>577.0</v>
+        <v>6475.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>121.0</v>
+        <v>13800.0</v>
       </c>
       <c r="B92" t="n">
-        <v>268.0</v>
+        <v>64.0</v>
       </c>
       <c r="C92" t="n">
-        <v>713.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>117.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B93" t="n">
-        <v>264.0</v>
+        <v>61.0</v>
       </c>
       <c r="C93" t="n">
-        <v>577.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>115.0</v>
+        <v>5033.0</v>
       </c>
       <c r="B94" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C94" t="n">
         <v>351.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>617.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>161.0</v>
+        <v>4933.0</v>
       </c>
       <c r="B95" t="n">
-        <v>261.0</v>
+        <v>81.0</v>
       </c>
       <c r="C95" t="n">
-        <v>742.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>128.0</v>
+        <v>4900.0</v>
       </c>
       <c r="B96" t="n">
-        <v>261.0</v>
+        <v>60.0</v>
       </c>
       <c r="C96" t="n">
-        <v>635.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>120.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B97" t="n">
-        <v>329.0</v>
+        <v>63.0</v>
       </c>
       <c r="C97" t="n">
-        <v>535.0</v>
+        <v>835.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>127.0</v>
+        <v>5066.0</v>
       </c>
       <c r="B98" t="n">
-        <v>257.0</v>
+        <v>63.0</v>
       </c>
       <c r="C98" t="n">
-        <v>568.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>121.0</v>
+        <v>8466.0</v>
       </c>
       <c r="B99" t="n">
-        <v>283.0</v>
+        <v>345.0</v>
       </c>
       <c r="C99" t="n">
-        <v>583.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>127.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B100" t="n">
-        <v>332.0</v>
+        <v>64.0</v>
       </c>
       <c r="C100" t="n">
-        <v>577.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>113.0</v>
+        <v>5366.0</v>
       </c>
       <c r="B101" t="n">
-        <v>271.0</v>
+        <v>63.0</v>
       </c>
       <c r="C101" t="n">
-        <v>547.0</v>
+        <v>364.0</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +3943,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3952,7 +3958,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>7.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3973,1102 +3981,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38300.0</v>
+        <v>5500.0</v>
       </c>
       <c r="B2" t="n">
-        <v>286.0</v>
+        <v>127.0</v>
       </c>
       <c r="C2" t="n">
-        <v>650.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10266.0</v>
+        <v>6700.0</v>
       </c>
       <c r="B3" t="n">
-        <v>286.0</v>
+        <v>82.0</v>
       </c>
       <c r="C3" t="n">
-        <v>746.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1133.0</v>
+        <v>5550.0</v>
       </c>
       <c r="B4" t="n">
-        <v>264.0</v>
+        <v>83.0</v>
       </c>
       <c r="C4" t="n">
-        <v>643.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1312.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B5" t="n">
-        <v>214.0</v>
+        <v>79.0</v>
       </c>
       <c r="C5" t="n">
-        <v>566.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1362.0</v>
+        <v>5466.0</v>
       </c>
       <c r="B6" t="n">
-        <v>251.0</v>
+        <v>77.0</v>
       </c>
       <c r="C6" t="n">
-        <v>643.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>927.0</v>
+        <v>6650.0</v>
       </c>
       <c r="B7" t="n">
-        <v>219.0</v>
+        <v>484.0</v>
       </c>
       <c r="C7" t="n">
-        <v>637.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>954.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B8" t="n">
-        <v>212.0</v>
+        <v>358.0</v>
       </c>
       <c r="C8" t="n">
-        <v>643.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>972.0</v>
+        <v>5100.0</v>
       </c>
       <c r="B9" t="n">
-        <v>336.0</v>
+        <v>76.0</v>
       </c>
       <c r="C9" t="n">
-        <v>588.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1200.0</v>
+        <v>5650.0</v>
       </c>
       <c r="B10" t="n">
-        <v>251.0</v>
+        <v>75.0</v>
       </c>
       <c r="C10" t="n">
-        <v>757.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>990.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B11" t="n">
-        <v>208.0</v>
+        <v>82.0</v>
       </c>
       <c r="C11" t="n">
-        <v>617.0</v>
+        <v>524.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1050.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B12" t="n">
-        <v>237.0</v>
+        <v>85.0</v>
       </c>
       <c r="C12" t="n">
-        <v>883.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3433.0</v>
+        <v>6166.0</v>
       </c>
       <c r="B13" t="n">
-        <v>257.0</v>
+        <v>77.0</v>
       </c>
       <c r="C13" t="n">
-        <v>735.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1514.0</v>
+        <v>5366.0</v>
       </c>
       <c r="B14" t="n">
-        <v>223.0</v>
+        <v>82.0</v>
       </c>
       <c r="C14" t="n">
-        <v>557.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>981.0</v>
+        <v>5350.0</v>
       </c>
       <c r="B15" t="n">
-        <v>266.0</v>
+        <v>93.0</v>
       </c>
       <c r="C15" t="n">
-        <v>566.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>858.0</v>
+        <v>5350.0</v>
       </c>
       <c r="B16" t="n">
-        <v>196.0</v>
+        <v>79.0</v>
       </c>
       <c r="C16" t="n">
-        <v>742.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>972.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B17" t="n">
-        <v>242.0</v>
+        <v>85.0</v>
       </c>
       <c r="C17" t="n">
-        <v>637.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1700.0</v>
+        <v>5933.0</v>
       </c>
       <c r="B18" t="n">
-        <v>328.0</v>
+        <v>87.0</v>
       </c>
       <c r="C18" t="n">
-        <v>637.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2625.0</v>
+        <v>5750.0</v>
       </c>
       <c r="B19" t="n">
-        <v>275.0</v>
+        <v>82.0</v>
       </c>
       <c r="C19" t="n">
-        <v>858.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1816.0</v>
+        <v>6250.0</v>
       </c>
       <c r="B20" t="n">
-        <v>255.0</v>
+        <v>85.0</v>
       </c>
       <c r="C20" t="n">
-        <v>623.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1040.0</v>
+        <v>5833.0</v>
       </c>
       <c r="B21" t="n">
-        <v>245.0</v>
+        <v>73.0</v>
       </c>
       <c r="C21" t="n">
-        <v>73375.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1850.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B22" t="n">
-        <v>321.0</v>
+        <v>74.0</v>
       </c>
       <c r="C22" t="n">
-        <v>623.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1155.0</v>
+        <v>5366.0</v>
       </c>
       <c r="B23" t="n">
-        <v>261.0</v>
+        <v>71.0</v>
       </c>
       <c r="C23" t="n">
-        <v>611.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>990.0</v>
+        <v>5266.0</v>
       </c>
       <c r="B24" t="n">
-        <v>261.0</v>
+        <v>74.0</v>
       </c>
       <c r="C24" t="n">
-        <v>594.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>990.0</v>
+        <v>19800.0</v>
       </c>
       <c r="B25" t="n">
-        <v>312.0</v>
+        <v>30200.0</v>
       </c>
       <c r="C25" t="n">
-        <v>588.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>823.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B26" t="n">
-        <v>286.0</v>
+        <v>83.0</v>
       </c>
       <c r="C26" t="n">
-        <v>623.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1118.0</v>
+        <v>6100.0</v>
       </c>
       <c r="B27" t="n">
-        <v>221.0</v>
+        <v>329.0</v>
       </c>
       <c r="C27" t="n">
-        <v>583.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1018.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B28" t="n">
-        <v>239.0</v>
+        <v>208.0</v>
       </c>
       <c r="C28" t="n">
-        <v>572.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1018.0</v>
+        <v>6250.0</v>
       </c>
       <c r="B29" t="n">
-        <v>203.0</v>
+        <v>82.0</v>
       </c>
       <c r="C29" t="n">
-        <v>815.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>936.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B30" t="n">
-        <v>239.0</v>
+        <v>80.0</v>
       </c>
       <c r="C30" t="n">
-        <v>594.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1009.0</v>
+        <v>5450.0</v>
       </c>
       <c r="B31" t="n">
-        <v>321.0</v>
+        <v>82.0</v>
       </c>
       <c r="C31" t="n">
-        <v>572.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1009.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B32" t="n">
-        <v>255.0</v>
+        <v>77.0</v>
       </c>
       <c r="C32" t="n">
-        <v>583.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>945.0</v>
+        <v>6400.0</v>
       </c>
       <c r="B33" t="n">
-        <v>332.0</v>
+        <v>80.0</v>
       </c>
       <c r="C33" t="n">
-        <v>605.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1030.0</v>
+        <v>5033.0</v>
       </c>
       <c r="B34" t="n">
-        <v>234.0</v>
+        <v>75.0</v>
       </c>
       <c r="C34" t="n">
-        <v>954.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1030.0</v>
+        <v>5533.0</v>
       </c>
       <c r="B35" t="n">
-        <v>302.0</v>
+        <v>70.0</v>
       </c>
       <c r="C35" t="n">
-        <v>472.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1009.0</v>
+        <v>5100.0</v>
       </c>
       <c r="B36" t="n">
-        <v>255.0</v>
+        <v>71.0</v>
       </c>
       <c r="C36" t="n">
-        <v>504.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1070.0</v>
+        <v>5350.0</v>
       </c>
       <c r="B37" t="n">
-        <v>251.0</v>
+        <v>83.0</v>
       </c>
       <c r="C37" t="n">
-        <v>437.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1000.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B38" t="n">
-        <v>355.0</v>
+        <v>88.0</v>
       </c>
       <c r="C38" t="n">
-        <v>425.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>945.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B39" t="n">
-        <v>245.0</v>
+        <v>68.0</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1700.0</v>
+        <v>5533.0</v>
       </c>
       <c r="B40" t="n">
-        <v>260.0</v>
+        <v>82.0</v>
       </c>
       <c r="C40" t="n">
-        <v>552.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>815.0</v>
+        <v>5333.0</v>
       </c>
       <c r="B41" t="n">
-        <v>316.0</v>
+        <v>71.0</v>
       </c>
       <c r="C41" t="n">
-        <v>429.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>972.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B42" t="n">
-        <v>234.0</v>
+        <v>94.0</v>
       </c>
       <c r="C42" t="n">
-        <v>425.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>850.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B43" t="n">
-        <v>217.0</v>
+        <v>71.0</v>
       </c>
       <c r="C43" t="n">
-        <v>412.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1009.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B44" t="n">
-        <v>264.0</v>
+        <v>79.0</v>
       </c>
       <c r="C44" t="n">
-        <v>392.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>807.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B45" t="n">
-        <v>204.0</v>
+        <v>71.0</v>
       </c>
       <c r="C45" t="n">
-        <v>447.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1000.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B46" t="n">
-        <v>255.0</v>
+        <v>69.0</v>
       </c>
       <c r="C46" t="n">
-        <v>447.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1009.0</v>
+        <v>6000.0</v>
       </c>
       <c r="B47" t="n">
-        <v>300.0</v>
+        <v>82.0</v>
       </c>
       <c r="C47" t="n">
-        <v>437.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1020.0</v>
+        <v>5366.0</v>
       </c>
       <c r="B48" t="n">
-        <v>251.0</v>
+        <v>76.0</v>
       </c>
       <c r="C48" t="n">
-        <v>443.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>981.0</v>
+        <v>5866.0</v>
       </c>
       <c r="B49" t="n">
-        <v>223.0</v>
+        <v>82.0</v>
       </c>
       <c r="C49" t="n">
-        <v>490.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1000.0</v>
+        <v>5750.0</v>
       </c>
       <c r="B50" t="n">
-        <v>314.0</v>
+        <v>81.0</v>
       </c>
       <c r="C50" t="n">
-        <v>447.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1000.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B51" t="n">
-        <v>343.0</v>
+        <v>85.0</v>
       </c>
       <c r="C51" t="n">
-        <v>358.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1485.0</v>
+        <v>5100.0</v>
       </c>
       <c r="B52" t="n">
-        <v>216.0</v>
+        <v>84.0</v>
       </c>
       <c r="C52" t="n">
-        <v>460.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>981.0</v>
+        <v>5866.0</v>
       </c>
       <c r="B53" t="n">
-        <v>247.0</v>
+        <v>87.0</v>
       </c>
       <c r="C53" t="n">
-        <v>447.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>823.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B54" t="n">
-        <v>271.0</v>
+        <v>80.0</v>
       </c>
       <c r="C54" t="n">
-        <v>412.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>742.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B55" t="n">
-        <v>252.0</v>
+        <v>77.0</v>
       </c>
       <c r="C55" t="n">
-        <v>408.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1457.0</v>
+        <v>7250.0</v>
       </c>
       <c r="B56" t="n">
-        <v>302.0</v>
+        <v>103.0</v>
       </c>
       <c r="C56" t="n">
-        <v>477.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2583.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B57" t="n">
-        <v>536.0</v>
+        <v>80.0</v>
       </c>
       <c r="C57" t="n">
-        <v>800.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>954.0</v>
+        <v>5566.0</v>
       </c>
       <c r="B58" t="n">
-        <v>255.0</v>
+        <v>76.0</v>
       </c>
       <c r="C58" t="n">
-        <v>650.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1177.0</v>
+        <v>5033.0</v>
       </c>
       <c r="B59" t="n">
-        <v>245.0</v>
+        <v>73.0</v>
       </c>
       <c r="C59" t="n">
-        <v>2950.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1009.0</v>
+        <v>4566.0</v>
       </c>
       <c r="B60" t="n">
-        <v>255.0</v>
+        <v>75.0</v>
       </c>
       <c r="C60" t="n">
-        <v>456.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>954.0</v>
+        <v>22000.0</v>
       </c>
       <c r="B61" t="n">
-        <v>329.0</v>
+        <v>99.0</v>
       </c>
       <c r="C61" t="n">
-        <v>468.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>891.0</v>
+        <v>14700.0</v>
       </c>
       <c r="B62" t="n">
-        <v>221.0</v>
+        <v>76.0</v>
       </c>
       <c r="C62" t="n">
-        <v>447.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>972.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B63" t="n">
-        <v>210.0</v>
+        <v>117.0</v>
       </c>
       <c r="C63" t="n">
-        <v>437.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1018.0</v>
+        <v>5033.0</v>
       </c>
       <c r="B64" t="n">
-        <v>471.0</v>
+        <v>77.0</v>
       </c>
       <c r="C64" t="n">
-        <v>425.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>883.0</v>
+        <v>5366.0</v>
       </c>
       <c r="B65" t="n">
-        <v>219.0</v>
+        <v>80.0</v>
       </c>
       <c r="C65" t="n">
-        <v>452.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>963.0</v>
+        <v>4366.0</v>
       </c>
       <c r="B66" t="n">
-        <v>228.0</v>
+        <v>90.0</v>
       </c>
       <c r="C66" t="n">
-        <v>472.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1318.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B67" t="n">
-        <v>294.0</v>
+        <v>76.0</v>
       </c>
       <c r="C67" t="n">
-        <v>408.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1144.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B68" t="n">
-        <v>257.0</v>
+        <v>77.0</v>
       </c>
       <c r="C68" t="n">
-        <v>515.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>963.0</v>
+        <v>5466.0</v>
       </c>
       <c r="B69" t="n">
-        <v>242.0</v>
+        <v>81.0</v>
       </c>
       <c r="C69" t="n">
-        <v>519.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>750.0</v>
+        <v>11400.0</v>
       </c>
       <c r="B70" t="n">
-        <v>278.0</v>
+        <v>84.0</v>
       </c>
       <c r="C70" t="n">
-        <v>510.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1020.0</v>
+        <v>4300.0</v>
       </c>
       <c r="B71" t="n">
-        <v>260.0</v>
+        <v>68.0</v>
       </c>
       <c r="C71" t="n">
-        <v>460.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1000.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B72" t="n">
-        <v>223.0</v>
+        <v>97.0</v>
       </c>
       <c r="C72" t="n">
-        <v>463.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1000.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B73" t="n">
-        <v>343.0</v>
+        <v>79.0</v>
       </c>
       <c r="C73" t="n">
-        <v>600.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>990.0</v>
+        <v>5166.0</v>
       </c>
       <c r="B74" t="n">
-        <v>245.0</v>
+        <v>77.0</v>
       </c>
       <c r="C74" t="n">
-        <v>385.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1200.0</v>
+        <v>5066.0</v>
       </c>
       <c r="B75" t="n">
-        <v>219.0</v>
+        <v>76.0</v>
       </c>
       <c r="C75" t="n">
-        <v>433.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>757.0</v>
+        <v>4966.0</v>
       </c>
       <c r="B76" t="n">
-        <v>284.0</v>
+        <v>76.0</v>
       </c>
       <c r="C76" t="n">
-        <v>456.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>735.0</v>
+        <v>5233.0</v>
       </c>
       <c r="B77" t="n">
-        <v>237.0</v>
+        <v>80.0</v>
       </c>
       <c r="C77" t="n">
-        <v>547.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1000.0</v>
+        <v>4966.0</v>
       </c>
       <c r="B78" t="n">
-        <v>275.0</v>
+        <v>316.0</v>
       </c>
       <c r="C78" t="n">
-        <v>504.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>875.0</v>
+        <v>5000.0</v>
       </c>
       <c r="B79" t="n">
-        <v>273.0</v>
+        <v>80.0</v>
       </c>
       <c r="C79" t="n">
-        <v>447.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>858.0</v>
+        <v>7700.0</v>
       </c>
       <c r="B80" t="n">
-        <v>278.0</v>
+        <v>96.0</v>
       </c>
       <c r="C80" t="n">
-        <v>408.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>800.0</v>
+        <v>7650.0</v>
       </c>
       <c r="B81" t="n">
-        <v>242.0</v>
+        <v>88.0</v>
       </c>
       <c r="C81" t="n">
-        <v>425.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>858.0</v>
+        <v>6350.0</v>
       </c>
       <c r="B82" t="n">
-        <v>237.0</v>
+        <v>82.0</v>
       </c>
       <c r="C82" t="n">
-        <v>377.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>742.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B83" t="n">
-        <v>305.0</v>
+        <v>80.0</v>
       </c>
       <c r="C83" t="n">
-        <v>437.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>807.0</v>
+        <v>5266.0</v>
       </c>
       <c r="B84" t="n">
-        <v>264.0</v>
+        <v>78.0</v>
       </c>
       <c r="C84" t="n">
-        <v>412.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1060.0</v>
+        <v>6433.0</v>
       </c>
       <c r="B85" t="n">
-        <v>257.0</v>
+        <v>77.0</v>
       </c>
       <c r="C85" t="n">
-        <v>420.0</v>
+        <v>1975.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>792.0</v>
+        <v>5250.0</v>
       </c>
       <c r="B86" t="n">
-        <v>291.0</v>
+        <v>80.0</v>
       </c>
       <c r="C86" t="n">
-        <v>520.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>830.0</v>
+        <v>11433.0</v>
       </c>
       <c r="B87" t="n">
-        <v>264.0</v>
+        <v>77.0</v>
       </c>
       <c r="C87" t="n">
-        <v>447.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>908.0</v>
+        <v>5633.0</v>
       </c>
       <c r="B88" t="n">
-        <v>271.0</v>
+        <v>82.0</v>
       </c>
       <c r="C88" t="n">
-        <v>443.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>927.0</v>
+        <v>20300.0</v>
       </c>
       <c r="B89" t="n">
-        <v>271.0</v>
+        <v>100.0</v>
       </c>
       <c r="C89" t="n">
-        <v>429.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>866.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B90" t="n">
-        <v>351.0</v>
+        <v>87.0</v>
       </c>
       <c r="C90" t="n">
-        <v>481.0</v>
+        <v>1047.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>891.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B91" t="n">
-        <v>248.0</v>
+        <v>84.0</v>
       </c>
       <c r="C91" t="n">
-        <v>447.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>850.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B92" t="n">
-        <v>261.0</v>
+        <v>80.0</v>
       </c>
       <c r="C92" t="n">
-        <v>420.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1275.0</v>
+        <v>20600.0</v>
       </c>
       <c r="B93" t="n">
-        <v>315.0</v>
+        <v>123.0</v>
       </c>
       <c r="C93" t="n">
-        <v>424.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3183.0</v>
+        <v>25000.0</v>
       </c>
       <c r="B94" t="n">
-        <v>228.0</v>
+        <v>107.0</v>
       </c>
       <c r="C94" t="n">
-        <v>396.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2166.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B95" t="n">
-        <v>210.0</v>
+        <v>73.0</v>
       </c>
       <c r="C95" t="n">
-        <v>490.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1166.0</v>
+        <v>5366.0</v>
       </c>
       <c r="B96" t="n">
-        <v>309.0</v>
+        <v>87.0</v>
       </c>
       <c r="C96" t="n">
-        <v>416.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>807.0</v>
+        <v>5850.0</v>
       </c>
       <c r="B97" t="n">
-        <v>261.0</v>
+        <v>361.0</v>
       </c>
       <c r="C97" t="n">
-        <v>447.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1040.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B98" t="n">
-        <v>242.0</v>
+        <v>70.0</v>
       </c>
       <c r="C98" t="n">
-        <v>443.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>954.0</v>
+        <v>4700.0</v>
       </c>
       <c r="B99" t="n">
-        <v>257.0</v>
+        <v>77.0</v>
       </c>
       <c r="C99" t="n">
-        <v>460.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1800.0</v>
+        <v>5833.0</v>
       </c>
       <c r="B100" t="n">
-        <v>343.0</v>
+        <v>72.0</v>
       </c>
       <c r="C100" t="n">
-        <v>441.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>858.0</v>
+        <v>10800.0</v>
       </c>
       <c r="B101" t="n">
-        <v>223.0</v>
+        <v>77.0</v>
       </c>
       <c r="C101" t="n">
-        <v>447.0</v>
+        <v>143.0</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5092,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5099,7 +5107,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5120,1102 +5130,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>172.0</v>
+        <v>1563.0</v>
       </c>
       <c r="B2" t="n">
-        <v>21400.0</v>
+        <v>73400.0</v>
       </c>
       <c r="C2" t="n">
-        <v>530.0</v>
+        <v>10500.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>134.0</v>
+        <v>75.0</v>
       </c>
       <c r="B3" t="n">
-        <v>412.0</v>
+        <v>1716.0</v>
       </c>
       <c r="C3" t="n">
-        <v>459.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>125.0</v>
+        <v>152.0</v>
       </c>
       <c r="B4" t="n">
-        <v>185.0</v>
+        <v>2120.0</v>
       </c>
       <c r="C4" t="n">
-        <v>437.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112.0</v>
+        <v>122.0</v>
       </c>
       <c r="B5" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="C5" t="n">
         <v>309.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>637.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
       <c r="B6" t="n">
-        <v>182.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C6" t="n">
-        <v>452.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105.0</v>
+        <v>127.0</v>
       </c>
       <c r="B7" t="n">
-        <v>194.0</v>
+        <v>12900.0</v>
       </c>
       <c r="C7" t="n">
-        <v>400.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106.0</v>
+        <v>109.0</v>
       </c>
       <c r="B8" t="n">
-        <v>182.0</v>
+        <v>228.0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112.0</v>
+        <v>152.0</v>
       </c>
       <c r="B9" t="n">
-        <v>189.0</v>
+        <v>485.0</v>
       </c>
       <c r="C9" t="n">
-        <v>433.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106.0</v>
+        <v>65.0</v>
       </c>
       <c r="B10" t="n">
-        <v>170.0</v>
+        <v>136.0</v>
       </c>
       <c r="C10" t="n">
-        <v>381.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96.0</v>
+        <v>65.0</v>
       </c>
       <c r="B11" t="n">
-        <v>210.0</v>
+        <v>154.0</v>
       </c>
       <c r="C11" t="n">
-        <v>472.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>97.0</v>
+        <v>62.0</v>
       </c>
       <c r="B12" t="n">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
       <c r="C12" t="n">
-        <v>536.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="C13" t="n">
         <v>139.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>472.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108.0</v>
+        <v>63.0</v>
       </c>
       <c r="B14" t="n">
-        <v>208.0</v>
+        <v>153.0</v>
       </c>
       <c r="C14" t="n">
-        <v>447.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106.0</v>
+        <v>63.0</v>
       </c>
       <c r="B15" t="n">
-        <v>192.0</v>
+        <v>156.0</v>
       </c>
       <c r="C15" t="n">
-        <v>371.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>120.0</v>
+        <v>155.0</v>
       </c>
       <c r="B16" t="n">
-        <v>192.0</v>
+        <v>226.0</v>
       </c>
       <c r="C16" t="n">
-        <v>388.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>129.0</v>
+        <v>90.0</v>
       </c>
       <c r="B17" t="n">
-        <v>204.0</v>
+        <v>248.0</v>
       </c>
       <c r="C17" t="n">
-        <v>416.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="B18" t="n">
-        <v>204.0</v>
+        <v>245.0</v>
       </c>
       <c r="C18" t="n">
-        <v>433.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>97.0</v>
+        <v>122.0</v>
       </c>
       <c r="B19" t="n">
-        <v>204.0</v>
+        <v>198.0</v>
       </c>
       <c r="C19" t="n">
-        <v>460.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="B20" t="n">
-        <v>192.0</v>
+        <v>2483.0</v>
       </c>
       <c r="C20" t="n">
-        <v>416.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="B21" t="n">
-        <v>187.0</v>
+        <v>221.0</v>
       </c>
       <c r="C21" t="n">
-        <v>547.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>97.0</v>
+        <v>136.0</v>
       </c>
       <c r="B22" t="n">
-        <v>194.0</v>
+        <v>300.0</v>
       </c>
       <c r="C22" t="n">
-        <v>396.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>196.0</v>
+        <v>64.0</v>
       </c>
       <c r="B23" t="n">
-        <v>170.0</v>
+        <v>158.0</v>
       </c>
       <c r="C23" t="n">
-        <v>408.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>160.0</v>
+        <v>64.0</v>
       </c>
       <c r="B24" t="n">
-        <v>210.0</v>
+        <v>147.0</v>
       </c>
       <c r="C24" t="n">
-        <v>490.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106.0</v>
+        <v>100.0</v>
       </c>
       <c r="B25" t="n">
-        <v>221.0</v>
+        <v>136.0</v>
       </c>
       <c r="C25" t="n">
-        <v>433.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107.0</v>
+        <v>75.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1951.0</v>
+        <v>145.0</v>
       </c>
       <c r="C26" t="n">
-        <v>510.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>91.0</v>
+        <v>63.0</v>
       </c>
       <c r="B27" t="n">
-        <v>167.0</v>
+        <v>153.0</v>
       </c>
       <c r="C27" t="n">
-        <v>367.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103.0</v>
+        <v>63.0</v>
       </c>
       <c r="B28" t="n">
-        <v>242.0</v>
+        <v>132.0</v>
       </c>
       <c r="C28" t="n">
-        <v>381.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>128.0</v>
+        <v>63.0</v>
       </c>
       <c r="B29" t="n">
-        <v>208.0</v>
+        <v>248.0</v>
       </c>
       <c r="C29" t="n">
-        <v>485.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>95.0</v>
+        <v>150.0</v>
       </c>
       <c r="B30" t="n">
-        <v>170.0</v>
+        <v>329.0</v>
       </c>
       <c r="C30" t="n">
-        <v>617.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>96.0</v>
+        <v>68.0</v>
       </c>
       <c r="B31" t="n">
-        <v>196.0</v>
+        <v>143.0</v>
       </c>
       <c r="C31" t="n">
-        <v>443.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>98.0</v>
+        <v>63.0</v>
       </c>
       <c r="B32" t="n">
-        <v>198.0</v>
+        <v>150.0</v>
       </c>
       <c r="C32" t="n">
-        <v>392.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104.0</v>
+        <v>71.0</v>
       </c>
       <c r="B33" t="n">
-        <v>171.0</v>
+        <v>135.0</v>
       </c>
       <c r="C33" t="n">
-        <v>472.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>115.0</v>
+        <v>68.0</v>
       </c>
       <c r="B34" t="n">
-        <v>223.0</v>
+        <v>328.0</v>
       </c>
       <c r="C34" t="n">
-        <v>381.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>136.0</v>
+        <v>231.0</v>
       </c>
       <c r="B35" t="n">
-        <v>187.0</v>
+        <v>221.0</v>
       </c>
       <c r="C35" t="n">
-        <v>420.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>95.0</v>
+        <v>145.0</v>
       </c>
       <c r="B36" t="n">
-        <v>188.0</v>
+        <v>271.0</v>
       </c>
       <c r="C36" t="n">
-        <v>392.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107.0</v>
+        <v>66.0</v>
       </c>
       <c r="B37" t="n">
-        <v>196.0</v>
+        <v>183.0</v>
       </c>
       <c r="C37" t="n">
-        <v>1275.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100.0</v>
+        <v>64.0</v>
       </c>
       <c r="B38" t="n">
-        <v>214.0</v>
+        <v>170.0</v>
       </c>
       <c r="C38" t="n">
-        <v>472.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>106.0</v>
+        <v>64.0</v>
       </c>
       <c r="B39" t="n">
-        <v>212.0</v>
+        <v>133.0</v>
       </c>
       <c r="C39" t="n">
-        <v>542.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>100.0</v>
+        <v>65.0</v>
       </c>
       <c r="B40" t="n">
-        <v>204.0</v>
+        <v>172.0</v>
       </c>
       <c r="C40" t="n">
-        <v>447.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>96.0</v>
+        <v>86.0</v>
       </c>
       <c r="B41" t="n">
-        <v>151.0</v>
+        <v>149.0</v>
       </c>
       <c r="C41" t="n">
-        <v>351.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102.0</v>
+        <v>204.0</v>
       </c>
       <c r="B42" t="n">
-        <v>210.0</v>
+        <v>278.0</v>
       </c>
       <c r="C42" t="n">
-        <v>447.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>114.0</v>
+        <v>66.0</v>
       </c>
       <c r="B43" t="n">
-        <v>226.0</v>
+        <v>164.0</v>
       </c>
       <c r="C43" t="n">
-        <v>468.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>127.0</v>
+        <v>65.0</v>
       </c>
       <c r="B44" t="n">
-        <v>226.0</v>
+        <v>133.0</v>
       </c>
       <c r="C44" t="n">
-        <v>525.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>103.0</v>
+        <v>67.0</v>
       </c>
       <c r="B45" t="n">
-        <v>188.0</v>
+        <v>175.0</v>
       </c>
       <c r="C45" t="n">
-        <v>452.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>167.0</v>
+        <v>65.0</v>
       </c>
       <c r="B46" t="n">
-        <v>208.0</v>
+        <v>164.0</v>
       </c>
       <c r="C46" t="n">
-        <v>463.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>103.0</v>
+        <v>66.0</v>
       </c>
       <c r="B47" t="n">
-        <v>194.0</v>
+        <v>136.0</v>
       </c>
       <c r="C47" t="n">
-        <v>452.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="B48" t="n">
-        <v>196.0</v>
+        <v>567.0</v>
       </c>
       <c r="C48" t="n">
-        <v>525.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="B49" t="n">
-        <v>192.0</v>
+        <v>134.0</v>
       </c>
       <c r="C49" t="n">
-        <v>437.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>102.0</v>
+        <v>68.0</v>
       </c>
       <c r="B50" t="n">
-        <v>200.0</v>
+        <v>147.0</v>
       </c>
       <c r="C50" t="n">
-        <v>456.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>98.0</v>
+        <v>65.0</v>
       </c>
       <c r="B51" t="n">
-        <v>198.0</v>
+        <v>150.0</v>
       </c>
       <c r="C51" t="n">
-        <v>412.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>407.0</v>
+        <v>64.0</v>
       </c>
       <c r="B52" t="n">
-        <v>183.0</v>
+        <v>135.0</v>
       </c>
       <c r="C52" t="n">
-        <v>16000.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>107.0</v>
+        <v>64.0</v>
       </c>
       <c r="B53" t="n">
-        <v>208.0</v>
+        <v>150.0</v>
       </c>
       <c r="C53" t="n">
-        <v>443.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>107.0</v>
+        <v>752.0</v>
       </c>
       <c r="B54" t="n">
-        <v>204.0</v>
+        <v>214.0</v>
       </c>
       <c r="C54" t="n">
-        <v>264.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>99.0</v>
+        <v>112.0</v>
       </c>
       <c r="B55" t="n">
-        <v>210.0</v>
+        <v>321.0</v>
       </c>
       <c r="C55" t="n">
-        <v>253.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>125.0</v>
+        <v>95.0</v>
       </c>
       <c r="B56" t="n">
-        <v>196.0</v>
+        <v>226.0</v>
       </c>
       <c r="C56" t="n">
-        <v>257.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
       <c r="B57" t="n">
-        <v>206.0</v>
+        <v>174.0</v>
       </c>
       <c r="C57" t="n">
-        <v>257.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>103.0</v>
+        <v>79.0</v>
       </c>
       <c r="B58" t="n">
-        <v>355.0</v>
+        <v>148.0</v>
       </c>
       <c r="C58" t="n">
-        <v>251.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>102.0</v>
+        <v>63.0</v>
       </c>
       <c r="B59" t="n">
-        <v>198.0</v>
+        <v>136.0</v>
       </c>
       <c r="C59" t="n">
-        <v>208.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>99.0</v>
+        <v>127.0</v>
       </c>
       <c r="B60" t="n">
-        <v>204.0</v>
+        <v>261.0</v>
       </c>
       <c r="C60" t="n">
-        <v>251.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108.0</v>
+        <v>117.0</v>
       </c>
       <c r="B61" t="n">
-        <v>217.0</v>
+        <v>337.0</v>
       </c>
       <c r="C61" t="n">
-        <v>268.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>103.0</v>
+        <v>62.0</v>
       </c>
       <c r="B62" t="n">
-        <v>214.0</v>
+        <v>177.0</v>
       </c>
       <c r="C62" t="n">
-        <v>260.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>97.0</v>
+        <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>214.0</v>
+        <v>136.0</v>
       </c>
       <c r="C63" t="n">
-        <v>251.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>103.0</v>
+        <v>61.0</v>
       </c>
       <c r="B64" t="n">
-        <v>217.0</v>
+        <v>167.0</v>
       </c>
       <c r="C64" t="n">
-        <v>275.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106.0</v>
+        <v>243.0</v>
       </c>
       <c r="B65" t="n">
-        <v>208.0</v>
+        <v>162.0</v>
       </c>
       <c r="C65" t="n">
-        <v>255.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108.0</v>
+        <v>107.0</v>
       </c>
       <c r="B66" t="n">
-        <v>239.0</v>
+        <v>261.0</v>
       </c>
       <c r="C66" t="n">
-        <v>288.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>519.0</v>
+        <v>85.0</v>
       </c>
       <c r="B67" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="C67" t="n">
-        <v>264.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>106.0</v>
+        <v>91.0</v>
       </c>
       <c r="B68" t="n">
-        <v>221.0</v>
+        <v>364.0</v>
       </c>
       <c r="C68" t="n">
-        <v>275.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>109.0</v>
+        <v>82.0</v>
       </c>
       <c r="B69" t="n">
-        <v>219.0</v>
+        <v>237.0</v>
       </c>
       <c r="C69" t="n">
-        <v>275.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>109.0</v>
+        <v>121.0</v>
       </c>
       <c r="B70" t="n">
-        <v>340.0</v>
+        <v>242.0</v>
       </c>
       <c r="C70" t="n">
-        <v>273.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>108.0</v>
+        <v>99.0</v>
       </c>
       <c r="B71" t="n">
-        <v>190.0</v>
+        <v>408.0</v>
       </c>
       <c r="C71" t="n">
-        <v>253.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>115.0</v>
+        <v>63.0</v>
       </c>
       <c r="B72" t="n">
-        <v>210.0</v>
+        <v>167.0</v>
       </c>
       <c r="C72" t="n">
-        <v>255.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>83.0</v>
+        <v>93.0</v>
       </c>
       <c r="B73" t="n">
-        <v>204.0</v>
+        <v>291.0</v>
       </c>
       <c r="C73" t="n">
-        <v>261.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>107.0</v>
+        <v>100.0</v>
       </c>
       <c r="B74" t="n">
-        <v>214.0</v>
+        <v>228.0</v>
       </c>
       <c r="C74" t="n">
-        <v>281.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>113.0</v>
+        <v>217.0</v>
       </c>
       <c r="B75" t="n">
-        <v>200.0</v>
+        <v>277.0</v>
       </c>
       <c r="C75" t="n">
-        <v>190.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>103.0</v>
+        <v>91.0</v>
       </c>
       <c r="B76" t="n">
-        <v>208.0</v>
+        <v>226.0</v>
       </c>
       <c r="C76" t="n">
-        <v>247.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>96.0</v>
+        <v>110.0</v>
       </c>
       <c r="B77" t="n">
-        <v>190.0</v>
+        <v>241.0</v>
       </c>
       <c r="C77" t="n">
-        <v>248.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>117.0</v>
+        <v>98.0</v>
       </c>
       <c r="B78" t="n">
-        <v>185.0</v>
+        <v>367.0</v>
       </c>
       <c r="C78" t="n">
-        <v>239.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>98.0</v>
+        <v>90.0</v>
       </c>
       <c r="B79" t="n">
-        <v>316.0</v>
+        <v>219.0</v>
       </c>
       <c r="C79" t="n">
-        <v>219.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132.0</v>
+        <v>118.0</v>
       </c>
       <c r="B80" t="n">
-        <v>204.0</v>
+        <v>242.0</v>
       </c>
       <c r="C80" t="n">
-        <v>261.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>475.0</v>
+        <v>63.0</v>
       </c>
       <c r="B81" t="n">
-        <v>355.0</v>
+        <v>134.0</v>
       </c>
       <c r="C81" t="n">
-        <v>275.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>115.0</v>
+        <v>62.0</v>
       </c>
       <c r="B82" t="n">
-        <v>257.0</v>
+        <v>175.0</v>
       </c>
       <c r="C82" t="n">
-        <v>318.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>117.0</v>
+        <v>108.0</v>
       </c>
       <c r="B83" t="n">
-        <v>286.0</v>
+        <v>245.0</v>
       </c>
       <c r="C83" t="n">
-        <v>264.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>100.0</v>
+        <v>179.0</v>
       </c>
       <c r="B84" t="n">
-        <v>163.0</v>
+        <v>375.0</v>
       </c>
       <c r="C84" t="n">
-        <v>237.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.0</v>
+        <v>63.0</v>
       </c>
       <c r="B85" t="n">
-        <v>187.0</v>
+        <v>134.0</v>
       </c>
       <c r="C85" t="n">
-        <v>237.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>106.0</v>
+        <v>61.0</v>
       </c>
       <c r="B86" t="n">
-        <v>196.0</v>
+        <v>156.0</v>
       </c>
       <c r="C86" t="n">
-        <v>255.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>104.0</v>
+        <v>211.0</v>
       </c>
       <c r="B87" t="n">
-        <v>210.0</v>
+        <v>152.0</v>
       </c>
       <c r="C87" t="n">
-        <v>273.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>109.0</v>
+        <v>60.0</v>
       </c>
       <c r="B88" t="n">
-        <v>178.0</v>
+        <v>133.0</v>
       </c>
       <c r="C88" t="n">
-        <v>237.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>103.0</v>
+        <v>60.0</v>
       </c>
       <c r="B89" t="n">
-        <v>183.0</v>
+        <v>152.0</v>
       </c>
       <c r="C89" t="n">
-        <v>255.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>156.0</v>
+        <v>346.0</v>
       </c>
       <c r="B90" t="n">
-        <v>166.0</v>
+        <v>237.0</v>
       </c>
       <c r="C90" t="n">
-        <v>247.0</v>
+        <v>741.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="B91" t="n">
-        <v>174.0</v>
+        <v>396.0</v>
       </c>
       <c r="C91" t="n">
-        <v>216.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>108.0</v>
+        <v>124.0</v>
       </c>
       <c r="B92" t="n">
-        <v>196.0</v>
+        <v>17400.0</v>
       </c>
       <c r="C92" t="n">
-        <v>255.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>188.0</v>
+        <v>100.0</v>
       </c>
       <c r="B93" t="n">
-        <v>208.0</v>
+        <v>226.0</v>
       </c>
       <c r="C93" t="n">
-        <v>255.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>108.0</v>
+        <v>85.0</v>
       </c>
       <c r="B94" t="n">
-        <v>201.0</v>
+        <v>277.0</v>
       </c>
       <c r="C94" t="n">
-        <v>268.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>107.0</v>
+        <v>91.0</v>
       </c>
       <c r="B95" t="n">
-        <v>198.0</v>
+        <v>208.0</v>
       </c>
       <c r="C95" t="n">
-        <v>253.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>106.0</v>
+        <v>95.0</v>
       </c>
       <c r="B96" t="n">
-        <v>200.0</v>
+        <v>208.0</v>
       </c>
       <c r="C96" t="n">
-        <v>248.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>105.0</v>
+        <v>63.0</v>
       </c>
       <c r="B97" t="n">
-        <v>196.0</v>
+        <v>152.0</v>
       </c>
       <c r="C97" t="n">
-        <v>248.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102.0</v>
+        <v>62.0</v>
       </c>
       <c r="B98" t="n">
-        <v>212.0</v>
+        <v>152.0</v>
       </c>
       <c r="C98" t="n">
-        <v>228.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102.0</v>
+        <v>134.0</v>
       </c>
       <c r="B99" t="n">
-        <v>185.0</v>
+        <v>14000.0</v>
       </c>
       <c r="C99" t="n">
-        <v>245.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="B100" t="n">
-        <v>239.0</v>
+        <v>572.0</v>
       </c>
       <c r="C100" t="n">
-        <v>321.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>204.0</v>
+        <v>161.0</v>
       </c>
       <c r="B101" t="n">
-        <v>183.0</v>
+        <v>217.0</v>
       </c>
       <c r="C101" t="n">
-        <v>234.0</v>
+        <v>268.0</v>
       </c>
     </row>
   </sheetData>

--- a/Time_10.xlsx
+++ b/Time_10.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\ASD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E193A2-B1DF-4420-9B81-236461203729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1452F2E-E07C-4D4A-AE2E-BC3AD4C27572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="9" sheetId="1" r:id="rId1"/>
-    <sheet name="8" sheetId="2" r:id="rId2"/>
-    <sheet name="5" sheetId="3" r:id="rId3"/>
-    <sheet name="6" sheetId="4" r:id="rId4"/>
-    <sheet name="7" sheetId="5" r:id="rId5"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="n" sheetId="2" r:id="rId2"/>
+    <sheet name="n mezzi" sheetId="3" r:id="rId3"/>
+    <sheet name="log n" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'9'!$A$1:$A$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$1:$A$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Heap</t>
   </si>
@@ -484,9 +483,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -519,1105 +518,1105 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23200.0</v>
+        <v>1031200.0</v>
       </c>
       <c r="B2" t="n">
-        <v>414400.0</v>
+        <v>499500.0</v>
       </c>
       <c r="C2" t="n">
-        <v>362800.0</v>
+        <v>512000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11999.0</v>
+        <v>16200.0</v>
       </c>
       <c r="B3" t="n">
-        <v>12300.0</v>
+        <v>6500.0</v>
       </c>
       <c r="C3" t="n">
-        <v>10300.0</v>
+        <v>7650.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14100.0</v>
+        <v>17800.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4166.0</v>
+        <v>5350.0</v>
       </c>
       <c r="C4" t="n">
-        <v>11099.0</v>
+        <v>7550.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13400.0</v>
+        <v>18700.0</v>
       </c>
       <c r="B5" t="n">
-        <v>6150.0</v>
+        <v>5550.0</v>
       </c>
       <c r="C5" t="n">
-        <v>8150.0</v>
+        <v>11000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10300.0</v>
+        <v>18500.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2574.0</v>
+        <v>5150.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5700.0</v>
+        <v>7500.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13499.0</v>
+        <v>57700.0</v>
       </c>
       <c r="B7" t="n">
-        <v>13100.0</v>
+        <v>2975.0</v>
       </c>
       <c r="C7" t="n">
-        <v>7850.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12101.0</v>
+        <v>26500.0</v>
       </c>
       <c r="B8" t="n">
-        <v>4200.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8500.0</v>
+        <v>32500.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11500.0</v>
+        <v>18400.0</v>
       </c>
       <c r="B9" t="n">
-        <v>5300.0</v>
+        <v>5366.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7600.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14600.0</v>
+        <v>22700.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4400.0</v>
+        <v>5200.0</v>
       </c>
       <c r="C10" t="n">
-        <v>7850.0</v>
+        <v>6700.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12300.0</v>
+        <v>18000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3900.0</v>
+        <v>5650.0</v>
       </c>
       <c r="C11" t="n">
-        <v>15900.0</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8150.0</v>
+        <v>18100.0</v>
       </c>
       <c r="B12" t="n">
-        <v>5900.0</v>
+        <v>6850.0</v>
       </c>
       <c r="C12" t="n">
-        <v>7750.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7700.0</v>
+        <v>18600.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4367.0</v>
+        <v>5250.0</v>
       </c>
       <c r="C13" t="n">
-        <v>10200.0</v>
+        <v>6750.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10500.0</v>
+        <v>20700.0</v>
       </c>
       <c r="B14" t="n">
-        <v>4400.0</v>
+        <v>13600.0</v>
       </c>
       <c r="C14" t="n">
-        <v>6050.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8400.0</v>
+        <v>17300.0</v>
       </c>
       <c r="B15" t="n">
-        <v>6200.0</v>
+        <v>5600.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6600.0</v>
+        <v>14600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8450.0</v>
+        <v>21500.0</v>
       </c>
       <c r="B16" t="n">
-        <v>4400.0</v>
+        <v>13900.0</v>
       </c>
       <c r="C16" t="n">
-        <v>5850.0</v>
+        <v>7200.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7750.0</v>
+        <v>18200.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4433.0</v>
+        <v>4366.0</v>
       </c>
       <c r="C17" t="n">
-        <v>6600.0</v>
+        <v>6450.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11400.0</v>
+        <v>15500.0</v>
       </c>
       <c r="B18" t="n">
-        <v>3966.0</v>
+        <v>4533.0</v>
       </c>
       <c r="C18" t="n">
-        <v>6950.0</v>
+        <v>6200.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27201.0</v>
+        <v>25300.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3533.0</v>
+        <v>4133.0</v>
       </c>
       <c r="C19" t="n">
-        <v>6250.0</v>
+        <v>7100.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11201.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B20" t="n">
-        <v>4599.0</v>
+        <v>15000.0</v>
       </c>
       <c r="C20" t="n">
-        <v>6099.0</v>
+        <v>6250.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9150.0</v>
+        <v>24100.0</v>
       </c>
       <c r="B21" t="n">
-        <v>5600.0</v>
+        <v>1585.0</v>
       </c>
       <c r="C21" t="n">
-        <v>6199.0</v>
+        <v>10200.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13700.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B22" t="n">
-        <v>13700.0</v>
+        <v>472.0</v>
       </c>
       <c r="C22" t="n">
-        <v>9749.0</v>
+        <v>11250.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13200.0</v>
+        <v>14500.0</v>
       </c>
       <c r="B23" t="n">
-        <v>13900.0</v>
+        <v>800.0</v>
       </c>
       <c r="C23" t="n">
-        <v>13401.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11800.0</v>
+        <v>16900.0</v>
       </c>
       <c r="B24" t="n">
-        <v>10899.0</v>
+        <v>1144.0</v>
       </c>
       <c r="C24" t="n">
-        <v>9500.0</v>
+        <v>6700.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11401.0</v>
+        <v>18600.0</v>
       </c>
       <c r="B25" t="n">
-        <v>2599.0</v>
+        <v>875.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3933.0</v>
+        <v>6900.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11800.0</v>
+        <v>19000.0</v>
       </c>
       <c r="B26" t="n">
-        <v>3966.0</v>
+        <v>1110.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8000.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11999.0</v>
+        <v>30900.0</v>
       </c>
       <c r="B27" t="n">
-        <v>4433.0</v>
+        <v>792.0</v>
       </c>
       <c r="C27" t="n">
-        <v>6550.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10299.0</v>
+        <v>16300.0</v>
       </c>
       <c r="B28" t="n">
-        <v>11700.0</v>
+        <v>1060.0</v>
       </c>
       <c r="C28" t="n">
-        <v>7550.0</v>
+        <v>4233.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11801.0</v>
+        <v>16000.0</v>
       </c>
       <c r="B29" t="n">
-        <v>5050.0</v>
+        <v>1627.0</v>
       </c>
       <c r="C29" t="n">
-        <v>6300.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11299.0</v>
+        <v>16900.0</v>
       </c>
       <c r="B30" t="n">
-        <v>5250.0</v>
+        <v>858.0</v>
       </c>
       <c r="C30" t="n">
-        <v>11000.0</v>
+        <v>14600.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11101.0</v>
+        <v>18100.0</v>
       </c>
       <c r="B31" t="n">
-        <v>14300.0</v>
+        <v>981.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6650.0</v>
+        <v>5850.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10999.0</v>
+        <v>15800.0</v>
       </c>
       <c r="B32" t="n">
-        <v>31800.0</v>
+        <v>875.0</v>
       </c>
       <c r="C32" t="n">
-        <v>12900.0</v>
+        <v>30200.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13200.0</v>
+        <v>15500.0</v>
       </c>
       <c r="B33" t="n">
-        <v>5600.0</v>
+        <v>807.0</v>
       </c>
       <c r="C33" t="n">
-        <v>6350.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10300.0</v>
+        <v>19200.0</v>
       </c>
       <c r="B34" t="n">
-        <v>9600.0</v>
+        <v>757.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6950.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13600.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B35" t="n">
-        <v>4400.0</v>
+        <v>963.0</v>
       </c>
       <c r="C35" t="n">
-        <v>5749.0</v>
+        <v>5650.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11199.0</v>
+        <v>17700.0</v>
       </c>
       <c r="B36" t="n">
-        <v>67199.0</v>
+        <v>925.0</v>
       </c>
       <c r="C36" t="n">
-        <v>20601.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11100.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3833.0</v>
+        <v>735.0</v>
       </c>
       <c r="C37" t="n">
-        <v>5700.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12200.0</v>
+        <v>16200.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3500.0</v>
+        <v>1102855.0</v>
       </c>
       <c r="C38" t="n">
-        <v>5350.0</v>
+        <v>6150.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27299.0</v>
+        <v>15700.0</v>
       </c>
       <c r="B39" t="n">
-        <v>8650.0</v>
+        <v>650.0</v>
       </c>
       <c r="C39" t="n">
-        <v>11600.0</v>
+        <v>4133.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13700.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B40" t="n">
-        <v>26700.0</v>
+        <v>605.0</v>
       </c>
       <c r="C40" t="n">
-        <v>7050.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11800.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B41" t="n">
-        <v>3700.0</v>
+        <v>611.0</v>
       </c>
       <c r="C41" t="n">
-        <v>5150.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11900.0</v>
+        <v>15100.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1966.0</v>
+        <v>850.0</v>
       </c>
       <c r="C42" t="n">
-        <v>6100.0</v>
+        <v>5150.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10800.0</v>
+        <v>14600.0</v>
       </c>
       <c r="B43" t="n">
-        <v>858.0</v>
+        <v>954.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4200.0</v>
+        <v>2625.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11200.0</v>
+        <v>15400.0</v>
       </c>
       <c r="B44" t="n">
-        <v>807.0</v>
+        <v>2042.0</v>
       </c>
       <c r="C44" t="n">
-        <v>15100.0</v>
+        <v>4033.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12501.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B45" t="n">
-        <v>605.0</v>
+        <v>742.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5350.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11100.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B46" t="n">
-        <v>720.0</v>
+        <v>735.0</v>
       </c>
       <c r="C46" t="n">
-        <v>19801.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15200.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B47" t="n">
-        <v>764.0</v>
+        <v>742.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2300.0</v>
+        <v>16550.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16300.0</v>
+        <v>24900.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1030.0</v>
+        <v>838.0</v>
       </c>
       <c r="C48" t="n">
-        <v>10500.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11200.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2526200.0</v>
+        <v>1080.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1350.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>13000.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="C50" t="n">
         <v>17700.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1177.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2574.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11700.0</v>
+        <v>15700.0</v>
       </c>
       <c r="B51" t="n">
-        <v>561.0</v>
+        <v>728.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1833.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11500.0</v>
+        <v>13500.0</v>
       </c>
       <c r="B52" t="n">
-        <v>713.0</v>
+        <v>945.0</v>
       </c>
       <c r="C52" t="n">
-        <v>2120.0</v>
+        <v>2280.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12101.0</v>
+        <v>35800.0</v>
       </c>
       <c r="B53" t="n">
-        <v>588.0</v>
+        <v>750.0</v>
       </c>
       <c r="C53" t="n">
-        <v>2080.0</v>
+        <v>1816.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6800.0</v>
+        <v>11600.0</v>
       </c>
       <c r="B54" t="n">
-        <v>485.0</v>
+        <v>726.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1189.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9199.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B55" t="n">
-        <v>891.0</v>
+        <v>850.0</v>
       </c>
       <c r="C55" t="n">
-        <v>3500.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12400.0</v>
+        <v>12600.0</v>
       </c>
       <c r="B56" t="n">
-        <v>849.0</v>
+        <v>643.0</v>
       </c>
       <c r="C56" t="n">
-        <v>2200.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>23300.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B57" t="n">
-        <v>706.0</v>
+        <v>815.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3566.0</v>
+        <v>48300.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11600.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B58" t="n">
-        <v>1080.0</v>
+        <v>617.0</v>
       </c>
       <c r="C58" t="n">
-        <v>2120.0</v>
+        <v>77333.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10699.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B59" t="n">
-        <v>858.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C59" t="n">
-        <v>6150.0</v>
+        <v>1933.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7250.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B60" t="n">
-        <v>536.0</v>
+        <v>757.0</v>
       </c>
       <c r="C60" t="n">
-        <v>2740.0</v>
+        <v>1933.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10500.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B61" t="n">
-        <v>719.0</v>
+        <v>680.0</v>
       </c>
       <c r="C61" t="n">
-        <v>2039.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12000.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B62" t="n">
-        <v>742.0</v>
+        <v>1040.0</v>
       </c>
       <c r="C62" t="n">
-        <v>2180.0</v>
+        <v>2120.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>13101.0</v>
+        <v>10800.0</v>
       </c>
       <c r="B63" t="n">
-        <v>662.0</v>
+        <v>800.0</v>
       </c>
       <c r="C63" t="n">
-        <v>1039.0</v>
+        <v>2575.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14800.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B64" t="n">
-        <v>650.0</v>
+        <v>629.0</v>
       </c>
       <c r="C64" t="n">
-        <v>1188.0</v>
+        <v>2440.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11699.0</v>
+        <v>7700.0</v>
       </c>
       <c r="B65" t="n">
-        <v>963.0</v>
+        <v>605.0</v>
       </c>
       <c r="C65" t="n">
-        <v>1275.0</v>
+        <v>1750.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12199.0</v>
+        <v>7800.0</v>
       </c>
       <c r="B66" t="n">
-        <v>650.0</v>
+        <v>1147.0</v>
       </c>
       <c r="C66" t="n">
-        <v>927.0</v>
+        <v>1733.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13500.0</v>
+        <v>7450.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6580.0</v>
+        <v>594.0</v>
       </c>
       <c r="C67" t="n">
-        <v>1144.0</v>
+        <v>1750.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15400.0</v>
+        <v>7500.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1045.0</v>
+        <v>588.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1211.0</v>
+        <v>1957.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14900.0</v>
+        <v>7850.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1020.0</v>
+        <v>583.0</v>
       </c>
       <c r="C69" t="n">
-        <v>1528.0</v>
+        <v>1657.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12301.0</v>
+        <v>7650.0</v>
       </c>
       <c r="B70" t="n">
-        <v>699.0</v>
+        <v>605.0</v>
       </c>
       <c r="C70" t="n">
-        <v>1040.0</v>
+        <v>1614.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12200.0</v>
+        <v>13800.0</v>
       </c>
       <c r="B71" t="n">
-        <v>650.0</v>
+        <v>680.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1177.0</v>
+        <v>3766.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7850.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B72" t="n">
-        <v>623.0</v>
+        <v>757.0</v>
       </c>
       <c r="C72" t="n">
-        <v>954.0</v>
+        <v>2625.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11700.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B73" t="n">
-        <v>721.0</v>
+        <v>945.0</v>
       </c>
       <c r="C73" t="n">
-        <v>1089.0</v>
+        <v>1933.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10999.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B74" t="n">
-        <v>700.0</v>
+        <v>1350.0</v>
       </c>
       <c r="C74" t="n">
-        <v>1177.0</v>
+        <v>2120.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7600.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B75" t="n">
-        <v>623.0</v>
+        <v>815.0</v>
       </c>
       <c r="C75" t="n">
-        <v>900.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10700.0</v>
+        <v>11900.0</v>
       </c>
       <c r="B76" t="n">
-        <v>792.0</v>
+        <v>706.0</v>
       </c>
       <c r="C76" t="n">
-        <v>1542.0</v>
+        <v>2220.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11400.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1645.0</v>
+        <v>680.0</v>
       </c>
       <c r="C77" t="n">
-        <v>954.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10899.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B78" t="n">
-        <v>706.0</v>
+        <v>456.0</v>
       </c>
       <c r="C78" t="n">
-        <v>849.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11100.0</v>
+        <v>3633.0</v>
       </c>
       <c r="B79" t="n">
-        <v>629.0</v>
+        <v>520.0</v>
       </c>
       <c r="C79" t="n">
-        <v>936.0</v>
+        <v>509.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10500.0</v>
+        <v>5100.0</v>
       </c>
       <c r="B80" t="n">
-        <v>819.0</v>
+        <v>823.0</v>
       </c>
       <c r="C80" t="n">
-        <v>1030.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7750.0</v>
+        <v>3500.0</v>
       </c>
       <c r="B81" t="n">
-        <v>693.0</v>
+        <v>433.0</v>
       </c>
       <c r="C81" t="n">
-        <v>1133.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>12499.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B82" t="n">
-        <v>784.0</v>
+        <v>945.0</v>
       </c>
       <c r="C82" t="n">
-        <v>1424.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>12899.0</v>
+        <v>7200.0</v>
       </c>
       <c r="B83" t="n">
-        <v>728.0</v>
+        <v>883.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1040.0</v>
+        <v>963.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13800.0</v>
+        <v>7650.0</v>
       </c>
       <c r="B84" t="n">
-        <v>850.0</v>
+        <v>742.0</v>
       </c>
       <c r="C84" t="n">
-        <v>1166.0</v>
+        <v>1244.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16800.0</v>
+        <v>7850.0</v>
       </c>
       <c r="B85" t="n">
-        <v>764.0</v>
+        <v>12700.0</v>
       </c>
       <c r="C85" t="n">
-        <v>1275.0</v>
+        <v>981.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11399.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B86" t="n">
-        <v>899.0</v>
+        <v>392.0</v>
       </c>
       <c r="C86" t="n">
-        <v>1020.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7650.0</v>
+        <v>7150.0</v>
       </c>
       <c r="B87" t="n">
-        <v>693.0</v>
+        <v>329.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1039.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11400.0</v>
+        <v>12200.0</v>
       </c>
       <c r="B88" t="n">
-        <v>566.0</v>
+        <v>325.0</v>
       </c>
       <c r="C88" t="n">
-        <v>883.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>12000.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B89" t="n">
-        <v>784.0</v>
+        <v>318.0</v>
       </c>
       <c r="C89" t="n">
-        <v>954.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5950.0</v>
+        <v>5400.0</v>
       </c>
       <c r="B90" t="n">
-        <v>168.0</v>
+        <v>247.0</v>
       </c>
       <c r="C90" t="n">
-        <v>504.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5649.0</v>
+        <v>3633.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2200.0</v>
+        <v>268.0</v>
       </c>
       <c r="C91" t="n">
-        <v>1019.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11401.0</v>
+        <v>2950.0</v>
       </c>
       <c r="B92" t="n">
-        <v>343.0</v>
+        <v>366.0</v>
       </c>
       <c r="C92" t="n">
-        <v>981.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10501.0</v>
+        <v>3566.0</v>
       </c>
       <c r="B93" t="n">
-        <v>291.0</v>
+        <v>214.0</v>
       </c>
       <c r="C93" t="n">
-        <v>1155.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6299.0</v>
+        <v>3533.0</v>
       </c>
       <c r="B94" t="n">
-        <v>415.0</v>
+        <v>206.0</v>
       </c>
       <c r="C94" t="n">
-        <v>815.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>11700.0</v>
+        <v>2975.0</v>
       </c>
       <c r="B95" t="n">
-        <v>305.0</v>
+        <v>226.0</v>
       </c>
       <c r="C95" t="n">
-        <v>1166.0</v>
+        <v>533.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6800.0</v>
+        <v>4000.0</v>
       </c>
       <c r="B96" t="n">
-        <v>362.0</v>
+        <v>206.0</v>
       </c>
       <c r="C96" t="n">
-        <v>1079.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6999.0</v>
+        <v>16100.0</v>
       </c>
       <c r="B97" t="n">
-        <v>504.0</v>
+        <v>468.0</v>
       </c>
       <c r="C97" t="n">
-        <v>850.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6099.0</v>
+        <v>6250.0</v>
       </c>
       <c r="B98" t="n">
-        <v>331.0</v>
+        <v>321.0</v>
       </c>
       <c r="C98" t="n">
-        <v>617.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>12000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="B99" t="n">
-        <v>273.0</v>
+        <v>318.0</v>
       </c>
       <c r="C99" t="n">
-        <v>1133.0</v>
+        <v>693.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>18599.0</v>
+        <v>6050.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1277.0</v>
+        <v>385.0</v>
       </c>
       <c r="C100" t="n">
-        <v>875.0</v>
+        <v>706.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6150.0</v>
+        <v>6200.0</v>
       </c>
       <c r="B101" t="n">
-        <v>373.0</v>
+        <v>321.0</v>
       </c>
       <c r="C101" t="n">
-        <v>927.0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>686.0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>425300</v>
       </c>
@@ -1648,9 +1647,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1683,1102 +1682,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25201.0</v>
+        <v>36500.0</v>
       </c>
       <c r="B2" t="n">
-        <v>286.0</v>
+        <v>124.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1571.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12801.0</v>
+        <v>19200.0</v>
       </c>
       <c r="B3" t="n">
-        <v>237.0</v>
+        <v>118.0</v>
       </c>
       <c r="C3" t="n">
-        <v>900.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12400.0</v>
+        <v>19000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>246.0</v>
+        <v>162.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1059.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40299.0</v>
+        <v>17500.0</v>
       </c>
       <c r="B5" t="n">
-        <v>275.0</v>
+        <v>117.0</v>
       </c>
       <c r="C5" t="n">
-        <v>849.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11699.0</v>
+        <v>26000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>242.0</v>
+        <v>119.0</v>
       </c>
       <c r="C6" t="n">
-        <v>838.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38800.0</v>
+        <v>27600.0</v>
       </c>
       <c r="B7" t="n">
-        <v>217.0</v>
+        <v>117.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1080.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14500.0</v>
+        <v>21700.0</v>
       </c>
       <c r="B8" t="n">
-        <v>228.0</v>
+        <v>143.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1050.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18600.0</v>
+        <v>32000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>309.0</v>
+        <v>161.0</v>
       </c>
       <c r="C9" t="n">
-        <v>900.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6100.0</v>
+        <v>29800.0</v>
       </c>
       <c r="B10" t="n">
-        <v>237.0</v>
+        <v>160.0</v>
       </c>
       <c r="C10" t="n">
-        <v>990.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6900.0</v>
+        <v>20100.0</v>
       </c>
       <c r="B11" t="n">
-        <v>261.0</v>
+        <v>107.0</v>
       </c>
       <c r="C11" t="n">
-        <v>972.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10900.0</v>
+        <v>17900.0</v>
       </c>
       <c r="B12" t="n">
-        <v>214.0</v>
+        <v>108.0</v>
       </c>
       <c r="C12" t="n">
-        <v>981.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10200.0</v>
+        <v>16800.0</v>
       </c>
       <c r="B13" t="n">
-        <v>251.0</v>
+        <v>107.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1054.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6500.0</v>
+        <v>16800.0</v>
       </c>
       <c r="B14" t="n">
-        <v>271.0</v>
+        <v>106.0</v>
       </c>
       <c r="C14" t="n">
-        <v>777.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>48600.0</v>
+        <v>17400.0</v>
       </c>
       <c r="B15" t="n">
-        <v>283.0</v>
+        <v>106.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1222.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10601.0</v>
+        <v>20600.0</v>
       </c>
       <c r="B16" t="n">
-        <v>260.0</v>
+        <v>106.0</v>
       </c>
       <c r="C16" t="n">
-        <v>954.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6750.0</v>
+        <v>18100.0</v>
       </c>
       <c r="B17" t="n">
-        <v>231.0</v>
+        <v>106.0</v>
       </c>
       <c r="C17" t="n">
-        <v>720.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10800.0</v>
+        <v>17100.0</v>
       </c>
       <c r="B18" t="n">
-        <v>236.0</v>
+        <v>106.0</v>
       </c>
       <c r="C18" t="n">
-        <v>936.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5700.0</v>
+        <v>20300.0</v>
       </c>
       <c r="B19" t="n">
-        <v>228.0</v>
+        <v>105.0</v>
       </c>
       <c r="C19" t="n">
-        <v>807.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4400.0</v>
+        <v>16400.0</v>
       </c>
       <c r="B20" t="n">
-        <v>204.0</v>
+        <v>106.0</v>
       </c>
       <c r="C20" t="n">
-        <v>5800.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6300.0</v>
+        <v>16700.0</v>
       </c>
       <c r="B21" t="n">
-        <v>275.0</v>
+        <v>139.0</v>
       </c>
       <c r="C21" t="n">
-        <v>874.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10199.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B22" t="n">
-        <v>217.0</v>
+        <v>106.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1942.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28100.0</v>
+        <v>17900.0</v>
       </c>
       <c r="B23" t="n">
-        <v>5099.0</v>
+        <v>107.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1040.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11900.0</v>
+        <v>18100.0</v>
       </c>
       <c r="B24" t="n">
-        <v>198.0</v>
+        <v>106.0</v>
       </c>
       <c r="C24" t="n">
-        <v>927.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6450.0</v>
+        <v>16100.0</v>
       </c>
       <c r="B25" t="n">
-        <v>208.0</v>
+        <v>109.0</v>
       </c>
       <c r="C25" t="n">
-        <v>830.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7400.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B26" t="n">
-        <v>185.0</v>
+        <v>105.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1222.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6100.0</v>
+        <v>17400.0</v>
       </c>
       <c r="B27" t="n">
-        <v>265.0</v>
+        <v>105.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1019.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6250.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B28" t="n">
-        <v>196.0</v>
+        <v>107.0</v>
       </c>
       <c r="C28" t="n">
-        <v>945.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6600.0</v>
+        <v>20200.0</v>
       </c>
       <c r="B29" t="n">
-        <v>198.0</v>
+        <v>104.0</v>
       </c>
       <c r="C29" t="n">
-        <v>12799.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6400.0</v>
+        <v>22300.0</v>
       </c>
       <c r="B30" t="n">
-        <v>190.0</v>
+        <v>103.0</v>
       </c>
       <c r="C30" t="n">
-        <v>700.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6400.0</v>
+        <v>17600.0</v>
       </c>
       <c r="B31" t="n">
-        <v>194.0</v>
+        <v>103.0</v>
       </c>
       <c r="C31" t="n">
-        <v>693.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5800.0</v>
+        <v>17800.0</v>
       </c>
       <c r="B32" t="n">
-        <v>192.0</v>
+        <v>171.0</v>
       </c>
       <c r="C32" t="n">
-        <v>740.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10101.0</v>
+        <v>18300.0</v>
       </c>
       <c r="B33" t="n">
-        <v>216.0</v>
+        <v>118.0</v>
       </c>
       <c r="C33" t="n">
-        <v>849.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7300.0</v>
+        <v>16600.0</v>
       </c>
       <c r="B34" t="n">
-        <v>219.0</v>
+        <v>114.0</v>
       </c>
       <c r="C34" t="n">
-        <v>784.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7150.0</v>
+        <v>16600.0</v>
       </c>
       <c r="B35" t="n">
-        <v>185.0</v>
+        <v>112.0</v>
       </c>
       <c r="C35" t="n">
-        <v>749.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13500.0</v>
+        <v>35800.0</v>
       </c>
       <c r="B36" t="n">
-        <v>194.0</v>
+        <v>113.0</v>
       </c>
       <c r="C36" t="n">
-        <v>908.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10200.0</v>
+        <v>17800.0</v>
       </c>
       <c r="B37" t="n">
-        <v>231.0</v>
+        <v>109.0</v>
       </c>
       <c r="C37" t="n">
-        <v>858.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10200.0</v>
+        <v>23900.0</v>
       </c>
       <c r="B38" t="n">
-        <v>206.0</v>
+        <v>152.0</v>
       </c>
       <c r="C38" t="n">
-        <v>637.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6600.0</v>
+        <v>22700.0</v>
       </c>
       <c r="B39" t="n">
-        <v>172.0</v>
+        <v>151.0</v>
       </c>
       <c r="C39" t="n">
-        <v>680.0</v>
+        <v>743.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7900.0</v>
+        <v>17600.0</v>
       </c>
       <c r="B40" t="n">
-        <v>202.0</v>
+        <v>107.0</v>
       </c>
       <c r="C40" t="n">
-        <v>742.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5900.0</v>
+        <v>16900.0</v>
       </c>
       <c r="B41" t="n">
-        <v>194.0</v>
+        <v>109.0</v>
       </c>
       <c r="C41" t="n">
-        <v>700.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6300.0</v>
+        <v>16800.0</v>
       </c>
       <c r="B42" t="n">
-        <v>203.0</v>
+        <v>109.0</v>
       </c>
       <c r="C42" t="n">
-        <v>700.0</v>
+        <v>721.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6450.0</v>
+        <v>34600.0</v>
       </c>
       <c r="B43" t="n">
-        <v>190.0</v>
+        <v>117.0</v>
       </c>
       <c r="C43" t="n">
-        <v>706.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10299.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B44" t="n">
-        <v>206.0</v>
+        <v>151.0</v>
       </c>
       <c r="C44" t="n">
-        <v>908.0</v>
+        <v>424.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5899.0</v>
+        <v>11900.0</v>
       </c>
       <c r="B45" t="n">
-        <v>194.0</v>
+        <v>115.0</v>
       </c>
       <c r="C45" t="n">
-        <v>883.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>34501.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B46" t="n">
-        <v>219.0</v>
+        <v>113.0</v>
       </c>
       <c r="C46" t="n">
-        <v>858.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6750.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B47" t="n">
-        <v>291.0</v>
+        <v>119.0</v>
       </c>
       <c r="C47" t="n">
-        <v>784.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6149.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B48" t="n">
-        <v>192.0</v>
+        <v>113.0</v>
       </c>
       <c r="C48" t="n">
-        <v>883.0</v>
+        <v>424.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5800.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B49" t="n">
-        <v>261.0</v>
+        <v>114.0</v>
       </c>
       <c r="C49" t="n">
-        <v>668.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5900.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B50" t="n">
-        <v>117.0</v>
+        <v>113.0</v>
       </c>
       <c r="C50" t="n">
-        <v>679.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5749.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B51" t="n">
-        <v>108.0</v>
+        <v>117.0</v>
       </c>
       <c r="C51" t="n">
-        <v>668.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5900.0</v>
+        <v>26400.0</v>
       </c>
       <c r="B52" t="n">
-        <v>195.0</v>
+        <v>118.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1125.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6700.0</v>
+        <v>7900.0</v>
       </c>
       <c r="B53" t="n">
-        <v>118.0</v>
+        <v>117.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1166.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6600.0</v>
+        <v>7900.0</v>
       </c>
       <c r="B54" t="n">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="C54" t="n">
-        <v>706.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6950.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B55" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="C55" t="n">
-        <v>866.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6600.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B56" t="n">
-        <v>110.0</v>
+        <v>194.0</v>
       </c>
       <c r="C56" t="n">
-        <v>792.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6550.0</v>
+        <v>11600.0</v>
       </c>
       <c r="B57" t="n">
-        <v>117.0</v>
+        <v>127.0</v>
       </c>
       <c r="C57" t="n">
-        <v>757.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6700.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B58" t="n">
-        <v>114.0</v>
+        <v>98.0</v>
       </c>
       <c r="C58" t="n">
-        <v>728.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6150.0</v>
+        <v>11600.0</v>
       </c>
       <c r="B59" t="n">
-        <v>121.0</v>
+        <v>537.0</v>
       </c>
       <c r="C59" t="n">
-        <v>700.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11201.0</v>
+        <v>10800.0</v>
       </c>
       <c r="B60" t="n">
-        <v>113.0</v>
+        <v>46.0</v>
       </c>
       <c r="C60" t="n">
-        <v>589.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11599.0</v>
+        <v>7800.0</v>
       </c>
       <c r="B61" t="n">
-        <v>74.0</v>
+        <v>45.0</v>
       </c>
       <c r="C61" t="n">
-        <v>536.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4033.0</v>
+        <v>7850.0</v>
       </c>
       <c r="B62" t="n">
-        <v>70.0</v>
+        <v>44.0</v>
       </c>
       <c r="C62" t="n">
-        <v>2899.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6000.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B63" t="n">
-        <v>141.0</v>
+        <v>45.0</v>
       </c>
       <c r="C63" t="n">
-        <v>388.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10999.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B64" t="n">
-        <v>114.0</v>
+        <v>44.0</v>
       </c>
       <c r="C64" t="n">
-        <v>807.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8250.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B65" t="n">
-        <v>115.0</v>
+        <v>45.0</v>
       </c>
       <c r="C65" t="n">
-        <v>771.0</v>
+        <v>666.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10199.0</v>
+        <v>18400.0</v>
       </c>
       <c r="B66" t="n">
-        <v>113.0</v>
+        <v>45.0</v>
       </c>
       <c r="C66" t="n">
-        <v>972.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7250.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B67" t="n">
-        <v>109.0</v>
+        <v>45.0</v>
       </c>
       <c r="C67" t="n">
-        <v>757.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6550.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B68" t="n">
-        <v>117.0</v>
+        <v>44.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1628.0</v>
+        <v>747.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6550.0</v>
+        <v>14800.0</v>
       </c>
       <c r="B69" t="n">
-        <v>113.0</v>
+        <v>48.0</v>
       </c>
       <c r="C69" t="n">
-        <v>686.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10500.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B70" t="n">
-        <v>117.0</v>
+        <v>43.0</v>
       </c>
       <c r="C70" t="n">
-        <v>838.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7600.0</v>
+        <v>37400.0</v>
       </c>
       <c r="B71" t="n">
-        <v>109.0</v>
+        <v>74.0</v>
       </c>
       <c r="C71" t="n">
-        <v>693.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16100.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B72" t="n">
-        <v>100.0</v>
+        <v>46.0</v>
       </c>
       <c r="C72" t="n">
-        <v>823.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11999.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B73" t="n">
-        <v>119.0</v>
+        <v>45.0</v>
       </c>
       <c r="C73" t="n">
-        <v>706.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6050.0</v>
+        <v>11600.0</v>
       </c>
       <c r="B74" t="n">
-        <v>108.0</v>
+        <v>44.0</v>
       </c>
       <c r="C74" t="n">
-        <v>693.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6150.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B75" t="n">
-        <v>115.0</v>
+        <v>43.0</v>
       </c>
       <c r="C75" t="n">
-        <v>662.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5850.0</v>
+        <v>7050.0</v>
       </c>
       <c r="B76" t="n">
-        <v>117.0</v>
+        <v>43.0</v>
       </c>
       <c r="C76" t="n">
-        <v>682.0</v>
+        <v>6350.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6100.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B77" t="n">
-        <v>114.0</v>
+        <v>43.0</v>
       </c>
       <c r="C77" t="n">
-        <v>680.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6649.0</v>
+        <v>6500.0</v>
       </c>
       <c r="B78" t="n">
-        <v>115.0</v>
+        <v>43.0</v>
       </c>
       <c r="C78" t="n">
-        <v>800.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11200.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B79" t="n">
-        <v>115.0</v>
+        <v>44.0</v>
       </c>
       <c r="C79" t="n">
-        <v>784.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7650.0</v>
+        <v>6000.0</v>
       </c>
       <c r="B80" t="n">
-        <v>120.0</v>
+        <v>43.0</v>
       </c>
       <c r="C80" t="n">
-        <v>784.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6950.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B81" t="n">
-        <v>117.0</v>
+        <v>43.0</v>
       </c>
       <c r="C81" t="n">
-        <v>1070.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6050.0</v>
+        <v>6000.0</v>
       </c>
       <c r="B82" t="n">
-        <v>113.0</v>
+        <v>44.0</v>
       </c>
       <c r="C82" t="n">
-        <v>1059.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7750.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B83" t="n">
-        <v>150.0</v>
+        <v>43.0</v>
       </c>
       <c r="C83" t="n">
-        <v>891.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6100.0</v>
+        <v>6150.0</v>
       </c>
       <c r="B84" t="n">
-        <v>114.0</v>
+        <v>43.0</v>
       </c>
       <c r="C84" t="n">
-        <v>728.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>32100.0</v>
+        <v>6200.0</v>
       </c>
       <c r="B85" t="n">
-        <v>98.0</v>
+        <v>43.0</v>
       </c>
       <c r="C85" t="n">
-        <v>3399.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6550.0</v>
+        <v>5900.0</v>
       </c>
       <c r="B86" t="n">
-        <v>100.0</v>
+        <v>43.0</v>
       </c>
       <c r="C86" t="n">
-        <v>750.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>11000.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B87" t="n">
-        <v>132.0</v>
+        <v>46.0</v>
       </c>
       <c r="C87" t="n">
-        <v>2049.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6600.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B88" t="n">
-        <v>105.0</v>
+        <v>47.0</v>
       </c>
       <c r="C88" t="n">
-        <v>757.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10199.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B89" t="n">
-        <v>121.0</v>
+        <v>43.0</v>
       </c>
       <c r="C89" t="n">
-        <v>662.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5299.0</v>
+        <v>6600.0</v>
       </c>
       <c r="B90" t="n">
-        <v>92.0</v>
+        <v>43.0</v>
       </c>
       <c r="C90" t="n">
-        <v>536.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5900.0</v>
+        <v>6250.0</v>
       </c>
       <c r="B91" t="n">
-        <v>98.0</v>
+        <v>43.0</v>
       </c>
       <c r="C91" t="n">
-        <v>927.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6099.0</v>
+        <v>6250.0</v>
       </c>
       <c r="B92" t="n">
-        <v>110.0</v>
+        <v>43.0</v>
       </c>
       <c r="C92" t="n">
-        <v>868.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6900.0</v>
+        <v>12200.0</v>
       </c>
       <c r="B93" t="n">
-        <v>118.0</v>
+        <v>44.0</v>
       </c>
       <c r="C93" t="n">
-        <v>792.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11900.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B94" t="n">
-        <v>129.0</v>
+        <v>44.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1030.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6600.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B95" t="n">
-        <v>107.0</v>
+        <v>73.0</v>
       </c>
       <c r="C95" t="n">
-        <v>699.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6250.0</v>
+        <v>14600.0</v>
       </c>
       <c r="B96" t="n">
-        <v>117.0</v>
+        <v>45.0</v>
       </c>
       <c r="C96" t="n">
-        <v>764.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6850.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B97" t="n">
-        <v>122.0</v>
+        <v>47.0</v>
       </c>
       <c r="C97" t="n">
-        <v>1030.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7950.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B98" t="n">
-        <v>115.0</v>
+        <v>50.0</v>
       </c>
       <c r="C98" t="n">
-        <v>713.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6800.0</v>
+        <v>18100.0</v>
       </c>
       <c r="B99" t="n">
-        <v>115.0</v>
+        <v>51.0</v>
       </c>
       <c r="C99" t="n">
-        <v>792.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6150.0</v>
+        <v>7200.0</v>
       </c>
       <c r="B100" t="n">
-        <v>100.0</v>
+        <v>51.0</v>
       </c>
       <c r="C100" t="n">
-        <v>668.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5650.0</v>
+        <v>6100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>118.0</v>
+        <v>43.0</v>
       </c>
       <c r="C101" t="n">
-        <v>784.0</v>
+        <v>340.0</v>
       </c>
     </row>
   </sheetData>
@@ -2797,9 +2796,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2832,54 +2831,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13100.0</v>
+        <v>46300.0</v>
       </c>
       <c r="B2" t="n">
-        <v>60.0</v>
+        <v>170.0</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8750.0</v>
+        <v>25500.0</v>
       </c>
       <c r="B3" t="n">
-        <v>130.0</v>
+        <v>96.0</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3933.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B4" t="n">
-        <v>67.0</v>
+        <v>93.0</v>
       </c>
       <c r="C4" t="n">
-        <v>519.0</v>
+        <v>424.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4133.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B5" t="n">
-        <v>107.0</v>
+        <v>92.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1457.0</v>
+        <v>3666.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4133.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>65.0</v>
+        <v>92.0</v>
       </c>
       <c r="C6" t="n">
         <v>456.0</v>
@@ -2887,626 +2886,626 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4199.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B7" t="n">
-        <v>66.0</v>
+        <v>92.0</v>
       </c>
       <c r="C7" t="n">
-        <v>452.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4166.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B8" t="n">
-        <v>62.0</v>
+        <v>91.0</v>
       </c>
       <c r="C8" t="n">
-        <v>486.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4066.0</v>
+        <v>13800.0</v>
       </c>
       <c r="B9" t="n">
-        <v>62.0</v>
+        <v>94.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1036.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5249.0</v>
+        <v>14300.0</v>
       </c>
       <c r="B10" t="n">
-        <v>61.0</v>
+        <v>91.0</v>
       </c>
       <c r="C10" t="n">
-        <v>542.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3000.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B11" t="n">
-        <v>56.0</v>
+        <v>91.0</v>
       </c>
       <c r="C11" t="n">
-        <v>381.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4166.0</v>
+        <v>13500.0</v>
       </c>
       <c r="B12" t="n">
-        <v>56.0</v>
+        <v>93.0</v>
       </c>
       <c r="C12" t="n">
-        <v>600.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3666.0</v>
+        <v>18200.0</v>
       </c>
       <c r="B13" t="n">
-        <v>61.0</v>
+        <v>91.0</v>
       </c>
       <c r="C13" t="n">
-        <v>408.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2925.0</v>
+        <v>34800.0</v>
       </c>
       <c r="B14" t="n">
-        <v>56.0</v>
+        <v>94.0</v>
       </c>
       <c r="C14" t="n">
-        <v>360.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5550.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B15" t="n">
-        <v>59.0</v>
+        <v>98.0</v>
       </c>
       <c r="C15" t="n">
-        <v>346.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1542.0</v>
+        <v>17000.0</v>
       </c>
       <c r="B16" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="C16" t="n">
-        <v>240.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5750.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B17" t="n">
-        <v>62.0</v>
+        <v>172.0</v>
       </c>
       <c r="C17" t="n">
-        <v>456.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4400.0</v>
+        <v>14200.0</v>
       </c>
       <c r="B18" t="n">
-        <v>64.0</v>
+        <v>92.0</v>
       </c>
       <c r="C18" t="n">
-        <v>468.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4100.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B19" t="n">
-        <v>62.0</v>
+        <v>93.0</v>
       </c>
       <c r="C19" t="n">
-        <v>495.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4166.0</v>
+        <v>14500.0</v>
       </c>
       <c r="B20" t="n">
-        <v>65.0</v>
+        <v>92.0</v>
       </c>
       <c r="C20" t="n">
-        <v>490.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3800.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B21" t="n">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
       <c r="C21" t="n">
-        <v>743.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5166.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B22" t="n">
-        <v>66.0</v>
+        <v>91.0</v>
       </c>
       <c r="C22" t="n">
-        <v>504.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5549.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B23" t="n">
-        <v>79.0</v>
+        <v>91.0</v>
       </c>
       <c r="C23" t="n">
-        <v>495.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4233.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B24" t="n">
-        <v>67.0</v>
+        <v>92.0</v>
       </c>
       <c r="C24" t="n">
-        <v>673.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4400.0</v>
+        <v>18100.0</v>
       </c>
       <c r="B25" t="n">
-        <v>65.0</v>
+        <v>91.0</v>
       </c>
       <c r="C25" t="n">
-        <v>481.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3833.0</v>
+        <v>13400.0</v>
       </c>
       <c r="B26" t="n">
-        <v>74.0</v>
+        <v>93.0</v>
       </c>
       <c r="C26" t="n">
-        <v>515.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4233.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B27" t="n">
-        <v>68.0</v>
+        <v>93.0</v>
       </c>
       <c r="C27" t="n">
-        <v>807.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3766.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B28" t="n">
-        <v>64.0</v>
+        <v>91.0</v>
       </c>
       <c r="C28" t="n">
-        <v>443.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3933.0</v>
+        <v>15000.0</v>
       </c>
       <c r="B29" t="n">
-        <v>65.0</v>
+        <v>93.0</v>
       </c>
       <c r="C29" t="n">
-        <v>643.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3666.0</v>
+        <v>16700.0</v>
       </c>
       <c r="B30" t="n">
-        <v>61.0</v>
+        <v>92.0</v>
       </c>
       <c r="C30" t="n">
-        <v>429.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6250.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B31" t="n">
-        <v>59.0</v>
+        <v>98.0</v>
       </c>
       <c r="C31" t="n">
-        <v>933.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5899.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B32" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="C32" t="n">
-        <v>515.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4300.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B33" t="n">
-        <v>64.0</v>
+        <v>94.0</v>
       </c>
       <c r="C33" t="n">
-        <v>463.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5333.0</v>
+        <v>16600.0</v>
       </c>
       <c r="B34" t="n">
-        <v>62.0</v>
+        <v>95.0</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6000.0</v>
+        <v>16900.0</v>
       </c>
       <c r="B35" t="n">
-        <v>63.0</v>
+        <v>93.0</v>
       </c>
       <c r="C35" t="n">
-        <v>459.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4000.0</v>
+        <v>14400.0</v>
       </c>
       <c r="B36" t="n">
-        <v>65.0</v>
+        <v>92.0</v>
       </c>
       <c r="C36" t="n">
-        <v>600.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4200.0</v>
+        <v>12900.0</v>
       </c>
       <c r="B37" t="n">
-        <v>61.0</v>
+        <v>92.0</v>
       </c>
       <c r="C37" t="n">
-        <v>433.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2824.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B38" t="n">
-        <v>68.0</v>
+        <v>91.0</v>
       </c>
       <c r="C38" t="n">
-        <v>358.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2975.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B39" t="n">
-        <v>59.0</v>
+        <v>91.0</v>
       </c>
       <c r="C39" t="n">
-        <v>477.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2775.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B40" t="n">
-        <v>55.0</v>
+        <v>92.0</v>
       </c>
       <c r="C40" t="n">
-        <v>451.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17499.0</v>
+        <v>12600.0</v>
       </c>
       <c r="B41" t="n">
-        <v>53.0</v>
+        <v>93.0</v>
       </c>
       <c r="C41" t="n">
-        <v>355.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3666.0</v>
+        <v>13000.0</v>
       </c>
       <c r="B42" t="n">
-        <v>52.0</v>
+        <v>91.0</v>
       </c>
       <c r="C42" t="n">
-        <v>447.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2875.0</v>
+        <v>13400.0</v>
       </c>
       <c r="B43" t="n">
-        <v>56.0</v>
+        <v>92.0</v>
       </c>
       <c r="C43" t="n">
-        <v>367.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2874.0</v>
+        <v>17500.0</v>
       </c>
       <c r="B44" t="n">
-        <v>55.0</v>
+        <v>92.0</v>
       </c>
       <c r="C44" t="n">
-        <v>388.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5600.0</v>
+        <v>13200.0</v>
       </c>
       <c r="B45" t="n">
-        <v>62.0</v>
+        <v>91.0</v>
       </c>
       <c r="C45" t="n">
-        <v>425.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4333.0</v>
+        <v>12400.0</v>
       </c>
       <c r="B46" t="n">
-        <v>53.0</v>
+        <v>94.0</v>
       </c>
       <c r="C46" t="n">
-        <v>407.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30600.0</v>
+        <v>23300.0</v>
       </c>
       <c r="B47" t="n">
-        <v>54.0</v>
+        <v>120.0</v>
       </c>
       <c r="C47" t="n">
-        <v>367.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1733.0</v>
+        <v>14200.0</v>
       </c>
       <c r="B48" t="n">
-        <v>61.0</v>
+        <v>121.0</v>
       </c>
       <c r="C48" t="n">
-        <v>362.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2079.0</v>
+        <v>15900.0</v>
       </c>
       <c r="B49" t="n">
-        <v>59.0</v>
+        <v>122.0</v>
       </c>
       <c r="C49" t="n">
-        <v>381.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1500.0</v>
+        <v>14100.0</v>
       </c>
       <c r="B50" t="n">
-        <v>54.0</v>
+        <v>115.0</v>
       </c>
       <c r="C50" t="n">
-        <v>468.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1849.0</v>
+        <v>16700.0</v>
       </c>
       <c r="B51" t="n">
-        <v>54.0</v>
+        <v>127.0</v>
       </c>
       <c r="C51" t="n">
-        <v>392.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3833.0</v>
+        <v>16300.0</v>
       </c>
       <c r="B52" t="n">
-        <v>52.0</v>
+        <v>125.0</v>
       </c>
       <c r="C52" t="n">
-        <v>643.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6100.0</v>
+        <v>16500.0</v>
       </c>
       <c r="B53" t="n">
-        <v>64.0</v>
+        <v>118.0</v>
       </c>
       <c r="C53" t="n">
-        <v>485.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3600.0</v>
+        <v>14900.0</v>
       </c>
       <c r="B54" t="n">
-        <v>73.0</v>
+        <v>125.0</v>
       </c>
       <c r="C54" t="n">
-        <v>694.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3466.0</v>
+        <v>36400.0</v>
       </c>
       <c r="B55" t="n">
-        <v>58.0</v>
+        <v>122.0</v>
       </c>
       <c r="C55" t="n">
-        <v>443.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2099.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B56" t="n">
-        <v>61.0</v>
+        <v>129.0</v>
       </c>
       <c r="C56" t="n">
-        <v>364.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1800.0</v>
+        <v>15500.0</v>
       </c>
       <c r="B57" t="n">
-        <v>67.0</v>
+        <v>118.0</v>
       </c>
       <c r="C57" t="n">
-        <v>468.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2100.0</v>
+        <v>15100.0</v>
       </c>
       <c r="B58" t="n">
-        <v>60.0</v>
+        <v>130.0</v>
       </c>
       <c r="C58" t="n">
-        <v>477.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1750.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B59" t="n">
-        <v>60.0</v>
+        <v>125.0</v>
       </c>
       <c r="C59" t="n">
-        <v>463.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1716.0</v>
+        <v>15600.0</v>
       </c>
       <c r="B60" t="n">
-        <v>58.0</v>
+        <v>129.0</v>
       </c>
       <c r="C60" t="n">
-        <v>456.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1800.0</v>
+        <v>19500.0</v>
       </c>
       <c r="B61" t="n">
-        <v>63.0</v>
+        <v>107.0</v>
       </c>
       <c r="C61" t="n">
-        <v>495.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1528.0</v>
+        <v>13400.0</v>
       </c>
       <c r="B62" t="n">
-        <v>65.0</v>
+        <v>107.0</v>
       </c>
       <c r="C62" t="n">
-        <v>412.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1749.0</v>
+        <v>15000.0</v>
       </c>
       <c r="B63" t="n">
-        <v>61.0</v>
+        <v>113.0</v>
       </c>
       <c r="C63" t="n">
         <v>412.0</v>
@@ -3514,420 +3513,420 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1750.0</v>
+        <v>18300.0</v>
       </c>
       <c r="B64" t="n">
-        <v>61.0</v>
+        <v>141.0</v>
       </c>
       <c r="C64" t="n">
-        <v>5400.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>48900.0</v>
+        <v>15500.0</v>
       </c>
       <c r="B65" t="n">
-        <v>335.0</v>
+        <v>108.0</v>
       </c>
       <c r="C65" t="n">
-        <v>2833.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5650.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B66" t="n">
-        <v>57.0</v>
+        <v>120.0</v>
       </c>
       <c r="C66" t="n">
-        <v>536.0</v>
+        <v>436.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3567.0</v>
+        <v>22500.0</v>
       </c>
       <c r="B67" t="n">
-        <v>57.0</v>
+        <v>104.0</v>
       </c>
       <c r="C67" t="n">
-        <v>472.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3550.0</v>
+        <v>15200.0</v>
       </c>
       <c r="B68" t="n">
-        <v>61.0</v>
+        <v>115.0</v>
       </c>
       <c r="C68" t="n">
-        <v>463.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5650.0</v>
+        <v>13900.0</v>
       </c>
       <c r="B69" t="n">
-        <v>62.0</v>
+        <v>118.0</v>
       </c>
       <c r="C69" t="n">
-        <v>536.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1800.0</v>
+        <v>16200.0</v>
       </c>
       <c r="B70" t="n">
-        <v>53.0</v>
+        <v>117.0</v>
       </c>
       <c r="C70" t="n">
-        <v>408.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4000.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B71" t="n">
-        <v>61.0</v>
+        <v>190.0</v>
       </c>
       <c r="C71" t="n">
-        <v>991.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1500.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B72" t="n">
-        <v>77.0</v>
+        <v>129.0</v>
       </c>
       <c r="C72" t="n">
-        <v>388.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1733.0</v>
+        <v>27200.0</v>
       </c>
       <c r="B73" t="n">
-        <v>53.0</v>
+        <v>120.0</v>
       </c>
       <c r="C73" t="n">
-        <v>375.0</v>
+        <v>828.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="B74" t="n">
-        <v>122.0</v>
+        <v>132.0</v>
       </c>
       <c r="C74" t="n">
-        <v>362.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2650.0</v>
+        <v>13300.0</v>
       </c>
       <c r="B75" t="n">
-        <v>54.0</v>
+        <v>114.0</v>
       </c>
       <c r="C75" t="n">
-        <v>629.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1850.0</v>
+        <v>46700.0</v>
       </c>
       <c r="B76" t="n">
-        <v>67.0</v>
+        <v>129.0</v>
       </c>
       <c r="C76" t="n">
-        <v>643.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2650.0</v>
+        <v>23200.0</v>
       </c>
       <c r="B77" t="n">
-        <v>62.0</v>
+        <v>137.0</v>
       </c>
       <c r="C77" t="n">
-        <v>388.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1850.0</v>
+        <v>17800.0</v>
       </c>
       <c r="B78" t="n">
-        <v>61.0</v>
+        <v>118.0</v>
       </c>
       <c r="C78" t="n">
-        <v>364.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3075.0</v>
+        <v>17100.0</v>
       </c>
       <c r="B79" t="n">
-        <v>60.0</v>
+        <v>94.0</v>
       </c>
       <c r="C79" t="n">
-        <v>481.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1312.0</v>
+        <v>12800.0</v>
       </c>
       <c r="B80" t="n">
-        <v>79.0</v>
+        <v>92.0</v>
       </c>
       <c r="C80" t="n">
-        <v>412.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2200.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B81" t="n">
-        <v>82.0</v>
+        <v>91.0</v>
       </c>
       <c r="C81" t="n">
-        <v>429.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2080.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B82" t="n">
-        <v>60.0</v>
+        <v>94.0</v>
       </c>
       <c r="C82" t="n">
-        <v>367.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1528.0</v>
+        <v>19300.0</v>
       </c>
       <c r="B83" t="n">
-        <v>52.0</v>
+        <v>93.0</v>
       </c>
       <c r="C83" t="n">
-        <v>364.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2750.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>59.0</v>
+        <v>92.0</v>
       </c>
       <c r="C84" t="n">
-        <v>437.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1585.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B85" t="n">
-        <v>54.0</v>
+        <v>95.0</v>
       </c>
       <c r="C85" t="n">
-        <v>536.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2100.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B86" t="n">
-        <v>60.0</v>
+        <v>92.0</v>
       </c>
       <c r="C86" t="n">
-        <v>463.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1557.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B87" t="n">
-        <v>58.0</v>
+        <v>91.0</v>
       </c>
       <c r="C87" t="n">
-        <v>433.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2625.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B88" t="n">
-        <v>74.0</v>
+        <v>91.0</v>
       </c>
       <c r="C88" t="n">
-        <v>505.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1262.0</v>
+        <v>11200.0</v>
       </c>
       <c r="B89" t="n">
-        <v>61.0</v>
+        <v>91.0</v>
       </c>
       <c r="C89" t="n">
-        <v>447.0</v>
+        <v>409.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1783.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B90" t="n">
-        <v>54.0</v>
+        <v>92.0</v>
       </c>
       <c r="C90" t="n">
-        <v>452.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1766.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B91" t="n">
-        <v>61.0</v>
+        <v>93.0</v>
       </c>
       <c r="C91" t="n">
-        <v>408.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>72350.0</v>
+        <v>11400.0</v>
       </c>
       <c r="B92" t="n">
-        <v>58.0</v>
+        <v>92.0</v>
       </c>
       <c r="C92" t="n">
-        <v>62801.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5449.0</v>
+        <v>20700.0</v>
       </c>
       <c r="B93" t="n">
-        <v>60.0</v>
+        <v>114.0</v>
       </c>
       <c r="C93" t="n">
-        <v>4333.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2300.0</v>
+        <v>13700.0</v>
       </c>
       <c r="B94" t="n">
-        <v>64.0</v>
+        <v>114.0</v>
       </c>
       <c r="C94" t="n">
-        <v>3433.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5749.0</v>
+        <v>13000.0</v>
       </c>
       <c r="B95" t="n">
-        <v>54.0</v>
+        <v>112.0</v>
       </c>
       <c r="C95" t="n">
-        <v>1800.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1557.0</v>
+        <v>13800.0</v>
       </c>
       <c r="B96" t="n">
-        <v>59.0</v>
+        <v>121.0</v>
       </c>
       <c r="C96" t="n">
-        <v>3433.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2320.0</v>
+        <v>14200.0</v>
       </c>
       <c r="B97" t="n">
-        <v>61.0</v>
+        <v>122.0</v>
       </c>
       <c r="C97" t="n">
-        <v>3466.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2219.0</v>
+        <v>13900.0</v>
       </c>
       <c r="B98" t="n">
-        <v>62.0</v>
+        <v>122.0</v>
       </c>
       <c r="C98" t="n">
-        <v>3367.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2100.0</v>
+        <v>37700.0</v>
       </c>
       <c r="B99" t="n">
-        <v>62.0</v>
+        <v>135.0</v>
       </c>
       <c r="C99" t="n">
-        <v>3149.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2159.0</v>
+        <v>15600.0</v>
       </c>
       <c r="B100" t="n">
-        <v>77.0</v>
+        <v>128.0</v>
       </c>
       <c r="C100" t="n">
-        <v>3499.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2299.0</v>
+        <v>15300.0</v>
       </c>
       <c r="B101" t="n">
-        <v>67.0</v>
+        <v>118.0</v>
       </c>
       <c r="C101" t="n">
-        <v>3433.0</v>
+        <v>485.0</v>
       </c>
     </row>
   </sheetData>
@@ -3942,13 +3941,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26568E99-A256-48F6-8089-72C567EA7B11}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3981,1102 +3980,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>221.0</v>
+        <v>18200.0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.0</v>
+        <v>136.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2080.0</v>
+        <v>684.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>237.0</v>
+        <v>14000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>39.0</v>
+        <v>187.0</v>
       </c>
       <c r="C3" t="n">
-        <v>784.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>490.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B4" t="n">
-        <v>41.0</v>
+        <v>134.0</v>
       </c>
       <c r="C4" t="n">
-        <v>792.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>340.0</v>
+        <v>39600.0</v>
       </c>
       <c r="B5" t="n">
-        <v>43.0</v>
+        <v>141.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1287.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>572.0</v>
+        <v>12400.0</v>
       </c>
       <c r="B6" t="n">
-        <v>44.0</v>
+        <v>120.0</v>
       </c>
       <c r="C6" t="n">
-        <v>13100.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>325.0</v>
+        <v>7600.0</v>
       </c>
       <c r="B7" t="n">
-        <v>46.0</v>
+        <v>112.0</v>
       </c>
       <c r="C7" t="n">
-        <v>407.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>381.0</v>
+        <v>6350.0</v>
       </c>
       <c r="B8" t="n">
-        <v>50.0</v>
+        <v>112.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>396.0</v>
+        <v>6100.0</v>
       </c>
       <c r="B9" t="n">
-        <v>50.0</v>
+        <v>108.0</v>
       </c>
       <c r="C9" t="n">
-        <v>441.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>381.0</v>
+        <v>5850.0</v>
       </c>
       <c r="B10" t="n">
-        <v>46.0</v>
+        <v>112.0</v>
       </c>
       <c r="C10" t="n">
-        <v>441.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>381.0</v>
+        <v>5900.0</v>
       </c>
       <c r="B11" t="n">
-        <v>43.0</v>
+        <v>108.0</v>
       </c>
       <c r="C11" t="n">
-        <v>404.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>294.0</v>
+        <v>6300.0</v>
       </c>
       <c r="B12" t="n">
-        <v>42.0</v>
+        <v>114.0</v>
       </c>
       <c r="C12" t="n">
-        <v>668.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>332.0</v>
+        <v>7000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>51.0</v>
+        <v>110.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5600.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>396.0</v>
+        <v>5750.0</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0</v>
+        <v>107.0</v>
       </c>
       <c r="C14" t="n">
-        <v>348.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>399.0</v>
+        <v>5900.0</v>
       </c>
       <c r="B15" t="n">
-        <v>45.0</v>
+        <v>108.0</v>
       </c>
       <c r="C15" t="n">
-        <v>577.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>385.0</v>
+        <v>6750.0</v>
       </c>
       <c r="B16" t="n">
-        <v>45.0</v>
+        <v>109.0</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>408.0</v>
+        <v>5750.0</v>
       </c>
       <c r="B17" t="n">
-        <v>46.0</v>
+        <v>110.0</v>
       </c>
       <c r="C17" t="n">
-        <v>404.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>396.0</v>
+        <v>6550.0</v>
       </c>
       <c r="B18" t="n">
-        <v>65.0</v>
+        <v>113.0</v>
       </c>
       <c r="C18" t="n">
-        <v>392.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>412.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B19" t="n">
-        <v>49.0</v>
+        <v>109.0</v>
       </c>
       <c r="C19" t="n">
-        <v>403.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>433.0</v>
+        <v>5900.0</v>
       </c>
       <c r="B20" t="n">
-        <v>44.0</v>
+        <v>109.0</v>
       </c>
       <c r="C20" t="n">
-        <v>355.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>433.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B21" t="n">
-        <v>44.0</v>
+        <v>112.0</v>
       </c>
       <c r="C21" t="n">
-        <v>396.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>420.0</v>
+        <v>5550.0</v>
       </c>
       <c r="B22" t="n">
-        <v>47.0</v>
+        <v>110.0</v>
       </c>
       <c r="C22" t="n">
-        <v>371.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>429.0</v>
+        <v>5450.0</v>
       </c>
       <c r="B23" t="n">
-        <v>45.0</v>
+        <v>113.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1520.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>447.0</v>
+        <v>5500.0</v>
       </c>
       <c r="B24" t="n">
-        <v>47.0</v>
+        <v>110.0</v>
       </c>
       <c r="C24" t="n">
-        <v>374.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18100.0</v>
+        <v>5550.0</v>
       </c>
       <c r="B25" t="n">
-        <v>46.0</v>
+        <v>109.0</v>
       </c>
       <c r="C25" t="n">
-        <v>371.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>429.0</v>
+        <v>7200.0</v>
       </c>
       <c r="B26" t="n">
-        <v>46.0</v>
+        <v>109.0</v>
       </c>
       <c r="C26" t="n">
-        <v>364.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18100.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B27" t="n">
-        <v>46.0</v>
+        <v>110.0</v>
       </c>
       <c r="C27" t="n">
-        <v>367.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>408.0</v>
+        <v>6000.0</v>
       </c>
       <c r="B28" t="n">
-        <v>46.0</v>
+        <v>109.0</v>
       </c>
       <c r="C28" t="n">
-        <v>381.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>600.0</v>
+        <v>5800.0</v>
       </c>
       <c r="B29" t="n">
-        <v>46.0</v>
+        <v>109.0</v>
       </c>
       <c r="C29" t="n">
-        <v>2150.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>686.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B30" t="n">
-        <v>57.0</v>
+        <v>112.0</v>
       </c>
       <c r="C30" t="n">
-        <v>485.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>918.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B31" t="n">
-        <v>51.0</v>
+        <v>168.0</v>
       </c>
       <c r="C31" t="n">
-        <v>439.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>807.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B32" t="n">
-        <v>58.0</v>
+        <v>150.0</v>
       </c>
       <c r="C32" t="n">
-        <v>420.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>954.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B33" t="n">
-        <v>50.0</v>
+        <v>152.0</v>
       </c>
       <c r="C33" t="n">
-        <v>447.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2780.0</v>
+        <v>7150.0</v>
       </c>
       <c r="B34" t="n">
-        <v>58.0</v>
+        <v>147.0</v>
       </c>
       <c r="C34" t="n">
-        <v>396.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>631.0</v>
+        <v>11300.0</v>
       </c>
       <c r="B35" t="n">
-        <v>51.0</v>
+        <v>164.0</v>
       </c>
       <c r="C35" t="n">
-        <v>472.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>866.0</v>
+        <v>13400.0</v>
       </c>
       <c r="B36" t="n">
-        <v>53.0</v>
+        <v>145.0</v>
       </c>
       <c r="C36" t="n">
-        <v>420.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>735.0</v>
+        <v>9300.0</v>
       </c>
       <c r="B37" t="n">
-        <v>51.0</v>
+        <v>149.0</v>
       </c>
       <c r="C37" t="n">
-        <v>408.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>927.0</v>
+        <v>7300.0</v>
       </c>
       <c r="B38" t="n">
-        <v>53.0</v>
+        <v>130.0</v>
       </c>
       <c r="C38" t="n">
-        <v>472.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>850.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B39" t="n">
-        <v>54.0</v>
+        <v>133.0</v>
       </c>
       <c r="C39" t="n">
-        <v>465.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>883.0</v>
+        <v>7200.0</v>
       </c>
       <c r="B40" t="n">
-        <v>51.0</v>
+        <v>121.0</v>
       </c>
       <c r="C40" t="n">
-        <v>477.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1674.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B41" t="n">
-        <v>47.0</v>
+        <v>137.0</v>
       </c>
       <c r="C41" t="n">
-        <v>364.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>656.0</v>
+        <v>12200.0</v>
       </c>
       <c r="B42" t="n">
-        <v>46.0</v>
+        <v>115.0</v>
       </c>
       <c r="C42" t="n">
-        <v>388.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>728.0</v>
+        <v>11600.0</v>
       </c>
       <c r="B43" t="n">
-        <v>50.0</v>
+        <v>112.0</v>
       </c>
       <c r="C43" t="n">
-        <v>343.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7450.0</v>
+        <v>6850.0</v>
       </c>
       <c r="B44" t="n">
-        <v>45.0</v>
+        <v>147.0</v>
       </c>
       <c r="C44" t="n">
-        <v>355.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>721.0</v>
+        <v>10800.0</v>
       </c>
       <c r="B45" t="n">
-        <v>45.0</v>
+        <v>147.0</v>
       </c>
       <c r="C45" t="n">
-        <v>367.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>680.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B46" t="n">
-        <v>48.0</v>
+        <v>145.0</v>
       </c>
       <c r="C46" t="n">
-        <v>515.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1399.0</v>
+        <v>10600.0</v>
       </c>
       <c r="B47" t="n">
-        <v>61.0</v>
+        <v>150.0</v>
       </c>
       <c r="C47" t="n">
-        <v>336.0</v>
+        <v>2150.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>583.0</v>
+        <v>10800.0</v>
       </c>
       <c r="B48" t="n">
-        <v>45.0</v>
+        <v>152.0</v>
       </c>
       <c r="C48" t="n">
-        <v>318.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>510.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B49" t="n">
-        <v>44.0</v>
+        <v>112.0</v>
       </c>
       <c r="C49" t="n">
-        <v>315.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18099.0</v>
+        <v>7000.0</v>
       </c>
       <c r="B50" t="n">
-        <v>59.0</v>
+        <v>115.0</v>
       </c>
       <c r="C50" t="n">
-        <v>358.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>594.0</v>
+        <v>6300.0</v>
       </c>
       <c r="B51" t="n">
-        <v>45.0</v>
+        <v>109.0</v>
       </c>
       <c r="C51" t="n">
-        <v>325.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>429.0</v>
+        <v>6400.0</v>
       </c>
       <c r="B52" t="n">
-        <v>44.0</v>
+        <v>110.0</v>
       </c>
       <c r="C52" t="n">
-        <v>339.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>437.0</v>
+        <v>6750.0</v>
       </c>
       <c r="B53" t="n">
-        <v>46.0</v>
+        <v>112.0</v>
       </c>
       <c r="C53" t="n">
-        <v>437.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>392.0</v>
+        <v>6800.0</v>
       </c>
       <c r="B54" t="n">
-        <v>45.0</v>
+        <v>117.0</v>
       </c>
       <c r="C54" t="n">
-        <v>351.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>433.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B55" t="n">
-        <v>45.0</v>
+        <v>110.0</v>
       </c>
       <c r="C55" t="n">
-        <v>318.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>425.0</v>
+        <v>6300.0</v>
       </c>
       <c r="B56" t="n">
-        <v>45.0</v>
+        <v>110.0</v>
       </c>
       <c r="C56" t="n">
-        <v>367.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>548.0</v>
+        <v>6450.0</v>
       </c>
       <c r="B57" t="n">
-        <v>45.0</v>
+        <v>109.0</v>
       </c>
       <c r="C57" t="n">
-        <v>351.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>385.0</v>
+        <v>7350.0</v>
       </c>
       <c r="B58" t="n">
-        <v>66.0</v>
+        <v>115.0</v>
       </c>
       <c r="C58" t="n">
-        <v>329.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>355.0</v>
+        <v>6800.0</v>
       </c>
       <c r="B59" t="n">
-        <v>45.0</v>
+        <v>113.0</v>
       </c>
       <c r="C59" t="n">
-        <v>335.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>355.0</v>
+        <v>6450.0</v>
       </c>
       <c r="B60" t="n">
-        <v>46.0</v>
+        <v>114.0</v>
       </c>
       <c r="C60" t="n">
-        <v>351.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>443.0</v>
+        <v>6350.0</v>
       </c>
       <c r="B61" t="n">
-        <v>45.0</v>
+        <v>112.0</v>
       </c>
       <c r="C61" t="n">
-        <v>400.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>403.0</v>
+        <v>6450.0</v>
       </c>
       <c r="B62" t="n">
-        <v>45.0</v>
+        <v>115.0</v>
       </c>
       <c r="C62" t="n">
-        <v>339.0</v>
+        <v>1155.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>348.0</v>
+        <v>13000.0</v>
       </c>
       <c r="B63" t="n">
-        <v>45.0</v>
+        <v>112.0</v>
       </c>
       <c r="C63" t="n">
-        <v>300.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>346.0</v>
+        <v>6350.0</v>
       </c>
       <c r="B64" t="n">
-        <v>45.0</v>
+        <v>109.0</v>
       </c>
       <c r="C64" t="n">
-        <v>300.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>346.0</v>
+        <v>40100.0</v>
       </c>
       <c r="B65" t="n">
-        <v>46.0</v>
+        <v>515.0</v>
       </c>
       <c r="C65" t="n">
-        <v>433.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>388.0</v>
+        <v>13100.0</v>
       </c>
       <c r="B66" t="n">
-        <v>45.0</v>
+        <v>245.0</v>
       </c>
       <c r="C66" t="n">
-        <v>400.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>349.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B67" t="n">
-        <v>43.0</v>
+        <v>187.0</v>
       </c>
       <c r="C67" t="n">
-        <v>329.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>374.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B68" t="n">
-        <v>55.0</v>
+        <v>137.0</v>
       </c>
       <c r="C68" t="n">
-        <v>770.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>377.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B69" t="n">
-        <v>44.0</v>
+        <v>137.0</v>
       </c>
       <c r="C69" t="n">
-        <v>321.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>348.0</v>
+        <v>12000.0</v>
       </c>
       <c r="B70" t="n">
-        <v>45.0</v>
+        <v>159.0</v>
       </c>
       <c r="C70" t="n">
-        <v>343.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>377.0</v>
+        <v>12700.0</v>
       </c>
       <c r="B71" t="n">
-        <v>47.0</v>
+        <v>125.0</v>
       </c>
       <c r="C71" t="n">
-        <v>530.0</v>
+        <v>584.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="C72" t="n">
         <v>392.0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>346.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>377.0</v>
+        <v>13400.0</v>
       </c>
       <c r="B73" t="n">
-        <v>45.0</v>
+        <v>136.0</v>
       </c>
       <c r="C73" t="n">
-        <v>300.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>381.0</v>
+        <v>10950.0</v>
       </c>
       <c r="B74" t="n">
-        <v>45.0</v>
+        <v>145.0</v>
       </c>
       <c r="C74" t="n">
-        <v>340.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>371.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B75" t="n">
-        <v>45.0</v>
+        <v>147.0</v>
       </c>
       <c r="C75" t="n">
-        <v>339.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>381.0</v>
+        <v>18800.0</v>
       </c>
       <c r="B76" t="n">
-        <v>45.0</v>
+        <v>369.0</v>
       </c>
       <c r="C76" t="n">
-        <v>531.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>381.0</v>
+        <v>10700.0</v>
       </c>
       <c r="B77" t="n">
-        <v>46.0</v>
+        <v>139.0</v>
       </c>
       <c r="C77" t="n">
-        <v>300.0</v>
+        <v>15200.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>312.0</v>
+        <v>11400.0</v>
       </c>
       <c r="B78" t="n">
-        <v>46.0</v>
+        <v>147.0</v>
       </c>
       <c r="C78" t="n">
-        <v>309.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>416.0</v>
+        <v>10400.0</v>
       </c>
       <c r="B79" t="n">
-        <v>46.0</v>
+        <v>147.0</v>
       </c>
       <c r="C79" t="n">
-        <v>305.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>371.0</v>
+        <v>16400.0</v>
       </c>
       <c r="B80" t="n">
-        <v>46.0</v>
+        <v>118.0</v>
       </c>
       <c r="C80" t="n">
-        <v>338.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>472.0</v>
+        <v>6800.0</v>
       </c>
       <c r="B81" t="n">
-        <v>46.0</v>
+        <v>114.0</v>
       </c>
       <c r="C81" t="n">
-        <v>318.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>371.0</v>
+        <v>5350.0</v>
       </c>
       <c r="B82" t="n">
-        <v>46.0</v>
+        <v>110.0</v>
       </c>
       <c r="C82" t="n">
-        <v>332.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>392.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B83" t="n">
-        <v>46.0</v>
+        <v>137.0</v>
       </c>
       <c r="C83" t="n">
-        <v>346.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>728.0</v>
+        <v>7300.0</v>
       </c>
       <c r="B84" t="n">
-        <v>45.0</v>
+        <v>137.0</v>
       </c>
       <c r="C84" t="n">
-        <v>348.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>158.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B85" t="n">
-        <v>47.0</v>
+        <v>139.0</v>
       </c>
       <c r="C85" t="n">
-        <v>362.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>151.0</v>
+        <v>19200.0</v>
       </c>
       <c r="B86" t="n">
-        <v>50.0</v>
+        <v>139.0</v>
       </c>
       <c r="C86" t="n">
-        <v>1700.0</v>
+        <v>838.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>177.0</v>
+        <v>11400.0</v>
       </c>
       <c r="B87" t="n">
-        <v>56.0</v>
+        <v>163.0</v>
       </c>
       <c r="C87" t="n">
-        <v>281.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>157.0</v>
+        <v>10500.0</v>
       </c>
       <c r="B88" t="n">
-        <v>52.0</v>
+        <v>150.0</v>
       </c>
       <c r="C88" t="n">
-        <v>261.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>150.0</v>
+        <v>18000.0</v>
       </c>
       <c r="B89" t="n">
-        <v>45.0</v>
+        <v>156.0</v>
       </c>
       <c r="C89" t="n">
-        <v>254.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>150.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B90" t="n">
-        <v>45.0</v>
+        <v>154.0</v>
       </c>
       <c r="C90" t="n">
-        <v>257.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>147.0</v>
+        <v>7100.0</v>
       </c>
       <c r="B91" t="n">
-        <v>45.0</v>
+        <v>159.0</v>
       </c>
       <c r="C91" t="n">
-        <v>264.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>142.0</v>
+        <v>7750.0</v>
       </c>
       <c r="B92" t="n">
-        <v>45.0</v>
+        <v>145.0</v>
       </c>
       <c r="C92" t="n">
-        <v>248.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>175.0</v>
+        <v>5700.0</v>
       </c>
       <c r="B93" t="n">
-        <v>43.0</v>
+        <v>150.0</v>
       </c>
       <c r="C93" t="n">
-        <v>251.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
+        <v>5900.0</v>
+      </c>
+      <c r="B94" t="n">
         <v>145.0</v>
       </c>
-      <c r="B94" t="n">
-        <v>49.0</v>
-      </c>
       <c r="C94" t="n">
-        <v>271.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>136.0</v>
+        <v>14600.0</v>
       </c>
       <c r="B95" t="n">
-        <v>43.0</v>
+        <v>152.0</v>
       </c>
       <c r="C95" t="n">
-        <v>217.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>137.0</v>
+        <v>21200.0</v>
       </c>
       <c r="B96" t="n">
-        <v>55.0</v>
+        <v>117.0</v>
       </c>
       <c r="C96" t="n">
-        <v>280.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>164.0</v>
+        <v>6250.0</v>
       </c>
       <c r="B97" t="n">
-        <v>51.0</v>
+        <v>113.0</v>
       </c>
       <c r="C97" t="n">
-        <v>245.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>138.0</v>
+        <v>4400.0</v>
       </c>
       <c r="B98" t="n">
-        <v>50.0</v>
+        <v>113.0</v>
       </c>
       <c r="C98" t="n">
-        <v>309.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>137.0</v>
+        <v>4166.0</v>
       </c>
       <c r="B99" t="n">
-        <v>43.0</v>
+        <v>110.0</v>
       </c>
       <c r="C99" t="n">
-        <v>257.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>135.0</v>
+        <v>7150.0</v>
       </c>
       <c r="B100" t="n">
-        <v>43.0</v>
+        <v>109.0</v>
       </c>
       <c r="C100" t="n">
-        <v>253.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>237.0</v>
+        <v>4266.0</v>
       </c>
       <c r="B101" t="n">
-        <v>43.0</v>
+        <v>109.0</v>
       </c>
       <c r="C101" t="n">
-        <v>255.0</v>
+        <v>221.0</v>
       </c>
     </row>
   </sheetData>
@@ -5085,1156 +5084,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7294FAB-7666-47AE-83EF-091E22A62AC7}">
-  <dimension ref="A1:J101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1">
-        <f>MEDIAN(A2:A102)</f>
-        <v>4100</v>
-      </c>
-      <c r="I1">
-        <f>MEDIAN(B2:B102)</f>
-        <v>99</v>
-      </c>
-      <c r="J1">
-        <f>MEDIAN(C2:C102)</f>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>27700.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>858.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>412.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2260.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>463.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1557.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>515.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1485.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1833.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1362.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>547.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1542.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>456.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1375.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>392.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1887.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>412.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1374.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>403.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1337.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>385.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1387.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1337.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>385.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1375.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2040.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2675.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>226.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>443.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2550.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>605.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1966.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>520.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2080.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>525.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1916.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>515.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2140.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>536.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1900.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>515.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1866.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>509.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1950.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>728.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1966.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1585.0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>429.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1571.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>416.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3499.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1585.0</v>
-      </c>
-      <c r="B32" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>437.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1571.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>577.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1766.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>437.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1942.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>429.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1900.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>443.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>425.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1528.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>412.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1514.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>588.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>412.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1514.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>568.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1833.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>420.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1528.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>429.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1471.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>468.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1557.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>188.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1766.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>485.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1514.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>374.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1833.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2299.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>552.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1412.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>519.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2460.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>423.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1457.0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>463.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>408.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>411.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1671.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>412.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>19401.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1528.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1714.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1485.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>583.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1933.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>388.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>443.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1557.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>477.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1457.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>403.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1850.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>472.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2180.0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>425.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1883.0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>429.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1800.0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>396.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1040.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3433.0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>392.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>2875.0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>504.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1850.0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>610.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1716.0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>388.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2824.0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>367.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1514.0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>416.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1600.0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>468.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1514.0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>452.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2250.0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>468.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1783.0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>381.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1685.0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>388.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1585.0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>583.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1916.0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>472.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1657.0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1716.0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>425.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2039.0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>485.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1766.0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>154.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>392.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>572.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1899.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>452.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1816.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>424.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1800.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>415.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1866.0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>2220.0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>472.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1766.0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>437.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1866.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>559.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1816.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>452.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1628.0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1883.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2675.0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>343.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C102">
-    <sortCondition descending="1" ref="C1"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>